--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>924900</v>
+        <v>1316800</v>
       </c>
       <c r="E8" s="3">
-        <v>654600</v>
+        <v>1259600</v>
       </c>
       <c r="F8" s="3">
-        <v>216200</v>
+        <v>579800</v>
       </c>
       <c r="G8" s="3">
-        <v>62800</v>
+        <v>191500</v>
       </c>
       <c r="H8" s="3">
-        <v>59500</v>
+        <v>55700</v>
       </c>
       <c r="I8" s="3">
-        <v>56900</v>
+        <v>52700</v>
       </c>
       <c r="J8" s="3">
+        <v>50400</v>
+      </c>
+      <c r="K8" s="3">
         <v>49200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>75700</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>526900</v>
+        <v>835100</v>
       </c>
       <c r="E9" s="3">
-        <v>344200</v>
+        <v>717600</v>
       </c>
       <c r="F9" s="3">
-        <v>100200</v>
+        <v>304800</v>
       </c>
       <c r="G9" s="3">
-        <v>33400</v>
+        <v>88700</v>
       </c>
       <c r="H9" s="3">
-        <v>31000</v>
+        <v>29600</v>
       </c>
       <c r="I9" s="3">
-        <v>67900</v>
+        <v>27500</v>
       </c>
       <c r="J9" s="3">
+        <v>60100</v>
+      </c>
+      <c r="K9" s="3">
         <v>52900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>107400</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>398000</v>
+        <v>481700</v>
       </c>
       <c r="E10" s="3">
-        <v>310500</v>
+        <v>542000</v>
       </c>
       <c r="F10" s="3">
-        <v>116000</v>
+        <v>275000</v>
       </c>
       <c r="G10" s="3">
-        <v>29400</v>
+        <v>102800</v>
       </c>
       <c r="H10" s="3">
-        <v>28400</v>
+        <v>26100</v>
       </c>
       <c r="I10" s="3">
-        <v>-11000</v>
+        <v>25200</v>
       </c>
       <c r="J10" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-3700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-31600</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-138300</v>
+        <v>-162900</v>
       </c>
       <c r="E14" s="3">
-        <v>-90200</v>
+        <v>-187600</v>
       </c>
       <c r="F14" s="3">
-        <v>-26200</v>
+        <v>-79900</v>
       </c>
       <c r="G14" s="3">
-        <v>-92100</v>
+        <v>-23200</v>
       </c>
       <c r="H14" s="3">
-        <v>-37500</v>
+        <v>-81600</v>
       </c>
       <c r="I14" s="3">
-        <v>-48500</v>
+        <v>-33200</v>
       </c>
       <c r="J14" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-8700</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>42300</v>
+        <v>70100</v>
       </c>
       <c r="E15" s="3">
-        <v>35500</v>
+        <v>57700</v>
       </c>
       <c r="F15" s="3">
-        <v>5800</v>
+        <v>31400</v>
       </c>
       <c r="G15" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="H15" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I15" s="3" t="s">
+        <v>4100</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>719200</v>
+        <v>1100300</v>
       </c>
       <c r="E17" s="3">
-        <v>524500</v>
+        <v>979500</v>
       </c>
       <c r="F17" s="3">
-        <v>227100</v>
+        <v>464500</v>
       </c>
       <c r="G17" s="3">
-        <v>25800</v>
+        <v>201100</v>
       </c>
       <c r="H17" s="3">
-        <v>63700</v>
+        <v>22800</v>
       </c>
       <c r="I17" s="3">
-        <v>35100</v>
+        <v>56400</v>
       </c>
       <c r="J17" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K17" s="3">
         <v>62900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>68800</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>205700</v>
+        <v>216500</v>
       </c>
       <c r="E18" s="3">
-        <v>130200</v>
+        <v>280200</v>
       </c>
       <c r="F18" s="3">
-        <v>-10800</v>
+        <v>115300</v>
       </c>
       <c r="G18" s="3">
-        <v>37100</v>
+        <v>-9600</v>
       </c>
       <c r="H18" s="3">
-        <v>-4200</v>
+        <v>32800</v>
       </c>
       <c r="I18" s="3">
-        <v>21700</v>
+        <v>-3700</v>
       </c>
       <c r="J18" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-13700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>6900</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-70800</v>
+        <v>172300</v>
       </c>
       <c r="E20" s="3">
-        <v>-24200</v>
+        <v>-96400</v>
       </c>
       <c r="F20" s="3">
-        <v>-14300</v>
+        <v>-21500</v>
       </c>
       <c r="G20" s="3">
-        <v>-11300</v>
+        <v>-12700</v>
       </c>
       <c r="H20" s="3">
-        <v>-1700</v>
+        <v>-10000</v>
       </c>
       <c r="I20" s="3">
-        <v>-8100</v>
+        <v>-1500</v>
       </c>
       <c r="J20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2000</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>177300</v>
+        <v>459000</v>
       </c>
       <c r="E21" s="3">
-        <v>141500</v>
+        <v>241500</v>
       </c>
       <c r="F21" s="3">
-        <v>-19300</v>
+        <v>125300</v>
       </c>
       <c r="G21" s="3">
-        <v>30400</v>
+        <v>-17100</v>
       </c>
       <c r="H21" s="3">
-        <v>-2000</v>
+        <v>27000</v>
       </c>
       <c r="I21" s="3">
-        <v>17100</v>
+        <v>-1800</v>
       </c>
       <c r="J21" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>10200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32800</v>
+        <v>54900</v>
       </c>
       <c r="E22" s="3">
-        <v>13500</v>
+        <v>44700</v>
       </c>
       <c r="F22" s="3">
-        <v>6800</v>
+        <v>12000</v>
       </c>
       <c r="G22" s="3">
-        <v>3900</v>
+        <v>6000</v>
       </c>
       <c r="H22" s="3">
-        <v>9500</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
+        <v>3400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>8400</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3">
         <v>5000</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>102100</v>
+        <v>333900</v>
       </c>
       <c r="E23" s="3">
-        <v>92400</v>
+        <v>139000</v>
       </c>
       <c r="F23" s="3">
-        <v>-31900</v>
+        <v>81800</v>
       </c>
       <c r="G23" s="3">
-        <v>21900</v>
+        <v>-28300</v>
       </c>
       <c r="H23" s="3">
-        <v>-15400</v>
+        <v>19400</v>
       </c>
       <c r="I23" s="3">
-        <v>13600</v>
+        <v>-13700</v>
       </c>
       <c r="J23" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-19000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>31000</v>
+        <v>156300</v>
       </c>
       <c r="E24" s="3">
-        <v>8400</v>
+        <v>42300</v>
       </c>
       <c r="F24" s="3">
-        <v>-12300</v>
+        <v>7500</v>
       </c>
       <c r="G24" s="3">
-        <v>3000</v>
+        <v>-10900</v>
       </c>
       <c r="H24" s="3">
-        <v>-2600</v>
+        <v>2700</v>
       </c>
       <c r="I24" s="3">
-        <v>-700</v>
+        <v>-2300</v>
       </c>
       <c r="J24" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>71000</v>
+        <v>177600</v>
       </c>
       <c r="E26" s="3">
-        <v>84000</v>
+        <v>96700</v>
       </c>
       <c r="F26" s="3">
-        <v>-19600</v>
+        <v>74400</v>
       </c>
       <c r="G26" s="3">
-        <v>18900</v>
+        <v>-17400</v>
       </c>
       <c r="H26" s="3">
-        <v>-12900</v>
+        <v>16700</v>
       </c>
       <c r="I26" s="3">
-        <v>14300</v>
+        <v>-11400</v>
       </c>
       <c r="J26" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-4000</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>71000</v>
+        <v>177600</v>
       </c>
       <c r="E27" s="3">
-        <v>84000</v>
+        <v>96700</v>
       </c>
       <c r="F27" s="3">
-        <v>-19600</v>
+        <v>74400</v>
       </c>
       <c r="G27" s="3">
-        <v>18900</v>
+        <v>-17400</v>
       </c>
       <c r="H27" s="3">
-        <v>-12900</v>
+        <v>16700</v>
       </c>
       <c r="I27" s="3">
-        <v>14300</v>
+        <v>-11400</v>
       </c>
       <c r="J27" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-17100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,9 +1343,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1304,21 +1364,24 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K29" s="3">
         <v>300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-3700</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>70800</v>
+        <v>-172300</v>
       </c>
       <c r="E32" s="3">
-        <v>24200</v>
+        <v>96400</v>
       </c>
       <c r="F32" s="3">
-        <v>14300</v>
+        <v>21500</v>
       </c>
       <c r="G32" s="3">
-        <v>11300</v>
+        <v>12700</v>
       </c>
       <c r="H32" s="3">
-        <v>1700</v>
+        <v>10000</v>
       </c>
       <c r="I32" s="3">
-        <v>8100</v>
+        <v>1500</v>
       </c>
       <c r="J32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="K32" s="3">
         <v>5300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2000</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>71000</v>
+        <v>177600</v>
       </c>
       <c r="E33" s="3">
-        <v>84000</v>
+        <v>96700</v>
       </c>
       <c r="F33" s="3">
-        <v>-19600</v>
+        <v>74400</v>
       </c>
       <c r="G33" s="3">
-        <v>18900</v>
+        <v>-17400</v>
       </c>
       <c r="H33" s="3">
-        <v>-12900</v>
+        <v>16700</v>
       </c>
       <c r="I33" s="3">
-        <v>12800</v>
+        <v>-11400</v>
       </c>
       <c r="J33" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-16800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-3800</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>71000</v>
+        <v>177600</v>
       </c>
       <c r="E35" s="3">
-        <v>84000</v>
+        <v>96700</v>
       </c>
       <c r="F35" s="3">
-        <v>-19600</v>
+        <v>74400</v>
       </c>
       <c r="G35" s="3">
-        <v>18900</v>
+        <v>-17400</v>
       </c>
       <c r="H35" s="3">
-        <v>-12900</v>
+        <v>16700</v>
       </c>
       <c r="I35" s="3">
-        <v>12800</v>
+        <v>-11400</v>
       </c>
       <c r="J35" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-16800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-3800</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E41" s="3">
         <v>2800</v>
       </c>
-      <c r="E41" s="3">
-        <v>42500</v>
-      </c>
       <c r="F41" s="3">
-        <v>30800</v>
+        <v>37600</v>
       </c>
       <c r="G41" s="3">
-        <v>22200</v>
+        <v>27300</v>
       </c>
       <c r="H41" s="3">
-        <v>6800</v>
+        <v>19600</v>
       </c>
       <c r="I41" s="3">
-        <v>5700</v>
+        <v>6000</v>
       </c>
       <c r="J41" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3400</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>102200</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>30500</v>
+        <v>101000</v>
       </c>
       <c r="F42" s="3">
-        <v>6400</v>
+        <v>27000</v>
       </c>
       <c r="G42" s="3">
         <v>5700</v>
       </c>
       <c r="H42" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I42" s="3">
         <v>300</v>
       </c>
-      <c r="I42" s="3">
-        <v>1900</v>
-      </c>
       <c r="J42" s="3">
-        <v>100</v>
+        <v>1700</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>100</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>175500</v>
+        <v>198600</v>
       </c>
       <c r="E43" s="3">
-        <v>142500</v>
+        <v>173900</v>
       </c>
       <c r="F43" s="3">
-        <v>67000</v>
+        <v>126100</v>
       </c>
       <c r="G43" s="3">
-        <v>33100</v>
+        <v>59200</v>
       </c>
       <c r="H43" s="3">
-        <v>18300</v>
+        <v>29200</v>
       </c>
       <c r="I43" s="3">
-        <v>21400</v>
+        <v>16200</v>
       </c>
       <c r="J43" s="3">
+        <v>18900</v>
+      </c>
+      <c r="K43" s="3">
         <v>32900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>28600</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>49500</v>
+        <v>58500</v>
       </c>
       <c r="E44" s="3">
-        <v>10700</v>
+        <v>53700</v>
       </c>
       <c r="F44" s="3">
-        <v>4800</v>
+        <v>9500</v>
       </c>
       <c r="G44" s="3">
-        <v>2200</v>
+        <v>4200</v>
       </c>
       <c r="H44" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>1400</v>
       </c>
-      <c r="J44" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F45" s="3">
+        <v>900</v>
+      </c>
+      <c r="G45" s="3">
+        <v>400</v>
+      </c>
+      <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
+        <v>400</v>
+      </c>
+      <c r="J45" s="3">
         <v>500</v>
       </c>
-      <c r="G45" s="3">
-        <v>700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>500</v>
-      </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>4700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8300</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>311700</v>
+        <v>280900</v>
       </c>
       <c r="E46" s="3">
-        <v>227300</v>
+        <v>308100</v>
       </c>
       <c r="F46" s="3">
-        <v>109500</v>
+        <v>201000</v>
       </c>
       <c r="G46" s="3">
-        <v>63900</v>
+        <v>96800</v>
       </c>
       <c r="H46" s="3">
-        <v>27100</v>
+        <v>56500</v>
       </c>
       <c r="I46" s="3">
-        <v>30900</v>
+        <v>24000</v>
       </c>
       <c r="J46" s="3">
+        <v>27300</v>
+      </c>
+      <c r="K46" s="3">
         <v>20800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>21900</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>18400</v>
+        <v>600</v>
       </c>
       <c r="E47" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F47" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L47" s="3">
         <v>1200</v>
       </c>
-      <c r="F47" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G47" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4100</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1420800</v>
+        <v>1596000</v>
       </c>
       <c r="E48" s="3">
-        <v>943200</v>
+        <v>1404500</v>
       </c>
       <c r="F48" s="3">
-        <v>185100</v>
+        <v>834200</v>
       </c>
       <c r="G48" s="3">
-        <v>146900</v>
+        <v>163700</v>
       </c>
       <c r="H48" s="3">
-        <v>110000</v>
+        <v>129900</v>
       </c>
       <c r="I48" s="3">
-        <v>85800</v>
+        <v>97300</v>
       </c>
       <c r="J48" s="3">
+        <v>75900</v>
+      </c>
+      <c r="K48" s="3">
         <v>194700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>230700</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
         <v>23000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>33900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>19600</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>16800</v>
+        <v>17400</v>
       </c>
       <c r="G52" s="3">
-        <v>800</v>
+        <v>14900</v>
       </c>
       <c r="H52" s="3">
-        <v>1500</v>
+        <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
         <v>7000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>35800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1751000</v>
+        <v>1877500</v>
       </c>
       <c r="E54" s="3">
-        <v>1171700</v>
+        <v>1730800</v>
       </c>
       <c r="F54" s="3">
-        <v>313000</v>
+        <v>1036300</v>
       </c>
       <c r="G54" s="3">
-        <v>214600</v>
+        <v>276800</v>
       </c>
       <c r="H54" s="3">
-        <v>142700</v>
+        <v>189800</v>
       </c>
       <c r="I54" s="3">
-        <v>120000</v>
+        <v>126200</v>
       </c>
       <c r="J54" s="3">
+        <v>106100</v>
+      </c>
+      <c r="K54" s="3">
         <v>113600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>183600</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>332200</v>
+        <v>199600</v>
       </c>
       <c r="E57" s="3">
-        <v>224400</v>
+        <v>328400</v>
       </c>
       <c r="F57" s="3">
-        <v>112800</v>
+        <v>198500</v>
       </c>
       <c r="G57" s="3">
-        <v>74000</v>
+        <v>99700</v>
       </c>
       <c r="H57" s="3">
-        <v>54500</v>
+        <v>65400</v>
       </c>
       <c r="I57" s="3">
-        <v>41000</v>
+        <v>48200</v>
       </c>
       <c r="J57" s="3">
+        <v>36300</v>
+      </c>
+      <c r="K57" s="3">
         <v>37600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>11600</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>24500</v>
+        <v>28200</v>
       </c>
       <c r="E58" s="3">
-        <v>1700</v>
+        <v>24200</v>
       </c>
       <c r="F58" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
       </c>
       <c r="H58" s="3">
+        <v>700</v>
+      </c>
+      <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
-        <v>700</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>120400</v>
+        <v>158500</v>
       </c>
       <c r="E59" s="3">
-        <v>79900</v>
+        <v>118900</v>
       </c>
       <c r="F59" s="3">
-        <v>44400</v>
+        <v>70700</v>
       </c>
       <c r="G59" s="3">
-        <v>19100</v>
+        <v>39300</v>
       </c>
       <c r="H59" s="3">
-        <v>16500</v>
+        <v>16900</v>
       </c>
       <c r="I59" s="3">
-        <v>12600</v>
+        <v>14600</v>
       </c>
       <c r="J59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K59" s="3">
         <v>29000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>24000</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>477100</v>
+        <v>386300</v>
       </c>
       <c r="E60" s="3">
-        <v>306100</v>
+        <v>471600</v>
       </c>
       <c r="F60" s="3">
-        <v>158100</v>
+        <v>270700</v>
       </c>
       <c r="G60" s="3">
-        <v>93900</v>
+        <v>139800</v>
       </c>
       <c r="H60" s="3">
-        <v>71600</v>
+        <v>83000</v>
       </c>
       <c r="I60" s="3">
-        <v>54300</v>
+        <v>63400</v>
       </c>
       <c r="J60" s="3">
+        <v>48000</v>
+      </c>
+      <c r="K60" s="3">
         <v>35100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>32900</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>163600</v>
+        <v>128800</v>
       </c>
       <c r="E61" s="3">
-        <v>102300</v>
+        <v>161700</v>
       </c>
       <c r="F61" s="3">
-        <v>45800</v>
+        <v>90500</v>
       </c>
       <c r="G61" s="3">
-        <v>40700</v>
+        <v>40500</v>
       </c>
       <c r="H61" s="3">
-        <v>26400</v>
+        <v>36000</v>
       </c>
       <c r="I61" s="3">
-        <v>21700</v>
+        <v>23400</v>
       </c>
       <c r="J61" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K61" s="3">
         <v>22300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>31200</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>406000</v>
+        <v>432800</v>
       </c>
       <c r="E62" s="3">
-        <v>303800</v>
+        <v>401300</v>
       </c>
       <c r="F62" s="3">
-        <v>103100</v>
+        <v>268700</v>
       </c>
       <c r="G62" s="3">
-        <v>54800</v>
+        <v>91200</v>
       </c>
       <c r="H62" s="3">
-        <v>38200</v>
+        <v>48500</v>
       </c>
       <c r="I62" s="3">
-        <v>24600</v>
+        <v>33800</v>
       </c>
       <c r="J62" s="3">
+        <v>21800</v>
+      </c>
+      <c r="K62" s="3">
         <v>47100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>60100</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1046700</v>
+        <v>947900</v>
       </c>
       <c r="E66" s="3">
-        <v>712200</v>
+        <v>1034600</v>
       </c>
       <c r="F66" s="3">
-        <v>307000</v>
+        <v>629900</v>
       </c>
       <c r="G66" s="3">
-        <v>189400</v>
+        <v>271500</v>
       </c>
       <c r="H66" s="3">
-        <v>136300</v>
+        <v>167500</v>
       </c>
       <c r="I66" s="3">
-        <v>100500</v>
+        <v>120500</v>
       </c>
       <c r="J66" s="3">
+        <v>88900</v>
+      </c>
+      <c r="K66" s="3">
         <v>106700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>146100</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>312400</v>
+        <v>522600</v>
       </c>
       <c r="E72" s="3">
-        <v>157000</v>
+        <v>308800</v>
       </c>
       <c r="F72" s="3">
-        <v>-15200</v>
+        <v>138900</v>
       </c>
       <c r="G72" s="3">
-        <v>4100</v>
+        <v>-13400</v>
       </c>
       <c r="H72" s="3">
-        <v>-14800</v>
+        <v>3600</v>
       </c>
       <c r="I72" s="3">
-        <v>-1900</v>
+        <v>-13100</v>
       </c>
       <c r="J72" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-14600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-12400</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>704300</v>
+        <v>929500</v>
       </c>
       <c r="E76" s="3">
-        <v>459400</v>
+        <v>696200</v>
       </c>
       <c r="F76" s="3">
-        <v>6000</v>
+        <v>406300</v>
       </c>
       <c r="G76" s="3">
-        <v>25200</v>
+        <v>5300</v>
       </c>
       <c r="H76" s="3">
-        <v>6400</v>
+        <v>22300</v>
       </c>
       <c r="I76" s="3">
-        <v>19400</v>
+        <v>5600</v>
       </c>
       <c r="J76" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>37500</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>71000</v>
+        <v>177600</v>
       </c>
       <c r="E81" s="3">
-        <v>84000</v>
+        <v>96700</v>
       </c>
       <c r="F81" s="3">
-        <v>-19600</v>
+        <v>74400</v>
       </c>
       <c r="G81" s="3">
-        <v>18900</v>
+        <v>-17400</v>
       </c>
       <c r="H81" s="3">
-        <v>-12900</v>
+        <v>16700</v>
       </c>
       <c r="I81" s="3">
-        <v>12800</v>
+        <v>-11400</v>
       </c>
       <c r="J81" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-16800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-3800</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>42300</v>
+        <v>70100</v>
       </c>
       <c r="E83" s="3">
-        <v>35500</v>
+        <v>57700</v>
       </c>
       <c r="F83" s="3">
-        <v>5800</v>
+        <v>31400</v>
       </c>
       <c r="G83" s="3">
-        <v>4700</v>
+        <v>5100</v>
       </c>
       <c r="H83" s="3">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="I83" s="3">
         <v>3500</v>
       </c>
       <c r="J83" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K83" s="3">
         <v>3600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>168200</v>
+        <v>148700</v>
       </c>
       <c r="E89" s="3">
-        <v>122000</v>
+        <v>235400</v>
       </c>
       <c r="F89" s="3">
-        <v>48500</v>
+        <v>108100</v>
       </c>
       <c r="G89" s="3">
-        <v>49600</v>
+        <v>42900</v>
       </c>
       <c r="H89" s="3">
-        <v>25600</v>
+        <v>44000</v>
       </c>
       <c r="I89" s="3">
-        <v>23900</v>
+        <v>22700</v>
       </c>
       <c r="J89" s="3">
+        <v>21200</v>
+      </c>
+      <c r="K89" s="3">
         <v>9400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17300</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-136700</v>
+        <v>-137200</v>
       </c>
       <c r="E91" s="3">
-        <v>-130500</v>
+        <v>-192500</v>
       </c>
       <c r="F91" s="3">
-        <v>-40900</v>
+        <v>-115600</v>
       </c>
       <c r="G91" s="3">
-        <v>-34600</v>
+        <v>-36200</v>
       </c>
       <c r="H91" s="3">
-        <v>-23100</v>
+        <v>-30700</v>
       </c>
       <c r="I91" s="3">
-        <v>-14800</v>
+        <v>-20500</v>
       </c>
       <c r="J91" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-8900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-25600</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-137700</v>
+        <v>-75500</v>
       </c>
       <c r="E94" s="3">
-        <v>-140700</v>
+        <v>-193800</v>
       </c>
       <c r="F94" s="3">
-        <v>-39200</v>
+        <v>-124600</v>
       </c>
       <c r="G94" s="3">
-        <v>-51300</v>
+        <v>-34700</v>
       </c>
       <c r="H94" s="3">
-        <v>-24200</v>
+        <v>-45400</v>
       </c>
       <c r="I94" s="3">
-        <v>-18300</v>
+        <v>-21400</v>
       </c>
       <c r="J94" s="3">
+        <v>-16200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-9800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-20800</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,8 +3291,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3083,14 +3316,17 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
         <v>-100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-1000</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-34700</v>
+        <v>-74200</v>
       </c>
       <c r="E100" s="3">
-        <v>14300</v>
+        <v>-47200</v>
       </c>
       <c r="F100" s="3">
-        <v>-8100</v>
+        <v>12700</v>
       </c>
       <c r="G100" s="3">
-        <v>700</v>
+        <v>-7200</v>
       </c>
       <c r="H100" s="3">
+        <v>600</v>
+      </c>
+      <c r="I100" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="J100" s="3">
         <v>-2600</v>
       </c>
-      <c r="I100" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>2600</v>
+        <v>6400</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="F101" s="3">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
       </c>
       <c r="I101" s="3">
+        <v>100</v>
+      </c>
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-1600</v>
+        <v>5400</v>
       </c>
       <c r="E102" s="3">
-        <v>-4300</v>
+        <v>-2100</v>
       </c>
       <c r="F102" s="3">
-        <v>2100</v>
+        <v>-3800</v>
       </c>
       <c r="G102" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-800</v>
       </c>
-      <c r="H102" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I102" s="3">
-        <v>2800</v>
-      </c>
-      <c r="J102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-3000</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1316800</v>
+        <v>1220500</v>
       </c>
       <c r="E8" s="3">
-        <v>1259600</v>
+        <v>1167600</v>
       </c>
       <c r="F8" s="3">
-        <v>579800</v>
+        <v>537400</v>
       </c>
       <c r="G8" s="3">
-        <v>191500</v>
+        <v>177500</v>
       </c>
       <c r="H8" s="3">
-        <v>55700</v>
+        <v>51600</v>
       </c>
       <c r="I8" s="3">
-        <v>52700</v>
+        <v>48800</v>
       </c>
       <c r="J8" s="3">
-        <v>50400</v>
+        <v>46700</v>
       </c>
       <c r="K8" s="3">
         <v>49200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>835100</v>
+        <v>774100</v>
       </c>
       <c r="E9" s="3">
-        <v>717600</v>
+        <v>665100</v>
       </c>
       <c r="F9" s="3">
-        <v>304800</v>
+        <v>282500</v>
       </c>
       <c r="G9" s="3">
-        <v>88700</v>
+        <v>82200</v>
       </c>
       <c r="H9" s="3">
-        <v>29600</v>
+        <v>27400</v>
       </c>
       <c r="I9" s="3">
-        <v>27500</v>
+        <v>25500</v>
       </c>
       <c r="J9" s="3">
-        <v>60100</v>
+        <v>55700</v>
       </c>
       <c r="K9" s="3">
         <v>52900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>481700</v>
+        <v>446500</v>
       </c>
       <c r="E10" s="3">
-        <v>542000</v>
+        <v>502400</v>
       </c>
       <c r="F10" s="3">
-        <v>275000</v>
+        <v>254900</v>
       </c>
       <c r="G10" s="3">
-        <v>102800</v>
+        <v>95300</v>
       </c>
       <c r="H10" s="3">
-        <v>26100</v>
+        <v>24200</v>
       </c>
       <c r="I10" s="3">
-        <v>25200</v>
+        <v>23300</v>
       </c>
       <c r="J10" s="3">
-        <v>-9700</v>
+        <v>-9000</v>
       </c>
       <c r="K10" s="3">
         <v>-3700</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-162900</v>
+        <v>-151000</v>
       </c>
       <c r="E14" s="3">
-        <v>-187600</v>
+        <v>-173900</v>
       </c>
       <c r="F14" s="3">
-        <v>-79900</v>
+        <v>-74000</v>
       </c>
       <c r="G14" s="3">
-        <v>-23200</v>
+        <v>-21500</v>
       </c>
       <c r="H14" s="3">
-        <v>-81600</v>
+        <v>-75600</v>
       </c>
       <c r="I14" s="3">
-        <v>-33200</v>
+        <v>-30800</v>
       </c>
       <c r="J14" s="3">
-        <v>-42900</v>
+        <v>-39800</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
@@ -930,22 +930,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>70100</v>
+        <v>65000</v>
       </c>
       <c r="E15" s="3">
-        <v>57700</v>
+        <v>53400</v>
       </c>
       <c r="F15" s="3">
-        <v>31400</v>
+        <v>29100</v>
       </c>
       <c r="G15" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H15" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="I15" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1100300</v>
+        <v>1019800</v>
       </c>
       <c r="E17" s="3">
-        <v>979500</v>
+        <v>907900</v>
       </c>
       <c r="F17" s="3">
-        <v>464500</v>
+        <v>430500</v>
       </c>
       <c r="G17" s="3">
-        <v>201100</v>
+        <v>186400</v>
       </c>
       <c r="H17" s="3">
-        <v>22800</v>
+        <v>21200</v>
       </c>
       <c r="I17" s="3">
-        <v>56400</v>
+        <v>52300</v>
       </c>
       <c r="J17" s="3">
-        <v>31100</v>
+        <v>28900</v>
       </c>
       <c r="K17" s="3">
         <v>62900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>216500</v>
+        <v>200700</v>
       </c>
       <c r="E18" s="3">
-        <v>280200</v>
+        <v>259700</v>
       </c>
       <c r="F18" s="3">
-        <v>115300</v>
+        <v>106900</v>
       </c>
       <c r="G18" s="3">
-        <v>-9600</v>
+        <v>-8900</v>
       </c>
       <c r="H18" s="3">
-        <v>32800</v>
+        <v>30400</v>
       </c>
       <c r="I18" s="3">
-        <v>-3700</v>
+        <v>-3400</v>
       </c>
       <c r="J18" s="3">
-        <v>19200</v>
+        <v>17800</v>
       </c>
       <c r="K18" s="3">
         <v>-13700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>172300</v>
+        <v>159700</v>
       </c>
       <c r="E20" s="3">
-        <v>-96400</v>
+        <v>-89400</v>
       </c>
       <c r="F20" s="3">
-        <v>-21500</v>
+        <v>-19900</v>
       </c>
       <c r="G20" s="3">
-        <v>-12700</v>
+        <v>-11700</v>
       </c>
       <c r="H20" s="3">
-        <v>-10000</v>
+        <v>-9300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="J20" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="K20" s="3">
         <v>-5300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>459000</v>
+        <v>425400</v>
       </c>
       <c r="E21" s="3">
-        <v>241500</v>
+        <v>223800</v>
       </c>
       <c r="F21" s="3">
-        <v>125300</v>
+        <v>116200</v>
       </c>
       <c r="G21" s="3">
-        <v>-17100</v>
+        <v>-15900</v>
       </c>
       <c r="H21" s="3">
-        <v>27000</v>
+        <v>25000</v>
       </c>
       <c r="I21" s="3">
-        <v>-1800</v>
+        <v>-1600</v>
       </c>
       <c r="J21" s="3">
-        <v>15200</v>
+        <v>14100</v>
       </c>
       <c r="K21" s="3">
         <v>-15400</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>54900</v>
+        <v>50900</v>
       </c>
       <c r="E22" s="3">
-        <v>44700</v>
+        <v>41500</v>
       </c>
       <c r="F22" s="3">
-        <v>12000</v>
+        <v>11100</v>
       </c>
       <c r="G22" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="H22" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="I22" s="3">
-        <v>8400</v>
+        <v>7800</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>333900</v>
+        <v>309500</v>
       </c>
       <c r="E23" s="3">
-        <v>139000</v>
+        <v>128800</v>
       </c>
       <c r="F23" s="3">
-        <v>81800</v>
+        <v>75900</v>
       </c>
       <c r="G23" s="3">
-        <v>-28300</v>
+        <v>-26200</v>
       </c>
       <c r="H23" s="3">
-        <v>19400</v>
+        <v>18000</v>
       </c>
       <c r="I23" s="3">
-        <v>-13700</v>
+        <v>-12700</v>
       </c>
       <c r="J23" s="3">
-        <v>12100</v>
+        <v>11200</v>
       </c>
       <c r="K23" s="3">
         <v>-19000</v>
@@ -1188,22 +1188,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>156300</v>
+        <v>144800</v>
       </c>
       <c r="E24" s="3">
-        <v>42300</v>
+        <v>39200</v>
       </c>
       <c r="F24" s="3">
-        <v>7500</v>
+        <v>6900</v>
       </c>
       <c r="G24" s="3">
-        <v>-10900</v>
+        <v>-10100</v>
       </c>
       <c r="H24" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="I24" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="J24" s="3">
         <v>-600</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>177600</v>
+        <v>164700</v>
       </c>
       <c r="E26" s="3">
-        <v>96700</v>
+        <v>89700</v>
       </c>
       <c r="F26" s="3">
-        <v>74400</v>
+        <v>68900</v>
       </c>
       <c r="G26" s="3">
-        <v>-17400</v>
+        <v>-16100</v>
       </c>
       <c r="H26" s="3">
-        <v>16700</v>
+        <v>15500</v>
       </c>
       <c r="I26" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="J26" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="K26" s="3">
         <v>-17000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>177600</v>
+        <v>164700</v>
       </c>
       <c r="E27" s="3">
-        <v>96700</v>
+        <v>89700</v>
       </c>
       <c r="F27" s="3">
-        <v>74400</v>
+        <v>68900</v>
       </c>
       <c r="G27" s="3">
-        <v>-17400</v>
+        <v>-16100</v>
       </c>
       <c r="H27" s="3">
-        <v>16700</v>
+        <v>15500</v>
       </c>
       <c r="I27" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="J27" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="K27" s="3">
         <v>-17100</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="K29" s="3">
         <v>300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-172300</v>
+        <v>-159700</v>
       </c>
       <c r="E32" s="3">
-        <v>96400</v>
+        <v>89400</v>
       </c>
       <c r="F32" s="3">
-        <v>21500</v>
+        <v>19900</v>
       </c>
       <c r="G32" s="3">
-        <v>12700</v>
+        <v>11700</v>
       </c>
       <c r="H32" s="3">
-        <v>10000</v>
+        <v>9300</v>
       </c>
       <c r="I32" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J32" s="3">
-        <v>7200</v>
+        <v>6700</v>
       </c>
       <c r="K32" s="3">
         <v>5300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>177600</v>
+        <v>164700</v>
       </c>
       <c r="E33" s="3">
-        <v>96700</v>
+        <v>89700</v>
       </c>
       <c r="F33" s="3">
-        <v>74400</v>
+        <v>68900</v>
       </c>
       <c r="G33" s="3">
-        <v>-17400</v>
+        <v>-16100</v>
       </c>
       <c r="H33" s="3">
-        <v>16700</v>
+        <v>15500</v>
       </c>
       <c r="I33" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="J33" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K33" s="3">
         <v>-16800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>177600</v>
+        <v>164700</v>
       </c>
       <c r="E35" s="3">
-        <v>96700</v>
+        <v>89700</v>
       </c>
       <c r="F35" s="3">
-        <v>74400</v>
+        <v>68900</v>
       </c>
       <c r="G35" s="3">
-        <v>-17400</v>
+        <v>-16100</v>
       </c>
       <c r="H35" s="3">
-        <v>16700</v>
+        <v>15500</v>
       </c>
       <c r="I35" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="J35" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K35" s="3">
         <v>-16800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50300</v>
+        <v>47000</v>
       </c>
       <c r="E41" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F41" s="3">
-        <v>37600</v>
+        <v>34900</v>
       </c>
       <c r="G41" s="3">
-        <v>27300</v>
+        <v>25300</v>
       </c>
       <c r="H41" s="3">
-        <v>19600</v>
+        <v>18200</v>
       </c>
       <c r="I41" s="3">
-        <v>6000</v>
+        <v>5600</v>
       </c>
       <c r="J41" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="K41" s="3">
         <v>2400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>43000</v>
       </c>
       <c r="E42" s="3">
-        <v>101000</v>
+        <v>93800</v>
       </c>
       <c r="F42" s="3">
-        <v>27000</v>
+        <v>25100</v>
       </c>
       <c r="G42" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="H42" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="I42" s="3">
         <v>300</v>
       </c>
       <c r="J42" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>198600</v>
+        <v>195000</v>
       </c>
       <c r="E43" s="3">
-        <v>173900</v>
+        <v>161400</v>
       </c>
       <c r="F43" s="3">
-        <v>126100</v>
+        <v>117000</v>
       </c>
       <c r="G43" s="3">
-        <v>59200</v>
+        <v>55000</v>
       </c>
       <c r="H43" s="3">
-        <v>29200</v>
+        <v>27100</v>
       </c>
       <c r="I43" s="3">
-        <v>16200</v>
+        <v>15000</v>
       </c>
       <c r="J43" s="3">
-        <v>18900</v>
+        <v>17500</v>
       </c>
       <c r="K43" s="3">
         <v>32900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58500</v>
+        <v>55900</v>
       </c>
       <c r="E44" s="3">
-        <v>53700</v>
+        <v>49800</v>
       </c>
       <c r="F44" s="3">
-        <v>9500</v>
+        <v>8800</v>
       </c>
       <c r="G44" s="3">
-        <v>4200</v>
+        <v>3900</v>
       </c>
       <c r="H44" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="I44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J44" s="3">
         <v>1100</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1200</v>
       </c>
       <c r="K44" s="3">
         <v>1400</v>
@@ -1787,10 +1787,10 @@
         <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
@@ -1802,7 +1802,7 @@
         <v>400</v>
       </c>
       <c r="J45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>4700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>280900</v>
+        <v>275800</v>
       </c>
       <c r="E46" s="3">
-        <v>308100</v>
+        <v>286000</v>
       </c>
       <c r="F46" s="3">
-        <v>201000</v>
+        <v>186600</v>
       </c>
       <c r="G46" s="3">
-        <v>96800</v>
+        <v>89900</v>
       </c>
       <c r="H46" s="3">
-        <v>56500</v>
+        <v>52500</v>
       </c>
       <c r="I46" s="3">
-        <v>24000</v>
+        <v>22300</v>
       </c>
       <c r="J46" s="3">
-        <v>27300</v>
+        <v>25400</v>
       </c>
       <c r="K46" s="3">
         <v>20800</v>
@@ -1853,22 +1853,22 @@
         <v>600</v>
       </c>
       <c r="E47" s="3">
-        <v>18200</v>
+        <v>16900</v>
       </c>
       <c r="F47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H47" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="I47" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J47" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="K47" s="3">
         <v>3100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1596000</v>
+        <v>1567000</v>
       </c>
       <c r="E48" s="3">
-        <v>1404500</v>
+        <v>1303600</v>
       </c>
       <c r="F48" s="3">
-        <v>834200</v>
+        <v>774300</v>
       </c>
       <c r="G48" s="3">
-        <v>163700</v>
+        <v>151900</v>
       </c>
       <c r="H48" s="3">
-        <v>129900</v>
+        <v>120600</v>
       </c>
       <c r="I48" s="3">
-        <v>97300</v>
+        <v>90300</v>
       </c>
       <c r="J48" s="3">
-        <v>75900</v>
+        <v>70400</v>
       </c>
       <c r="K48" s="3">
         <v>194700</v>
@@ -2021,16 +2021,16 @@
         <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>17400</v>
+        <v>16100</v>
       </c>
       <c r="G52" s="3">
-        <v>14900</v>
+        <v>13800</v>
       </c>
       <c r="H52" s="3">
         <v>700</v>
       </c>
       <c r="I52" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1877500</v>
+        <v>1843400</v>
       </c>
       <c r="E54" s="3">
-        <v>1730800</v>
+        <v>1606500</v>
       </c>
       <c r="F54" s="3">
-        <v>1036300</v>
+        <v>961900</v>
       </c>
       <c r="G54" s="3">
-        <v>276800</v>
+        <v>256900</v>
       </c>
       <c r="H54" s="3">
-        <v>189800</v>
+        <v>176200</v>
       </c>
       <c r="I54" s="3">
-        <v>126200</v>
+        <v>117100</v>
       </c>
       <c r="J54" s="3">
-        <v>106100</v>
+        <v>98500</v>
       </c>
       <c r="K54" s="3">
         <v>113600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>199600</v>
+        <v>196000</v>
       </c>
       <c r="E57" s="3">
-        <v>328400</v>
+        <v>304800</v>
       </c>
       <c r="F57" s="3">
-        <v>198500</v>
+        <v>184200</v>
       </c>
       <c r="G57" s="3">
-        <v>99700</v>
+        <v>92600</v>
       </c>
       <c r="H57" s="3">
-        <v>65400</v>
+        <v>60700</v>
       </c>
       <c r="I57" s="3">
-        <v>48200</v>
+        <v>44800</v>
       </c>
       <c r="J57" s="3">
-        <v>36300</v>
+        <v>33700</v>
       </c>
       <c r="K57" s="3">
         <v>37600</v>
@@ -2177,16 +2177,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>28200</v>
+        <v>27700</v>
       </c>
       <c r="E58" s="3">
-        <v>24200</v>
+        <v>22500</v>
       </c>
       <c r="F58" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
         <v>700</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158500</v>
+        <v>155700</v>
       </c>
       <c r="E59" s="3">
-        <v>118900</v>
+        <v>110400</v>
       </c>
       <c r="F59" s="3">
-        <v>70700</v>
+        <v>65600</v>
       </c>
       <c r="G59" s="3">
-        <v>39300</v>
+        <v>36500</v>
       </c>
       <c r="H59" s="3">
-        <v>16900</v>
+        <v>15700</v>
       </c>
       <c r="I59" s="3">
-        <v>14600</v>
+        <v>13600</v>
       </c>
       <c r="J59" s="3">
-        <v>11100</v>
+        <v>10300</v>
       </c>
       <c r="K59" s="3">
         <v>29000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>386300</v>
+        <v>379300</v>
       </c>
       <c r="E60" s="3">
-        <v>471600</v>
+        <v>437700</v>
       </c>
       <c r="F60" s="3">
-        <v>270700</v>
+        <v>251300</v>
       </c>
       <c r="G60" s="3">
-        <v>139800</v>
+        <v>129800</v>
       </c>
       <c r="H60" s="3">
-        <v>83000</v>
+        <v>77100</v>
       </c>
       <c r="I60" s="3">
-        <v>63400</v>
+        <v>58800</v>
       </c>
       <c r="J60" s="3">
-        <v>48000</v>
+        <v>44600</v>
       </c>
       <c r="K60" s="3">
         <v>35100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>128800</v>
+        <v>126500</v>
       </c>
       <c r="E61" s="3">
-        <v>161700</v>
+        <v>150100</v>
       </c>
       <c r="F61" s="3">
-        <v>90500</v>
+        <v>84000</v>
       </c>
       <c r="G61" s="3">
-        <v>40500</v>
+        <v>37600</v>
       </c>
       <c r="H61" s="3">
-        <v>36000</v>
+        <v>33400</v>
       </c>
       <c r="I61" s="3">
-        <v>23400</v>
+        <v>21700</v>
       </c>
       <c r="J61" s="3">
-        <v>19200</v>
+        <v>17800</v>
       </c>
       <c r="K61" s="3">
         <v>22300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>432800</v>
+        <v>424900</v>
       </c>
       <c r="E62" s="3">
-        <v>401300</v>
+        <v>372500</v>
       </c>
       <c r="F62" s="3">
-        <v>268700</v>
+        <v>249400</v>
       </c>
       <c r="G62" s="3">
-        <v>91200</v>
+        <v>84700</v>
       </c>
       <c r="H62" s="3">
-        <v>48500</v>
+        <v>45000</v>
       </c>
       <c r="I62" s="3">
-        <v>33800</v>
+        <v>31400</v>
       </c>
       <c r="J62" s="3">
-        <v>21800</v>
+        <v>20200</v>
       </c>
       <c r="K62" s="3">
         <v>47100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>947900</v>
+        <v>930700</v>
       </c>
       <c r="E66" s="3">
-        <v>1034600</v>
+        <v>960300</v>
       </c>
       <c r="F66" s="3">
-        <v>629900</v>
+        <v>584700</v>
       </c>
       <c r="G66" s="3">
-        <v>271500</v>
+        <v>252000</v>
       </c>
       <c r="H66" s="3">
-        <v>167500</v>
+        <v>155500</v>
       </c>
       <c r="I66" s="3">
-        <v>120500</v>
+        <v>111900</v>
       </c>
       <c r="J66" s="3">
-        <v>88900</v>
+        <v>82500</v>
       </c>
       <c r="K66" s="3">
         <v>106700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>522600</v>
+        <v>513100</v>
       </c>
       <c r="E72" s="3">
-        <v>308800</v>
+        <v>286600</v>
       </c>
       <c r="F72" s="3">
-        <v>138900</v>
+        <v>128900</v>
       </c>
       <c r="G72" s="3">
-        <v>-13400</v>
+        <v>-12500</v>
       </c>
       <c r="H72" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I72" s="3">
-        <v>-13100</v>
+        <v>-12100</v>
       </c>
       <c r="J72" s="3">
-        <v>-1700</v>
+        <v>-1500</v>
       </c>
       <c r="K72" s="3">
         <v>-14600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>929500</v>
+        <v>912700</v>
       </c>
       <c r="E76" s="3">
-        <v>696200</v>
+        <v>646200</v>
       </c>
       <c r="F76" s="3">
-        <v>406300</v>
+        <v>377200</v>
       </c>
       <c r="G76" s="3">
-        <v>5300</v>
+        <v>4900</v>
       </c>
       <c r="H76" s="3">
-        <v>22300</v>
+        <v>20700</v>
       </c>
       <c r="I76" s="3">
-        <v>5600</v>
+        <v>5200</v>
       </c>
       <c r="J76" s="3">
-        <v>17200</v>
+        <v>16000</v>
       </c>
       <c r="K76" s="3">
         <v>6900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>177600</v>
+        <v>164700</v>
       </c>
       <c r="E81" s="3">
-        <v>96700</v>
+        <v>89700</v>
       </c>
       <c r="F81" s="3">
-        <v>74400</v>
+        <v>68900</v>
       </c>
       <c r="G81" s="3">
-        <v>-17400</v>
+        <v>-16100</v>
       </c>
       <c r="H81" s="3">
-        <v>16700</v>
+        <v>15500</v>
       </c>
       <c r="I81" s="3">
-        <v>-11400</v>
+        <v>-10600</v>
       </c>
       <c r="J81" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="K81" s="3">
         <v>-16800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70100</v>
+        <v>65000</v>
       </c>
       <c r="E83" s="3">
-        <v>57700</v>
+        <v>53400</v>
       </c>
       <c r="F83" s="3">
-        <v>31400</v>
+        <v>29100</v>
       </c>
       <c r="G83" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="H83" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="I83" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="J83" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="K83" s="3">
         <v>3600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>148700</v>
+        <v>137800</v>
       </c>
       <c r="E89" s="3">
-        <v>235400</v>
+        <v>218200</v>
       </c>
       <c r="F89" s="3">
-        <v>108100</v>
+        <v>100200</v>
       </c>
       <c r="G89" s="3">
-        <v>42900</v>
+        <v>39800</v>
       </c>
       <c r="H89" s="3">
-        <v>44000</v>
+        <v>40700</v>
       </c>
       <c r="I89" s="3">
-        <v>22700</v>
+        <v>21000</v>
       </c>
       <c r="J89" s="3">
-        <v>21200</v>
+        <v>19600</v>
       </c>
       <c r="K89" s="3">
         <v>9400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-137200</v>
+        <v>-127200</v>
       </c>
       <c r="E91" s="3">
-        <v>-192500</v>
+        <v>-178400</v>
       </c>
       <c r="F91" s="3">
-        <v>-115600</v>
+        <v>-107200</v>
       </c>
       <c r="G91" s="3">
-        <v>-36200</v>
+        <v>-33600</v>
       </c>
       <c r="H91" s="3">
-        <v>-30700</v>
+        <v>-28400</v>
       </c>
       <c r="I91" s="3">
-        <v>-20500</v>
+        <v>-19000</v>
       </c>
       <c r="J91" s="3">
-        <v>-13100</v>
+        <v>-12100</v>
       </c>
       <c r="K91" s="3">
         <v>-8900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-75500</v>
+        <v>-70000</v>
       </c>
       <c r="E94" s="3">
-        <v>-193800</v>
+        <v>-179600</v>
       </c>
       <c r="F94" s="3">
-        <v>-124600</v>
+        <v>-115500</v>
       </c>
       <c r="G94" s="3">
-        <v>-34700</v>
+        <v>-32200</v>
       </c>
       <c r="H94" s="3">
-        <v>-45400</v>
+        <v>-42100</v>
       </c>
       <c r="I94" s="3">
-        <v>-21400</v>
+        <v>-19800</v>
       </c>
       <c r="J94" s="3">
-        <v>-16200</v>
+        <v>-15100</v>
       </c>
       <c r="K94" s="3">
         <v>-9800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-74200</v>
+        <v>-68800</v>
       </c>
       <c r="E100" s="3">
-        <v>-47200</v>
+        <v>-43800</v>
       </c>
       <c r="F100" s="3">
-        <v>12700</v>
+        <v>11800</v>
       </c>
       <c r="G100" s="3">
-        <v>-7200</v>
+        <v>-6700</v>
       </c>
       <c r="H100" s="3">
         <v>600</v>
       </c>
       <c r="I100" s="3">
-        <v>-2300</v>
+        <v>-2100</v>
       </c>
       <c r="J100" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="K100" s="3">
         <v>-500</v>
@@ -3463,10 +3463,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E101" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3496,16 +3496,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5400</v>
+        <v>5000</v>
       </c>
       <c r="E102" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="F102" s="3">
-        <v>-3800</v>
+        <v>-3500</v>
       </c>
       <c r="G102" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H102" s="3">
         <v>-700</v>
@@ -3514,7 +3514,7 @@
         <v>-900</v>
       </c>
       <c r="J102" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1220500</v>
+        <v>1109900</v>
       </c>
       <c r="E8" s="3">
-        <v>1167600</v>
+        <v>1061700</v>
       </c>
       <c r="F8" s="3">
-        <v>537400</v>
+        <v>488700</v>
       </c>
       <c r="G8" s="3">
-        <v>177500</v>
+        <v>161400</v>
       </c>
       <c r="H8" s="3">
-        <v>51600</v>
+        <v>46900</v>
       </c>
       <c r="I8" s="3">
-        <v>48800</v>
+        <v>44400</v>
       </c>
       <c r="J8" s="3">
-        <v>46700</v>
+        <v>42500</v>
       </c>
       <c r="K8" s="3">
         <v>49200</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>774100</v>
+        <v>703900</v>
       </c>
       <c r="E9" s="3">
-        <v>665100</v>
+        <v>604800</v>
       </c>
       <c r="F9" s="3">
-        <v>282500</v>
+        <v>256900</v>
       </c>
       <c r="G9" s="3">
-        <v>82200</v>
+        <v>74800</v>
       </c>
       <c r="H9" s="3">
-        <v>27400</v>
+        <v>25000</v>
       </c>
       <c r="I9" s="3">
-        <v>25500</v>
+        <v>23200</v>
       </c>
       <c r="J9" s="3">
-        <v>55700</v>
+        <v>50700</v>
       </c>
       <c r="K9" s="3">
         <v>52900</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>446500</v>
+        <v>406000</v>
       </c>
       <c r="E10" s="3">
-        <v>502400</v>
+        <v>456900</v>
       </c>
       <c r="F10" s="3">
-        <v>254900</v>
+        <v>231800</v>
       </c>
       <c r="G10" s="3">
-        <v>95300</v>
+        <v>86600</v>
       </c>
       <c r="H10" s="3">
-        <v>24200</v>
+        <v>22000</v>
       </c>
       <c r="I10" s="3">
-        <v>23300</v>
+        <v>21200</v>
       </c>
       <c r="J10" s="3">
-        <v>-9000</v>
+        <v>-8200</v>
       </c>
       <c r="K10" s="3">
         <v>-3700</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-151000</v>
+        <v>-137300</v>
       </c>
       <c r="E14" s="3">
-        <v>-173900</v>
+        <v>-158100</v>
       </c>
       <c r="F14" s="3">
-        <v>-74000</v>
+        <v>-67300</v>
       </c>
       <c r="G14" s="3">
-        <v>-21500</v>
+        <v>-19600</v>
       </c>
       <c r="H14" s="3">
-        <v>-75600</v>
+        <v>-68800</v>
       </c>
       <c r="I14" s="3">
-        <v>-30800</v>
+        <v>-28000</v>
       </c>
       <c r="J14" s="3">
-        <v>-39800</v>
+        <v>-36200</v>
       </c>
       <c r="K14" s="3">
         <v>100</v>
@@ -930,22 +930,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>65000</v>
+        <v>59100</v>
       </c>
       <c r="E15" s="3">
-        <v>53400</v>
+        <v>48600</v>
       </c>
       <c r="F15" s="3">
-        <v>29100</v>
+        <v>26500</v>
       </c>
       <c r="G15" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="H15" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I15" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>8</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1019800</v>
+        <v>927400</v>
       </c>
       <c r="E17" s="3">
-        <v>907900</v>
+        <v>825600</v>
       </c>
       <c r="F17" s="3">
-        <v>430500</v>
+        <v>391500</v>
       </c>
       <c r="G17" s="3">
-        <v>186400</v>
+        <v>169500</v>
       </c>
       <c r="H17" s="3">
-        <v>21200</v>
+        <v>19300</v>
       </c>
       <c r="I17" s="3">
-        <v>52300</v>
+        <v>47500</v>
       </c>
       <c r="J17" s="3">
-        <v>28900</v>
+        <v>26200</v>
       </c>
       <c r="K17" s="3">
         <v>62900</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>200700</v>
+        <v>182500</v>
       </c>
       <c r="E18" s="3">
-        <v>259700</v>
+        <v>236100</v>
       </c>
       <c r="F18" s="3">
-        <v>106900</v>
+        <v>97200</v>
       </c>
       <c r="G18" s="3">
-        <v>-8900</v>
+        <v>-8100</v>
       </c>
       <c r="H18" s="3">
-        <v>30400</v>
+        <v>27700</v>
       </c>
       <c r="I18" s="3">
-        <v>-3400</v>
+        <v>-3100</v>
       </c>
       <c r="J18" s="3">
-        <v>17800</v>
+        <v>16200</v>
       </c>
       <c r="K18" s="3">
         <v>-13700</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>159700</v>
+        <v>145200</v>
       </c>
       <c r="E20" s="3">
-        <v>-89400</v>
+        <v>-81300</v>
       </c>
       <c r="F20" s="3">
-        <v>-19900</v>
+        <v>-18100</v>
       </c>
       <c r="G20" s="3">
-        <v>-11700</v>
+        <v>-10700</v>
       </c>
       <c r="H20" s="3">
-        <v>-9300</v>
+        <v>-8400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="J20" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="K20" s="3">
         <v>-5300</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>425400</v>
+        <v>387000</v>
       </c>
       <c r="E21" s="3">
-        <v>223800</v>
+        <v>203600</v>
       </c>
       <c r="F21" s="3">
-        <v>116200</v>
+        <v>105700</v>
       </c>
       <c r="G21" s="3">
-        <v>-15900</v>
+        <v>-14400</v>
       </c>
       <c r="H21" s="3">
-        <v>25000</v>
+        <v>22700</v>
       </c>
       <c r="I21" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="J21" s="3">
-        <v>14100</v>
+        <v>12800</v>
       </c>
       <c r="K21" s="3">
         <v>-15400</v>
@@ -1122,22 +1122,22 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>50900</v>
+        <v>46300</v>
       </c>
       <c r="E22" s="3">
-        <v>41500</v>
+        <v>37700</v>
       </c>
       <c r="F22" s="3">
-        <v>11100</v>
+        <v>10100</v>
       </c>
       <c r="G22" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="H22" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="I22" s="3">
-        <v>7800</v>
+        <v>7100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>8</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>309500</v>
+        <v>281500</v>
       </c>
       <c r="E23" s="3">
-        <v>128800</v>
+        <v>117200</v>
       </c>
       <c r="F23" s="3">
-        <v>75900</v>
+        <v>69000</v>
       </c>
       <c r="G23" s="3">
-        <v>-26200</v>
+        <v>-23800</v>
       </c>
       <c r="H23" s="3">
-        <v>18000</v>
+        <v>16400</v>
       </c>
       <c r="I23" s="3">
-        <v>-12700</v>
+        <v>-11500</v>
       </c>
       <c r="J23" s="3">
-        <v>11200</v>
+        <v>10200</v>
       </c>
       <c r="K23" s="3">
         <v>-19000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>144800</v>
+        <v>131700</v>
       </c>
       <c r="E24" s="3">
-        <v>39200</v>
+        <v>35600</v>
       </c>
       <c r="F24" s="3">
-        <v>6900</v>
+        <v>6300</v>
       </c>
       <c r="G24" s="3">
-        <v>-10100</v>
+        <v>-9200</v>
       </c>
       <c r="H24" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="I24" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="J24" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="K24" s="3">
         <v>-1900</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>164700</v>
+        <v>149700</v>
       </c>
       <c r="E26" s="3">
-        <v>89700</v>
+        <v>81500</v>
       </c>
       <c r="F26" s="3">
-        <v>68900</v>
+        <v>62700</v>
       </c>
       <c r="G26" s="3">
-        <v>-16100</v>
+        <v>-14700</v>
       </c>
       <c r="H26" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="I26" s="3">
-        <v>-10600</v>
+        <v>-9600</v>
       </c>
       <c r="J26" s="3">
-        <v>11800</v>
+        <v>10700</v>
       </c>
       <c r="K26" s="3">
         <v>-17000</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>164700</v>
+        <v>149700</v>
       </c>
       <c r="E27" s="3">
-        <v>89700</v>
+        <v>81500</v>
       </c>
       <c r="F27" s="3">
-        <v>68900</v>
+        <v>62700</v>
       </c>
       <c r="G27" s="3">
-        <v>-16100</v>
+        <v>-14700</v>
       </c>
       <c r="H27" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="I27" s="3">
-        <v>-10600</v>
+        <v>-9600</v>
       </c>
       <c r="J27" s="3">
-        <v>11800</v>
+        <v>10700</v>
       </c>
       <c r="K27" s="3">
         <v>-17100</v>
@@ -1371,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K29" s="3">
         <v>300</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-159700</v>
+        <v>-145200</v>
       </c>
       <c r="E32" s="3">
-        <v>89400</v>
+        <v>81300</v>
       </c>
       <c r="F32" s="3">
-        <v>19900</v>
+        <v>18100</v>
       </c>
       <c r="G32" s="3">
-        <v>11700</v>
+        <v>10700</v>
       </c>
       <c r="H32" s="3">
-        <v>9300</v>
+        <v>8400</v>
       </c>
       <c r="I32" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J32" s="3">
-        <v>6700</v>
+        <v>6100</v>
       </c>
       <c r="K32" s="3">
         <v>5300</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>164700</v>
+        <v>149700</v>
       </c>
       <c r="E33" s="3">
-        <v>89700</v>
+        <v>81500</v>
       </c>
       <c r="F33" s="3">
-        <v>68900</v>
+        <v>62700</v>
       </c>
       <c r="G33" s="3">
-        <v>-16100</v>
+        <v>-14700</v>
       </c>
       <c r="H33" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="I33" s="3">
-        <v>-10600</v>
+        <v>-9600</v>
       </c>
       <c r="J33" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="K33" s="3">
         <v>-16800</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>164700</v>
+        <v>149700</v>
       </c>
       <c r="E35" s="3">
-        <v>89700</v>
+        <v>81500</v>
       </c>
       <c r="F35" s="3">
-        <v>68900</v>
+        <v>62700</v>
       </c>
       <c r="G35" s="3">
-        <v>-16100</v>
+        <v>-14700</v>
       </c>
       <c r="H35" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="I35" s="3">
-        <v>-10600</v>
+        <v>-9600</v>
       </c>
       <c r="J35" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="K35" s="3">
         <v>-16800</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47000</v>
+        <v>43200</v>
       </c>
       <c r="E41" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="F41" s="3">
-        <v>34900</v>
+        <v>31700</v>
       </c>
       <c r="G41" s="3">
-        <v>25300</v>
+        <v>23000</v>
       </c>
       <c r="H41" s="3">
-        <v>18200</v>
+        <v>16600</v>
       </c>
       <c r="I41" s="3">
-        <v>5600</v>
+        <v>5100</v>
       </c>
       <c r="J41" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="K41" s="3">
         <v>2400</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>43000</v>
+        <v>42300</v>
       </c>
       <c r="E42" s="3">
-        <v>93800</v>
+        <v>85300</v>
       </c>
       <c r="F42" s="3">
-        <v>25100</v>
+        <v>22800</v>
       </c>
       <c r="G42" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="H42" s="3">
-        <v>4700</v>
+        <v>4300</v>
       </c>
       <c r="I42" s="3">
         <v>300</v>
       </c>
       <c r="J42" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="K42" s="3">
         <v>100</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>195000</v>
+        <v>191600</v>
       </c>
       <c r="E43" s="3">
-        <v>161400</v>
+        <v>146800</v>
       </c>
       <c r="F43" s="3">
-        <v>117000</v>
+        <v>106400</v>
       </c>
       <c r="G43" s="3">
-        <v>55000</v>
+        <v>50000</v>
       </c>
       <c r="H43" s="3">
-        <v>27100</v>
+        <v>24700</v>
       </c>
       <c r="I43" s="3">
-        <v>15000</v>
+        <v>13600</v>
       </c>
       <c r="J43" s="3">
-        <v>17500</v>
+        <v>15900</v>
       </c>
       <c r="K43" s="3">
         <v>32900</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>55900</v>
+        <v>53000</v>
       </c>
       <c r="E44" s="3">
-        <v>49800</v>
+        <v>45300</v>
       </c>
       <c r="F44" s="3">
-        <v>8800</v>
+        <v>8000</v>
       </c>
       <c r="G44" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="H44" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="I44" s="3">
+        <v>900</v>
+      </c>
+      <c r="J44" s="3">
         <v>1000</v>
-      </c>
-      <c r="J44" s="3">
-        <v>1100</v>
       </c>
       <c r="K44" s="3">
         <v>1400</v>
@@ -1787,19 +1787,19 @@
         <v>1700</v>
       </c>
       <c r="E45" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="F45" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G45" s="3">
         <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J45" s="3">
         <v>400</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>275800</v>
+        <v>271000</v>
       </c>
       <c r="E46" s="3">
-        <v>286000</v>
+        <v>260100</v>
       </c>
       <c r="F46" s="3">
-        <v>186600</v>
+        <v>169700</v>
       </c>
       <c r="G46" s="3">
-        <v>89900</v>
+        <v>81700</v>
       </c>
       <c r="H46" s="3">
-        <v>52500</v>
+        <v>47700</v>
       </c>
       <c r="I46" s="3">
-        <v>22300</v>
+        <v>20200</v>
       </c>
       <c r="J46" s="3">
-        <v>25400</v>
+        <v>23100</v>
       </c>
       <c r="K46" s="3">
         <v>20800</v>
@@ -1853,22 +1853,22 @@
         <v>600</v>
       </c>
       <c r="E47" s="3">
-        <v>16900</v>
+        <v>15400</v>
       </c>
       <c r="F47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="H47" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J47" s="3">
         <v>2400</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2700</v>
       </c>
       <c r="K47" s="3">
         <v>3100</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1567000</v>
+        <v>1539500</v>
       </c>
       <c r="E48" s="3">
-        <v>1303600</v>
+        <v>1185500</v>
       </c>
       <c r="F48" s="3">
-        <v>774300</v>
+        <v>704100</v>
       </c>
       <c r="G48" s="3">
-        <v>151900</v>
+        <v>138200</v>
       </c>
       <c r="H48" s="3">
-        <v>120600</v>
+        <v>109700</v>
       </c>
       <c r="I48" s="3">
-        <v>90300</v>
+        <v>82100</v>
       </c>
       <c r="J48" s="3">
-        <v>70400</v>
+        <v>64000</v>
       </c>
       <c r="K48" s="3">
         <v>194700</v>
@@ -2021,16 +2021,16 @@
         <v>8</v>
       </c>
       <c r="F52" s="3">
-        <v>16100</v>
+        <v>14600</v>
       </c>
       <c r="G52" s="3">
-        <v>13800</v>
+        <v>12600</v>
       </c>
       <c r="H52" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I52" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1843400</v>
+        <v>1811000</v>
       </c>
       <c r="E54" s="3">
-        <v>1606500</v>
+        <v>1460900</v>
       </c>
       <c r="F54" s="3">
-        <v>961900</v>
+        <v>874700</v>
       </c>
       <c r="G54" s="3">
-        <v>256900</v>
+        <v>233600</v>
       </c>
       <c r="H54" s="3">
-        <v>176200</v>
+        <v>160200</v>
       </c>
       <c r="I54" s="3">
-        <v>117100</v>
+        <v>106500</v>
       </c>
       <c r="J54" s="3">
-        <v>98500</v>
+        <v>89600</v>
       </c>
       <c r="K54" s="3">
         <v>113600</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>196000</v>
+        <v>192500</v>
       </c>
       <c r="E57" s="3">
-        <v>304800</v>
+        <v>277200</v>
       </c>
       <c r="F57" s="3">
-        <v>184200</v>
+        <v>167500</v>
       </c>
       <c r="G57" s="3">
-        <v>92600</v>
+        <v>84200</v>
       </c>
       <c r="H57" s="3">
-        <v>60700</v>
+        <v>55200</v>
       </c>
       <c r="I57" s="3">
-        <v>44800</v>
+        <v>40700</v>
       </c>
       <c r="J57" s="3">
-        <v>33700</v>
+        <v>30600</v>
       </c>
       <c r="K57" s="3">
         <v>37600</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27700</v>
+        <v>27200</v>
       </c>
       <c r="E58" s="3">
-        <v>22500</v>
+        <v>20400</v>
       </c>
       <c r="F58" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G58" s="3">
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>400</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155700</v>
+        <v>152900</v>
       </c>
       <c r="E59" s="3">
-        <v>110400</v>
+        <v>100400</v>
       </c>
       <c r="F59" s="3">
-        <v>65600</v>
+        <v>59700</v>
       </c>
       <c r="G59" s="3">
-        <v>36500</v>
+        <v>33200</v>
       </c>
       <c r="H59" s="3">
-        <v>15700</v>
+        <v>14200</v>
       </c>
       <c r="I59" s="3">
-        <v>13600</v>
+        <v>12300</v>
       </c>
       <c r="J59" s="3">
-        <v>10300</v>
+        <v>9400</v>
       </c>
       <c r="K59" s="3">
         <v>29000</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>379300</v>
+        <v>372600</v>
       </c>
       <c r="E60" s="3">
-        <v>437700</v>
+        <v>398000</v>
       </c>
       <c r="F60" s="3">
-        <v>251300</v>
+        <v>228500</v>
       </c>
       <c r="G60" s="3">
-        <v>129800</v>
+        <v>118000</v>
       </c>
       <c r="H60" s="3">
-        <v>77100</v>
+        <v>70100</v>
       </c>
       <c r="I60" s="3">
-        <v>58800</v>
+        <v>53500</v>
       </c>
       <c r="J60" s="3">
-        <v>44600</v>
+        <v>40500</v>
       </c>
       <c r="K60" s="3">
         <v>35100</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>126500</v>
+        <v>124300</v>
       </c>
       <c r="E61" s="3">
-        <v>150100</v>
+        <v>136500</v>
       </c>
       <c r="F61" s="3">
-        <v>84000</v>
+        <v>76400</v>
       </c>
       <c r="G61" s="3">
-        <v>37600</v>
+        <v>34200</v>
       </c>
       <c r="H61" s="3">
-        <v>33400</v>
+        <v>30400</v>
       </c>
       <c r="I61" s="3">
-        <v>21700</v>
+        <v>19700</v>
       </c>
       <c r="J61" s="3">
-        <v>17800</v>
+        <v>16200</v>
       </c>
       <c r="K61" s="3">
         <v>22300</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>424900</v>
+        <v>417500</v>
       </c>
       <c r="E62" s="3">
-        <v>372500</v>
+        <v>338700</v>
       </c>
       <c r="F62" s="3">
-        <v>249400</v>
+        <v>226800</v>
       </c>
       <c r="G62" s="3">
-        <v>84700</v>
+        <v>77000</v>
       </c>
       <c r="H62" s="3">
-        <v>45000</v>
+        <v>40900</v>
       </c>
       <c r="I62" s="3">
-        <v>31400</v>
+        <v>28500</v>
       </c>
       <c r="J62" s="3">
-        <v>20200</v>
+        <v>18400</v>
       </c>
       <c r="K62" s="3">
         <v>47100</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>930700</v>
+        <v>914400</v>
       </c>
       <c r="E66" s="3">
-        <v>960300</v>
+        <v>873300</v>
       </c>
       <c r="F66" s="3">
-        <v>584700</v>
+        <v>531700</v>
       </c>
       <c r="G66" s="3">
-        <v>252000</v>
+        <v>229200</v>
       </c>
       <c r="H66" s="3">
-        <v>155500</v>
+        <v>141400</v>
       </c>
       <c r="I66" s="3">
-        <v>111900</v>
+        <v>101700</v>
       </c>
       <c r="J66" s="3">
-        <v>82500</v>
+        <v>75000</v>
       </c>
       <c r="K66" s="3">
         <v>106700</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>513100</v>
+        <v>504100</v>
       </c>
       <c r="E72" s="3">
-        <v>286600</v>
+        <v>260700</v>
       </c>
       <c r="F72" s="3">
-        <v>128900</v>
+        <v>117200</v>
       </c>
       <c r="G72" s="3">
-        <v>-12500</v>
+        <v>-11300</v>
       </c>
       <c r="H72" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="I72" s="3">
-        <v>-12100</v>
+        <v>-11000</v>
       </c>
       <c r="J72" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K72" s="3">
         <v>-14600</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>912700</v>
+        <v>896600</v>
       </c>
       <c r="E76" s="3">
-        <v>646200</v>
+        <v>587600</v>
       </c>
       <c r="F76" s="3">
-        <v>377200</v>
+        <v>343000</v>
       </c>
       <c r="G76" s="3">
-        <v>4900</v>
+        <v>4500</v>
       </c>
       <c r="H76" s="3">
-        <v>20700</v>
+        <v>18800</v>
       </c>
       <c r="I76" s="3">
-        <v>5200</v>
+        <v>4800</v>
       </c>
       <c r="J76" s="3">
-        <v>16000</v>
+        <v>14500</v>
       </c>
       <c r="K76" s="3">
         <v>6900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>164700</v>
+        <v>149700</v>
       </c>
       <c r="E81" s="3">
-        <v>89700</v>
+        <v>81500</v>
       </c>
       <c r="F81" s="3">
-        <v>68900</v>
+        <v>62700</v>
       </c>
       <c r="G81" s="3">
-        <v>-16100</v>
+        <v>-14700</v>
       </c>
       <c r="H81" s="3">
-        <v>15500</v>
+        <v>14100</v>
       </c>
       <c r="I81" s="3">
-        <v>-10600</v>
+        <v>-9600</v>
       </c>
       <c r="J81" s="3">
-        <v>10500</v>
+        <v>9500</v>
       </c>
       <c r="K81" s="3">
         <v>-16800</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>65000</v>
+        <v>59100</v>
       </c>
       <c r="E83" s="3">
-        <v>53400</v>
+        <v>48600</v>
       </c>
       <c r="F83" s="3">
-        <v>29100</v>
+        <v>26500</v>
       </c>
       <c r="G83" s="3">
-        <v>4800</v>
+        <v>4300</v>
       </c>
       <c r="H83" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="I83" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="J83" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="K83" s="3">
         <v>3600</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>137800</v>
+        <v>125300</v>
       </c>
       <c r="E89" s="3">
-        <v>218200</v>
+        <v>198400</v>
       </c>
       <c r="F89" s="3">
-        <v>100200</v>
+        <v>91100</v>
       </c>
       <c r="G89" s="3">
-        <v>39800</v>
+        <v>36200</v>
       </c>
       <c r="H89" s="3">
-        <v>40700</v>
+        <v>37000</v>
       </c>
       <c r="I89" s="3">
-        <v>21000</v>
+        <v>19100</v>
       </c>
       <c r="J89" s="3">
-        <v>19600</v>
+        <v>17900</v>
       </c>
       <c r="K89" s="3">
         <v>9400</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-127200</v>
+        <v>-115600</v>
       </c>
       <c r="E91" s="3">
-        <v>-178400</v>
+        <v>-162200</v>
       </c>
       <c r="F91" s="3">
-        <v>-107200</v>
+        <v>-97500</v>
       </c>
       <c r="G91" s="3">
-        <v>-33600</v>
+        <v>-30500</v>
       </c>
       <c r="H91" s="3">
-        <v>-28400</v>
+        <v>-25900</v>
       </c>
       <c r="I91" s="3">
-        <v>-19000</v>
+        <v>-17300</v>
       </c>
       <c r="J91" s="3">
-        <v>-12100</v>
+        <v>-11000</v>
       </c>
       <c r="K91" s="3">
         <v>-8900</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-70000</v>
+        <v>-63600</v>
       </c>
       <c r="E94" s="3">
-        <v>-179600</v>
+        <v>-163400</v>
       </c>
       <c r="F94" s="3">
-        <v>-115500</v>
+        <v>-105000</v>
       </c>
       <c r="G94" s="3">
-        <v>-32200</v>
+        <v>-29300</v>
       </c>
       <c r="H94" s="3">
-        <v>-42100</v>
+        <v>-38300</v>
       </c>
       <c r="I94" s="3">
-        <v>-19800</v>
+        <v>-18000</v>
       </c>
       <c r="J94" s="3">
-        <v>-15100</v>
+        <v>-13700</v>
       </c>
       <c r="K94" s="3">
         <v>-9800</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-68800</v>
+        <v>-62600</v>
       </c>
       <c r="E100" s="3">
-        <v>-43800</v>
+        <v>-39800</v>
       </c>
       <c r="F100" s="3">
-        <v>11800</v>
+        <v>10700</v>
       </c>
       <c r="G100" s="3">
-        <v>-6700</v>
+        <v>-6100</v>
       </c>
       <c r="H100" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I100" s="3">
-        <v>-2100</v>
+        <v>-1900</v>
       </c>
       <c r="J100" s="3">
-        <v>-2400</v>
+        <v>-2200</v>
       </c>
       <c r="K100" s="3">
         <v>-500</v>
@@ -3463,16 +3463,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6000</v>
+        <v>5400</v>
       </c>
       <c r="E101" s="3">
-        <v>3300</v>
+        <v>3000</v>
       </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H101" s="3">
         <v>100</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="F102" s="3">
-        <v>-3500</v>
+        <v>-3200</v>
       </c>
       <c r="G102" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="H102" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="I102" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="J102" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="K102" s="3">
         <v>-800</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1109900</v>
+        <v>997200</v>
       </c>
       <c r="E8" s="3">
-        <v>1061700</v>
+        <v>1337000</v>
       </c>
       <c r="F8" s="3">
-        <v>488700</v>
+        <v>939600</v>
       </c>
       <c r="G8" s="3">
-        <v>161400</v>
+        <v>432500</v>
       </c>
       <c r="H8" s="3">
-        <v>46900</v>
+        <v>142800</v>
       </c>
       <c r="I8" s="3">
-        <v>44400</v>
+        <v>41500</v>
       </c>
       <c r="J8" s="3">
+        <v>39300</v>
+      </c>
+      <c r="K8" s="3">
         <v>42500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>49200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>75700</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>703900</v>
+        <v>632600</v>
       </c>
       <c r="E9" s="3">
-        <v>604800</v>
+        <v>847900</v>
       </c>
       <c r="F9" s="3">
-        <v>256900</v>
+        <v>535200</v>
       </c>
       <c r="G9" s="3">
-        <v>74800</v>
+        <v>227400</v>
       </c>
       <c r="H9" s="3">
-        <v>25000</v>
+        <v>66200</v>
       </c>
       <c r="I9" s="3">
-        <v>23200</v>
+        <v>22100</v>
       </c>
       <c r="J9" s="3">
+        <v>20500</v>
+      </c>
+      <c r="K9" s="3">
         <v>50700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>52900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>107400</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>406000</v>
+        <v>364600</v>
       </c>
       <c r="E10" s="3">
-        <v>456900</v>
+        <v>489100</v>
       </c>
       <c r="F10" s="3">
-        <v>231800</v>
+        <v>404300</v>
       </c>
       <c r="G10" s="3">
-        <v>86600</v>
+        <v>205100</v>
       </c>
       <c r="H10" s="3">
-        <v>22000</v>
+        <v>76700</v>
       </c>
       <c r="I10" s="3">
-        <v>21200</v>
+        <v>19400</v>
       </c>
       <c r="J10" s="3">
+        <v>18800</v>
+      </c>
+      <c r="K10" s="3">
         <v>-8200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-31600</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-137300</v>
+        <v>85000</v>
       </c>
       <c r="E14" s="3">
-        <v>-158100</v>
+        <v>-165400</v>
       </c>
       <c r="F14" s="3">
-        <v>-67300</v>
+        <v>-140000</v>
       </c>
       <c r="G14" s="3">
-        <v>-19600</v>
+        <v>-59600</v>
       </c>
       <c r="H14" s="3">
-        <v>-68800</v>
+        <v>-17300</v>
       </c>
       <c r="I14" s="3">
-        <v>-28000</v>
+        <v>-60900</v>
       </c>
       <c r="J14" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-36200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-8700</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>59100</v>
+        <v>74600</v>
       </c>
       <c r="E15" s="3">
-        <v>48600</v>
+        <v>71200</v>
       </c>
       <c r="F15" s="3">
-        <v>26500</v>
+        <v>43000</v>
       </c>
       <c r="G15" s="3">
-        <v>4300</v>
+        <v>23500</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I15" s="3">
-        <v>2900</v>
-      </c>
-      <c r="J15" s="3" t="s">
+        <v>3100</v>
+      </c>
+      <c r="J15" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>100</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>927400</v>
+        <v>1108000</v>
       </c>
       <c r="E17" s="3">
-        <v>825600</v>
+        <v>1100000</v>
       </c>
       <c r="F17" s="3">
-        <v>391500</v>
+        <v>730600</v>
       </c>
       <c r="G17" s="3">
-        <v>169500</v>
+        <v>346500</v>
       </c>
       <c r="H17" s="3">
-        <v>19300</v>
+        <v>150000</v>
       </c>
       <c r="I17" s="3">
-        <v>47500</v>
+        <v>17000</v>
       </c>
       <c r="J17" s="3">
+        <v>42100</v>
+      </c>
+      <c r="K17" s="3">
         <v>26200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>62900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>68800</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>182500</v>
+        <v>-110800</v>
       </c>
       <c r="E18" s="3">
-        <v>236100</v>
+        <v>237000</v>
       </c>
       <c r="F18" s="3">
-        <v>97200</v>
+        <v>209000</v>
       </c>
       <c r="G18" s="3">
-        <v>-8100</v>
+        <v>86000</v>
       </c>
       <c r="H18" s="3">
-        <v>27700</v>
+        <v>-7200</v>
       </c>
       <c r="I18" s="3">
-        <v>-3100</v>
+        <v>24500</v>
       </c>
       <c r="J18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>16200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-13700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6900</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>145200</v>
+        <v>-86700</v>
       </c>
       <c r="E20" s="3">
-        <v>-81300</v>
+        <v>157800</v>
       </c>
       <c r="F20" s="3">
-        <v>-18100</v>
+        <v>-71900</v>
       </c>
       <c r="G20" s="3">
-        <v>-10700</v>
+        <v>-16000</v>
       </c>
       <c r="H20" s="3">
-        <v>-8400</v>
+        <v>-9400</v>
       </c>
       <c r="I20" s="3">
-        <v>-1300</v>
+        <v>-7400</v>
       </c>
       <c r="J20" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2000</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>387000</v>
+        <v>-122900</v>
       </c>
       <c r="E21" s="3">
-        <v>203600</v>
+        <v>466100</v>
       </c>
       <c r="F21" s="3">
-        <v>105700</v>
+        <v>180100</v>
       </c>
       <c r="G21" s="3">
-        <v>-14400</v>
+        <v>93500</v>
       </c>
       <c r="H21" s="3">
-        <v>22700</v>
+        <v>-12800</v>
       </c>
       <c r="I21" s="3">
-        <v>-1500</v>
+        <v>20100</v>
       </c>
       <c r="J21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="K21" s="3">
         <v>12800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>10200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>46300</v>
+        <v>34600</v>
       </c>
       <c r="E22" s="3">
-        <v>37700</v>
+        <v>55800</v>
       </c>
       <c r="F22" s="3">
-        <v>10100</v>
+        <v>33400</v>
       </c>
       <c r="G22" s="3">
-        <v>5100</v>
+        <v>8900</v>
       </c>
       <c r="H22" s="3">
-        <v>2900</v>
+        <v>4500</v>
       </c>
       <c r="I22" s="3">
-        <v>7100</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+        <v>2600</v>
+      </c>
+      <c r="J22" s="3">
+        <v>6300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>5000</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>281500</v>
+        <v>-232200</v>
       </c>
       <c r="E23" s="3">
-        <v>117200</v>
+        <v>339000</v>
       </c>
       <c r="F23" s="3">
-        <v>69000</v>
+        <v>103700</v>
       </c>
       <c r="G23" s="3">
-        <v>-23800</v>
+        <v>61100</v>
       </c>
       <c r="H23" s="3">
-        <v>16400</v>
+        <v>-21100</v>
       </c>
       <c r="I23" s="3">
-        <v>-11500</v>
+        <v>14500</v>
       </c>
       <c r="J23" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K23" s="3">
         <v>10200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-19000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>131700</v>
+        <v>-38900</v>
       </c>
       <c r="E24" s="3">
-        <v>35600</v>
+        <v>158700</v>
       </c>
       <c r="F24" s="3">
-        <v>6300</v>
+        <v>31500</v>
       </c>
       <c r="G24" s="3">
-        <v>-9200</v>
+        <v>5600</v>
       </c>
       <c r="H24" s="3">
-        <v>2300</v>
+        <v>-8100</v>
       </c>
       <c r="I24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J24" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K24" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K24" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>149700</v>
+        <v>-193300</v>
       </c>
       <c r="E26" s="3">
-        <v>81500</v>
+        <v>180400</v>
       </c>
       <c r="F26" s="3">
-        <v>62700</v>
+        <v>72200</v>
       </c>
       <c r="G26" s="3">
-        <v>-14700</v>
+        <v>55500</v>
       </c>
       <c r="H26" s="3">
-        <v>14100</v>
+        <v>-13000</v>
       </c>
       <c r="I26" s="3">
-        <v>-9600</v>
+        <v>12500</v>
       </c>
       <c r="J26" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K26" s="3">
         <v>10700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-17000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-4000</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>149700</v>
+        <v>-193300</v>
       </c>
       <c r="E27" s="3">
-        <v>81500</v>
+        <v>180400</v>
       </c>
       <c r="F27" s="3">
-        <v>62700</v>
+        <v>72200</v>
       </c>
       <c r="G27" s="3">
-        <v>-14700</v>
+        <v>55500</v>
       </c>
       <c r="H27" s="3">
-        <v>14100</v>
+        <v>-13000</v>
       </c>
       <c r="I27" s="3">
-        <v>-9600</v>
+        <v>12500</v>
       </c>
       <c r="J27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K27" s="3">
         <v>10700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-17100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1367,21 +1427,24 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
+      <c r="I29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-1200</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-3700</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-145200</v>
+        <v>86700</v>
       </c>
       <c r="E32" s="3">
-        <v>81300</v>
+        <v>-157800</v>
       </c>
       <c r="F32" s="3">
-        <v>18100</v>
+        <v>71900</v>
       </c>
       <c r="G32" s="3">
-        <v>10700</v>
+        <v>16000</v>
       </c>
       <c r="H32" s="3">
-        <v>8400</v>
+        <v>9400</v>
       </c>
       <c r="I32" s="3">
-        <v>1300</v>
+        <v>7400</v>
       </c>
       <c r="J32" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2000</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>149700</v>
+        <v>-193300</v>
       </c>
       <c r="E33" s="3">
-        <v>81500</v>
+        <v>180400</v>
       </c>
       <c r="F33" s="3">
-        <v>62700</v>
+        <v>72200</v>
       </c>
       <c r="G33" s="3">
-        <v>-14700</v>
+        <v>55500</v>
       </c>
       <c r="H33" s="3">
-        <v>14100</v>
+        <v>-13000</v>
       </c>
       <c r="I33" s="3">
-        <v>-9600</v>
+        <v>12500</v>
       </c>
       <c r="J33" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K33" s="3">
         <v>9500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-3800</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>149700</v>
+        <v>-193300</v>
       </c>
       <c r="E35" s="3">
-        <v>81500</v>
+        <v>180400</v>
       </c>
       <c r="F35" s="3">
-        <v>62700</v>
+        <v>72200</v>
       </c>
       <c r="G35" s="3">
-        <v>-14700</v>
+        <v>55500</v>
       </c>
       <c r="H35" s="3">
-        <v>14100</v>
+        <v>-13000</v>
       </c>
       <c r="I35" s="3">
-        <v>-9600</v>
+        <v>12500</v>
       </c>
       <c r="J35" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K35" s="3">
         <v>9500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-3800</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,272 +1731,297 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>43200</v>
+        <v>47600</v>
       </c>
       <c r="E41" s="3">
-        <v>2300</v>
+        <v>47600</v>
       </c>
       <c r="F41" s="3">
-        <v>31700</v>
+        <v>2100</v>
       </c>
       <c r="G41" s="3">
-        <v>23000</v>
+        <v>28100</v>
       </c>
       <c r="H41" s="3">
-        <v>16600</v>
+        <v>20400</v>
       </c>
       <c r="I41" s="3">
-        <v>5100</v>
+        <v>14700</v>
       </c>
       <c r="J41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="K41" s="3">
         <v>4300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>2400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3400</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>42300</v>
+        <v>25100</v>
       </c>
       <c r="E42" s="3">
-        <v>85300</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>22800</v>
+        <v>75500</v>
       </c>
       <c r="G42" s="3">
-        <v>4800</v>
+        <v>20200</v>
       </c>
       <c r="H42" s="3">
-        <v>4300</v>
+        <v>4200</v>
       </c>
       <c r="I42" s="3">
-        <v>300</v>
+        <v>3800</v>
       </c>
       <c r="J42" s="3">
+        <v>200</v>
+      </c>
+      <c r="K42" s="3">
         <v>1400</v>
-      </c>
-      <c r="K42" s="3">
-        <v>100</v>
       </c>
       <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>100</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>191600</v>
+        <v>158800</v>
       </c>
       <c r="E43" s="3">
-        <v>146800</v>
+        <v>187900</v>
       </c>
       <c r="F43" s="3">
-        <v>106400</v>
+        <v>129900</v>
       </c>
       <c r="G43" s="3">
-        <v>50000</v>
+        <v>94200</v>
       </c>
       <c r="H43" s="3">
-        <v>24700</v>
+        <v>44200</v>
       </c>
       <c r="I43" s="3">
-        <v>13600</v>
+        <v>21800</v>
       </c>
       <c r="J43" s="3">
+        <v>12100</v>
+      </c>
+      <c r="K43" s="3">
         <v>15900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>32900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>28600</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>53000</v>
+        <v>20500</v>
       </c>
       <c r="E44" s="3">
-        <v>45300</v>
+        <v>54500</v>
       </c>
       <c r="F44" s="3">
-        <v>8000</v>
+        <v>40100</v>
       </c>
       <c r="G44" s="3">
-        <v>3600</v>
+        <v>7100</v>
       </c>
       <c r="H44" s="3">
-        <v>1700</v>
+        <v>3100</v>
       </c>
       <c r="I44" s="3">
-        <v>900</v>
+        <v>1500</v>
       </c>
       <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1700</v>
+        <v>2500</v>
       </c>
       <c r="E45" s="3">
-        <v>2600</v>
+        <v>1600</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="G45" s="3">
+        <v>600</v>
+      </c>
+      <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
+        <v>500</v>
+      </c>
+      <c r="J45" s="3">
+        <v>300</v>
+      </c>
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="H45" s="3">
-        <v>500</v>
-      </c>
-      <c r="I45" s="3">
-        <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>4700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>8300</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>271000</v>
+        <v>254500</v>
       </c>
       <c r="E46" s="3">
-        <v>260100</v>
+        <v>265700</v>
       </c>
       <c r="F46" s="3">
-        <v>169700</v>
+        <v>230100</v>
       </c>
       <c r="G46" s="3">
-        <v>81700</v>
+        <v>150100</v>
       </c>
       <c r="H46" s="3">
-        <v>47700</v>
+        <v>72300</v>
       </c>
       <c r="I46" s="3">
-        <v>20200</v>
+        <v>42200</v>
       </c>
       <c r="J46" s="3">
+        <v>17900</v>
+      </c>
+      <c r="K46" s="3">
         <v>23100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>20800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>21900</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E47" s="3">
         <v>600</v>
       </c>
-      <c r="E47" s="3">
-        <v>15400</v>
-      </c>
       <c r="F47" s="3">
-        <v>900</v>
+        <v>13600</v>
       </c>
       <c r="G47" s="3">
+        <v>800</v>
+      </c>
+      <c r="H47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K47" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M47" s="3">
         <v>1200</v>
       </c>
-      <c r="H47" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I47" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J47" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K47" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1539500</v>
+        <v>1367100</v>
       </c>
       <c r="E48" s="3">
-        <v>1185500</v>
+        <v>1509700</v>
       </c>
       <c r="F48" s="3">
-        <v>704100</v>
+        <v>1049100</v>
       </c>
       <c r="G48" s="3">
-        <v>138200</v>
+        <v>623100</v>
       </c>
       <c r="H48" s="3">
-        <v>109700</v>
+        <v>122300</v>
       </c>
       <c r="I48" s="3">
-        <v>82100</v>
+        <v>97000</v>
       </c>
       <c r="J48" s="3">
+        <v>72600</v>
+      </c>
+      <c r="K48" s="3">
         <v>64000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>194700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>230700</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1937,14 +2047,17 @@
         <v>0</v>
       </c>
       <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>23000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>33900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,9 +2124,12 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2020,30 +2139,33 @@
       <c r="E52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="3">
-        <v>14600</v>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>12600</v>
+        <v>13000</v>
       </c>
       <c r="H52" s="3">
-        <v>600</v>
+        <v>11100</v>
       </c>
       <c r="I52" s="3">
-        <v>1100</v>
+        <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>7000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>35800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1811000</v>
+        <v>1624900</v>
       </c>
       <c r="E54" s="3">
-        <v>1460900</v>
+        <v>1776000</v>
       </c>
       <c r="F54" s="3">
-        <v>874700</v>
+        <v>1292800</v>
       </c>
       <c r="G54" s="3">
-        <v>233600</v>
+        <v>774000</v>
       </c>
       <c r="H54" s="3">
-        <v>160200</v>
+        <v>206800</v>
       </c>
       <c r="I54" s="3">
-        <v>106500</v>
+        <v>141800</v>
       </c>
       <c r="J54" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K54" s="3">
         <v>89600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>113600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>183600</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>192500</v>
+        <v>360600</v>
       </c>
       <c r="E57" s="3">
-        <v>277200</v>
+        <v>188800</v>
       </c>
       <c r="F57" s="3">
-        <v>167500</v>
+        <v>245300</v>
       </c>
       <c r="G57" s="3">
-        <v>84200</v>
+        <v>148300</v>
       </c>
       <c r="H57" s="3">
-        <v>55200</v>
+        <v>74500</v>
       </c>
       <c r="I57" s="3">
-        <v>40700</v>
+        <v>48900</v>
       </c>
       <c r="J57" s="3">
+        <v>36000</v>
+      </c>
+      <c r="K57" s="3">
         <v>30600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>37600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>11600</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>27200</v>
+        <v>4800</v>
       </c>
       <c r="E58" s="3">
-        <v>20400</v>
+        <v>26700</v>
       </c>
       <c r="F58" s="3">
-        <v>1300</v>
+        <v>18100</v>
       </c>
       <c r="G58" s="3">
-        <v>700</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>500</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3100</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>152900</v>
+        <v>95100</v>
       </c>
       <c r="E59" s="3">
-        <v>100400</v>
+        <v>150000</v>
       </c>
       <c r="F59" s="3">
-        <v>59700</v>
+        <v>88800</v>
       </c>
       <c r="G59" s="3">
-        <v>33200</v>
+        <v>52800</v>
       </c>
       <c r="H59" s="3">
-        <v>14200</v>
+        <v>29400</v>
       </c>
       <c r="I59" s="3">
-        <v>12300</v>
+        <v>12600</v>
       </c>
       <c r="J59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>29000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>24000</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>372600</v>
+        <v>460500</v>
       </c>
       <c r="E60" s="3">
-        <v>398000</v>
+        <v>365400</v>
       </c>
       <c r="F60" s="3">
-        <v>228500</v>
+        <v>352200</v>
       </c>
       <c r="G60" s="3">
-        <v>118000</v>
+        <v>202200</v>
       </c>
       <c r="H60" s="3">
-        <v>70100</v>
+        <v>104400</v>
       </c>
       <c r="I60" s="3">
-        <v>53500</v>
+        <v>62000</v>
       </c>
       <c r="J60" s="3">
+        <v>47300</v>
+      </c>
+      <c r="K60" s="3">
         <v>40500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>35100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>32900</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>124300</v>
+        <v>90200</v>
       </c>
       <c r="E61" s="3">
-        <v>136500</v>
+        <v>121900</v>
       </c>
       <c r="F61" s="3">
-        <v>76400</v>
+        <v>120800</v>
       </c>
       <c r="G61" s="3">
-        <v>34200</v>
+        <v>67600</v>
       </c>
       <c r="H61" s="3">
-        <v>30400</v>
+        <v>30200</v>
       </c>
       <c r="I61" s="3">
-        <v>19700</v>
+        <v>26900</v>
       </c>
       <c r="J61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K61" s="3">
         <v>16200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>22300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>31200</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>417500</v>
+        <v>387300</v>
       </c>
       <c r="E62" s="3">
-        <v>338700</v>
+        <v>409400</v>
       </c>
       <c r="F62" s="3">
-        <v>226800</v>
+        <v>299800</v>
       </c>
       <c r="G62" s="3">
-        <v>77000</v>
+        <v>200700</v>
       </c>
       <c r="H62" s="3">
-        <v>40900</v>
+        <v>68100</v>
       </c>
       <c r="I62" s="3">
-        <v>28500</v>
+        <v>36200</v>
       </c>
       <c r="J62" s="3">
+        <v>25300</v>
+      </c>
+      <c r="K62" s="3">
         <v>18400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>47100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>60100</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>914400</v>
+        <v>938000</v>
       </c>
       <c r="E66" s="3">
-        <v>873300</v>
+        <v>896700</v>
       </c>
       <c r="F66" s="3">
-        <v>531700</v>
+        <v>772800</v>
       </c>
       <c r="G66" s="3">
-        <v>229200</v>
+        <v>470500</v>
       </c>
       <c r="H66" s="3">
-        <v>141400</v>
+        <v>202800</v>
       </c>
       <c r="I66" s="3">
-        <v>101700</v>
+        <v>125100</v>
       </c>
       <c r="J66" s="3">
+        <v>90000</v>
+      </c>
+      <c r="K66" s="3">
         <v>75000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>106700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>146100</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>504100</v>
+        <v>301100</v>
       </c>
       <c r="E72" s="3">
-        <v>260700</v>
+        <v>494400</v>
       </c>
       <c r="F72" s="3">
-        <v>117200</v>
+        <v>230700</v>
       </c>
       <c r="G72" s="3">
-        <v>-11300</v>
+        <v>103700</v>
       </c>
       <c r="H72" s="3">
-        <v>3100</v>
+        <v>-10000</v>
       </c>
       <c r="I72" s="3">
-        <v>-11000</v>
+        <v>2700</v>
       </c>
       <c r="J72" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-14600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-12400</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>896600</v>
+        <v>686800</v>
       </c>
       <c r="E76" s="3">
-        <v>587600</v>
+        <v>879300</v>
       </c>
       <c r="F76" s="3">
-        <v>343000</v>
+        <v>520000</v>
       </c>
       <c r="G76" s="3">
-        <v>4500</v>
+        <v>303500</v>
       </c>
       <c r="H76" s="3">
-        <v>18800</v>
+        <v>4000</v>
       </c>
       <c r="I76" s="3">
-        <v>4800</v>
+        <v>16700</v>
       </c>
       <c r="J76" s="3">
+        <v>4200</v>
+      </c>
+      <c r="K76" s="3">
         <v>14500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>37500</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>149700</v>
+        <v>-193300</v>
       </c>
       <c r="E81" s="3">
-        <v>81500</v>
+        <v>180400</v>
       </c>
       <c r="F81" s="3">
-        <v>62700</v>
+        <v>72200</v>
       </c>
       <c r="G81" s="3">
-        <v>-14700</v>
+        <v>55500</v>
       </c>
       <c r="H81" s="3">
-        <v>14100</v>
+        <v>-13000</v>
       </c>
       <c r="I81" s="3">
-        <v>-9600</v>
+        <v>12500</v>
       </c>
       <c r="J81" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K81" s="3">
         <v>9500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-3800</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>59100</v>
+        <v>74600</v>
       </c>
       <c r="E83" s="3">
-        <v>48600</v>
+        <v>71200</v>
       </c>
       <c r="F83" s="3">
-        <v>26500</v>
+        <v>43000</v>
       </c>
       <c r="G83" s="3">
-        <v>4300</v>
+        <v>23500</v>
       </c>
       <c r="H83" s="3">
-        <v>3500</v>
+        <v>3800</v>
       </c>
       <c r="I83" s="3">
-        <v>2900</v>
+        <v>3100</v>
       </c>
       <c r="J83" s="3">
         <v>2600</v>
       </c>
       <c r="K83" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L83" s="3">
         <v>3600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>5100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>125300</v>
+        <v>191500</v>
       </c>
       <c r="E89" s="3">
-        <v>198400</v>
+        <v>151000</v>
       </c>
       <c r="F89" s="3">
-        <v>91100</v>
+        <v>175600</v>
       </c>
       <c r="G89" s="3">
-        <v>36200</v>
+        <v>80600</v>
       </c>
       <c r="H89" s="3">
-        <v>37000</v>
+        <v>32000</v>
       </c>
       <c r="I89" s="3">
-        <v>19100</v>
+        <v>32800</v>
       </c>
       <c r="J89" s="3">
+        <v>16900</v>
+      </c>
+      <c r="K89" s="3">
         <v>17900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17300</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-115600</v>
+        <v>-107500</v>
       </c>
       <c r="E91" s="3">
-        <v>-162200</v>
+        <v>-139300</v>
       </c>
       <c r="F91" s="3">
-        <v>-97500</v>
+        <v>-143600</v>
       </c>
       <c r="G91" s="3">
-        <v>-30500</v>
+        <v>-86200</v>
       </c>
       <c r="H91" s="3">
-        <v>-25900</v>
+        <v>-27000</v>
       </c>
       <c r="I91" s="3">
-        <v>-17300</v>
+        <v>-22900</v>
       </c>
       <c r="J91" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-8900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-25600</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-63600</v>
+        <v>-78800</v>
       </c>
       <c r="E94" s="3">
-        <v>-163400</v>
+        <v>-76600</v>
       </c>
       <c r="F94" s="3">
-        <v>-105000</v>
+        <v>-144600</v>
       </c>
       <c r="G94" s="3">
-        <v>-29300</v>
+        <v>-92900</v>
       </c>
       <c r="H94" s="3">
-        <v>-38300</v>
+        <v>-25900</v>
       </c>
       <c r="I94" s="3">
-        <v>-18000</v>
+        <v>-33900</v>
       </c>
       <c r="J94" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-9800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-20800</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,8 +3524,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3319,14 +3552,17 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-1000</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,59 +3665,65 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-62600</v>
+        <v>-67200</v>
       </c>
       <c r="E100" s="3">
-        <v>-39800</v>
+        <v>-75400</v>
       </c>
       <c r="F100" s="3">
-        <v>10700</v>
+        <v>-35200</v>
       </c>
       <c r="G100" s="3">
-        <v>-6100</v>
+        <v>9500</v>
       </c>
       <c r="H100" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="I100" s="3">
-        <v>-1900</v>
-      </c>
       <c r="J100" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K100" s="3">
         <v>-2200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5400</v>
+        <v>-4000</v>
       </c>
       <c r="E101" s="3">
-        <v>3000</v>
+        <v>6500</v>
       </c>
       <c r="F101" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="G101" s="3">
-        <v>800</v>
+        <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -3486,43 +3734,49 @@
       <c r="K101" s="3">
         <v>100</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="L101" s="3">
+        <v>100</v>
+      </c>
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>4500</v>
+        <v>41500</v>
       </c>
       <c r="E102" s="3">
-        <v>-1800</v>
+        <v>5500</v>
       </c>
       <c r="F102" s="3">
-        <v>-3200</v>
+        <v>-1600</v>
       </c>
       <c r="G102" s="3">
-        <v>1600</v>
+        <v>-2800</v>
       </c>
       <c r="H102" s="3">
-        <v>-600</v>
+        <v>1400</v>
       </c>
       <c r="I102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K102" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L102" s="3">
         <v>-800</v>
       </c>
-      <c r="J102" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-3000</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>997200</v>
+        <v>968900</v>
       </c>
       <c r="E8" s="3">
-        <v>1337000</v>
+        <v>1299100</v>
       </c>
       <c r="F8" s="3">
-        <v>939600</v>
+        <v>912900</v>
       </c>
       <c r="G8" s="3">
-        <v>432500</v>
+        <v>420200</v>
       </c>
       <c r="H8" s="3">
-        <v>142800</v>
+        <v>138800</v>
       </c>
       <c r="I8" s="3">
-        <v>41500</v>
+        <v>40300</v>
       </c>
       <c r="J8" s="3">
-        <v>39300</v>
+        <v>38200</v>
       </c>
       <c r="K8" s="3">
         <v>42500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>632600</v>
+        <v>614600</v>
       </c>
       <c r="E9" s="3">
-        <v>847900</v>
+        <v>823900</v>
       </c>
       <c r="F9" s="3">
-        <v>535200</v>
+        <v>520100</v>
       </c>
       <c r="G9" s="3">
-        <v>227400</v>
+        <v>220900</v>
       </c>
       <c r="H9" s="3">
-        <v>66200</v>
+        <v>64300</v>
       </c>
       <c r="I9" s="3">
-        <v>22100</v>
+        <v>21500</v>
       </c>
       <c r="J9" s="3">
-        <v>20500</v>
+        <v>19900</v>
       </c>
       <c r="K9" s="3">
         <v>50700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>364600</v>
+        <v>354200</v>
       </c>
       <c r="E10" s="3">
-        <v>489100</v>
+        <v>475200</v>
       </c>
       <c r="F10" s="3">
-        <v>404300</v>
+        <v>392800</v>
       </c>
       <c r="G10" s="3">
-        <v>205100</v>
+        <v>199300</v>
       </c>
       <c r="H10" s="3">
-        <v>76700</v>
+        <v>74500</v>
       </c>
       <c r="I10" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="J10" s="3">
-        <v>18800</v>
+        <v>18300</v>
       </c>
       <c r="K10" s="3">
         <v>-8200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>85000</v>
+        <v>82500</v>
       </c>
       <c r="E14" s="3">
-        <v>-165400</v>
+        <v>-160700</v>
       </c>
       <c r="F14" s="3">
-        <v>-140000</v>
+        <v>-136000</v>
       </c>
       <c r="G14" s="3">
-        <v>-59600</v>
+        <v>-57900</v>
       </c>
       <c r="H14" s="3">
-        <v>-17300</v>
+        <v>-16800</v>
       </c>
       <c r="I14" s="3">
-        <v>-60900</v>
+        <v>-59100</v>
       </c>
       <c r="J14" s="3">
-        <v>-24800</v>
+        <v>-24100</v>
       </c>
       <c r="K14" s="3">
         <v>-36200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>74600</v>
+        <v>72400</v>
       </c>
       <c r="E15" s="3">
-        <v>71200</v>
+        <v>69200</v>
       </c>
       <c r="F15" s="3">
-        <v>43000</v>
+        <v>41800</v>
       </c>
       <c r="G15" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="H15" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I15" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1108000</v>
+        <v>1076600</v>
       </c>
       <c r="E17" s="3">
-        <v>1100000</v>
+        <v>1068800</v>
       </c>
       <c r="F17" s="3">
-        <v>730600</v>
+        <v>709800</v>
       </c>
       <c r="G17" s="3">
-        <v>346500</v>
+        <v>336600</v>
       </c>
       <c r="H17" s="3">
-        <v>150000</v>
+        <v>145700</v>
       </c>
       <c r="I17" s="3">
-        <v>17000</v>
+        <v>16600</v>
       </c>
       <c r="J17" s="3">
-        <v>42100</v>
+        <v>40900</v>
       </c>
       <c r="K17" s="3">
         <v>26200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-110800</v>
+        <v>-107700</v>
       </c>
       <c r="E18" s="3">
-        <v>237000</v>
+        <v>230200</v>
       </c>
       <c r="F18" s="3">
-        <v>209000</v>
+        <v>203000</v>
       </c>
       <c r="G18" s="3">
-        <v>86000</v>
+        <v>83600</v>
       </c>
       <c r="H18" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="I18" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="J18" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="K18" s="3">
         <v>16200</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-86700</v>
+        <v>-84300</v>
       </c>
       <c r="E20" s="3">
-        <v>157800</v>
+        <v>153300</v>
       </c>
       <c r="F20" s="3">
-        <v>-71900</v>
+        <v>-69900</v>
       </c>
       <c r="G20" s="3">
-        <v>-16000</v>
+        <v>-15500</v>
       </c>
       <c r="H20" s="3">
-        <v>-9400</v>
+        <v>-9200</v>
       </c>
       <c r="I20" s="3">
-        <v>-7400</v>
+        <v>-7200</v>
       </c>
       <c r="J20" s="3">
         <v>-1100</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-122900</v>
+        <v>-119400</v>
       </c>
       <c r="E21" s="3">
-        <v>466100</v>
+        <v>452900</v>
       </c>
       <c r="F21" s="3">
-        <v>180100</v>
+        <v>175000</v>
       </c>
       <c r="G21" s="3">
-        <v>93500</v>
+        <v>90800</v>
       </c>
       <c r="H21" s="3">
-        <v>-12800</v>
+        <v>-12400</v>
       </c>
       <c r="I21" s="3">
-        <v>20100</v>
+        <v>19500</v>
       </c>
       <c r="J21" s="3">
         <v>-1300</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34600</v>
+        <v>33600</v>
       </c>
       <c r="E22" s="3">
-        <v>55800</v>
+        <v>54200</v>
       </c>
       <c r="F22" s="3">
-        <v>33400</v>
+        <v>32400</v>
       </c>
       <c r="G22" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="H22" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I22" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J22" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-232200</v>
+        <v>-225600</v>
       </c>
       <c r="E23" s="3">
-        <v>339000</v>
+        <v>329400</v>
       </c>
       <c r="F23" s="3">
-        <v>103700</v>
+        <v>100700</v>
       </c>
       <c r="G23" s="3">
-        <v>61100</v>
+        <v>59300</v>
       </c>
       <c r="H23" s="3">
-        <v>-21100</v>
+        <v>-20500</v>
       </c>
       <c r="I23" s="3">
-        <v>14500</v>
+        <v>14100</v>
       </c>
       <c r="J23" s="3">
-        <v>-10200</v>
+        <v>-9900</v>
       </c>
       <c r="K23" s="3">
         <v>10200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-38900</v>
+        <v>-37800</v>
       </c>
       <c r="E24" s="3">
-        <v>158700</v>
+        <v>154200</v>
       </c>
       <c r="F24" s="3">
-        <v>31500</v>
+        <v>30600</v>
       </c>
       <c r="G24" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H24" s="3">
-        <v>-8100</v>
+        <v>-7900</v>
       </c>
       <c r="I24" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="J24" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K24" s="3">
         <v>-500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-193300</v>
+        <v>-187800</v>
       </c>
       <c r="E26" s="3">
-        <v>180400</v>
+        <v>175300</v>
       </c>
       <c r="F26" s="3">
-        <v>72200</v>
+        <v>70100</v>
       </c>
       <c r="G26" s="3">
-        <v>55500</v>
+        <v>53900</v>
       </c>
       <c r="H26" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="I26" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="J26" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K26" s="3">
         <v>10700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-193300</v>
+        <v>-187800</v>
       </c>
       <c r="E27" s="3">
-        <v>180400</v>
+        <v>175300</v>
       </c>
       <c r="F27" s="3">
-        <v>72200</v>
+        <v>70100</v>
       </c>
       <c r="G27" s="3">
-        <v>55500</v>
+        <v>53900</v>
       </c>
       <c r="H27" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="I27" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="J27" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K27" s="3">
         <v>10700</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>86700</v>
+        <v>84300</v>
       </c>
       <c r="E32" s="3">
-        <v>-157800</v>
+        <v>-153300</v>
       </c>
       <c r="F32" s="3">
-        <v>71900</v>
+        <v>69900</v>
       </c>
       <c r="G32" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="H32" s="3">
-        <v>9400</v>
+        <v>9200</v>
       </c>
       <c r="I32" s="3">
-        <v>7400</v>
+        <v>7200</v>
       </c>
       <c r="J32" s="3">
         <v>1100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-193300</v>
+        <v>-187800</v>
       </c>
       <c r="E33" s="3">
-        <v>180400</v>
+        <v>175300</v>
       </c>
       <c r="F33" s="3">
-        <v>72200</v>
+        <v>70100</v>
       </c>
       <c r="G33" s="3">
-        <v>55500</v>
+        <v>53900</v>
       </c>
       <c r="H33" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="I33" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="J33" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K33" s="3">
         <v>9500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-193300</v>
+        <v>-187800</v>
       </c>
       <c r="E35" s="3">
-        <v>180400</v>
+        <v>175300</v>
       </c>
       <c r="F35" s="3">
-        <v>72200</v>
+        <v>70100</v>
       </c>
       <c r="G35" s="3">
-        <v>55500</v>
+        <v>53900</v>
       </c>
       <c r="H35" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="I35" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="J35" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K35" s="3">
         <v>9500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47600</v>
+        <v>52300</v>
       </c>
       <c r="E41" s="3">
-        <v>47600</v>
+        <v>46200</v>
       </c>
       <c r="F41" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G41" s="3">
-        <v>28100</v>
+        <v>27300</v>
       </c>
       <c r="H41" s="3">
-        <v>20400</v>
+        <v>19800</v>
       </c>
       <c r="I41" s="3">
-        <v>14700</v>
+        <v>14200</v>
       </c>
       <c r="J41" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="K41" s="3">
         <v>4300</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>25100</v>
+        <v>27600</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>75500</v>
+        <v>73300</v>
       </c>
       <c r="G42" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="H42" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I42" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>158800</v>
+        <v>174300</v>
       </c>
       <c r="E43" s="3">
-        <v>187900</v>
+        <v>182600</v>
       </c>
       <c r="F43" s="3">
-        <v>129900</v>
+        <v>126200</v>
       </c>
       <c r="G43" s="3">
-        <v>94200</v>
+        <v>91500</v>
       </c>
       <c r="H43" s="3">
-        <v>44200</v>
+        <v>43000</v>
       </c>
       <c r="I43" s="3">
-        <v>21800</v>
+        <v>21200</v>
       </c>
       <c r="J43" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="K43" s="3">
         <v>15900</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>20500</v>
+        <v>22400</v>
       </c>
       <c r="E44" s="3">
-        <v>54500</v>
+        <v>52900</v>
       </c>
       <c r="F44" s="3">
-        <v>40100</v>
+        <v>38900</v>
       </c>
       <c r="G44" s="3">
-        <v>7100</v>
+        <v>6900</v>
       </c>
       <c r="H44" s="3">
         <v>3100</v>
       </c>
       <c r="I44" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
@@ -1882,13 +1882,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>2800</v>
       </c>
       <c r="E45" s="3">
         <v>1600</v>
       </c>
       <c r="F45" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>254500</v>
+        <v>279300</v>
       </c>
       <c r="E46" s="3">
-        <v>265700</v>
+        <v>258200</v>
       </c>
       <c r="F46" s="3">
-        <v>230100</v>
+        <v>223600</v>
       </c>
       <c r="G46" s="3">
-        <v>150100</v>
+        <v>145900</v>
       </c>
       <c r="H46" s="3">
-        <v>72300</v>
+        <v>70300</v>
       </c>
       <c r="I46" s="3">
-        <v>42200</v>
+        <v>41000</v>
       </c>
       <c r="J46" s="3">
-        <v>17900</v>
+        <v>17400</v>
       </c>
       <c r="K46" s="3">
         <v>23100</v>
@@ -1954,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>3200</v>
+        <v>26300</v>
       </c>
       <c r="E47" s="3">
         <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
@@ -1972,7 +1972,7 @@
         <v>1900</v>
       </c>
       <c r="J47" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="K47" s="3">
         <v>2400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1367100</v>
+        <v>1500200</v>
       </c>
       <c r="E48" s="3">
-        <v>1509700</v>
+        <v>1466800</v>
       </c>
       <c r="F48" s="3">
-        <v>1049100</v>
+        <v>1019300</v>
       </c>
       <c r="G48" s="3">
-        <v>623100</v>
+        <v>605400</v>
       </c>
       <c r="H48" s="3">
-        <v>122300</v>
+        <v>118800</v>
       </c>
       <c r="I48" s="3">
-        <v>97000</v>
+        <v>94300</v>
       </c>
       <c r="J48" s="3">
-        <v>72600</v>
+        <v>70600</v>
       </c>
       <c r="K48" s="3">
         <v>64000</v>
@@ -2143,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>13000</v>
+        <v>12600</v>
       </c>
       <c r="H52" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1624900</v>
+        <v>1783000</v>
       </c>
       <c r="E54" s="3">
-        <v>1776000</v>
+        <v>1725500</v>
       </c>
       <c r="F54" s="3">
-        <v>1292800</v>
+        <v>1256100</v>
       </c>
       <c r="G54" s="3">
-        <v>774000</v>
+        <v>752100</v>
       </c>
       <c r="H54" s="3">
-        <v>206800</v>
+        <v>200900</v>
       </c>
       <c r="I54" s="3">
-        <v>141800</v>
+        <v>137700</v>
       </c>
       <c r="J54" s="3">
-        <v>94200</v>
+        <v>91600</v>
       </c>
       <c r="K54" s="3">
         <v>89600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>360600</v>
+        <v>395700</v>
       </c>
       <c r="E57" s="3">
-        <v>188800</v>
+        <v>183400</v>
       </c>
       <c r="F57" s="3">
-        <v>245300</v>
+        <v>238300</v>
       </c>
       <c r="G57" s="3">
-        <v>148300</v>
+        <v>144100</v>
       </c>
       <c r="H57" s="3">
-        <v>74500</v>
+        <v>72400</v>
       </c>
       <c r="I57" s="3">
-        <v>48900</v>
+        <v>47500</v>
       </c>
       <c r="J57" s="3">
-        <v>36000</v>
+        <v>35000</v>
       </c>
       <c r="K57" s="3">
         <v>30600</v>
@@ -2310,13 +2310,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4800</v>
+        <v>5300</v>
       </c>
       <c r="E58" s="3">
-        <v>26700</v>
+        <v>25900</v>
       </c>
       <c r="F58" s="3">
-        <v>18100</v>
+        <v>17600</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>95100</v>
+        <v>104400</v>
       </c>
       <c r="E59" s="3">
-        <v>150000</v>
+        <v>145700</v>
       </c>
       <c r="F59" s="3">
-        <v>88800</v>
+        <v>86300</v>
       </c>
       <c r="G59" s="3">
-        <v>52800</v>
+        <v>51300</v>
       </c>
       <c r="H59" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="I59" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="J59" s="3">
-        <v>10900</v>
+        <v>10600</v>
       </c>
       <c r="K59" s="3">
         <v>9400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>460500</v>
+        <v>505300</v>
       </c>
       <c r="E60" s="3">
-        <v>365400</v>
+        <v>355000</v>
       </c>
       <c r="F60" s="3">
-        <v>352200</v>
+        <v>342200</v>
       </c>
       <c r="G60" s="3">
-        <v>202200</v>
+        <v>196500</v>
       </c>
       <c r="H60" s="3">
-        <v>104400</v>
+        <v>101500</v>
       </c>
       <c r="I60" s="3">
-        <v>62000</v>
+        <v>60200</v>
       </c>
       <c r="J60" s="3">
-        <v>47300</v>
+        <v>46000</v>
       </c>
       <c r="K60" s="3">
         <v>40500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>90200</v>
+        <v>99000</v>
       </c>
       <c r="E61" s="3">
-        <v>121900</v>
+        <v>118400</v>
       </c>
       <c r="F61" s="3">
-        <v>120800</v>
+        <v>117300</v>
       </c>
       <c r="G61" s="3">
-        <v>67600</v>
+        <v>65700</v>
       </c>
       <c r="H61" s="3">
-        <v>30200</v>
+        <v>29400</v>
       </c>
       <c r="I61" s="3">
-        <v>26900</v>
+        <v>26100</v>
       </c>
       <c r="J61" s="3">
-        <v>17500</v>
+        <v>17000</v>
       </c>
       <c r="K61" s="3">
         <v>16200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>387300</v>
+        <v>425000</v>
       </c>
       <c r="E62" s="3">
-        <v>409400</v>
+        <v>397800</v>
       </c>
       <c r="F62" s="3">
-        <v>299800</v>
+        <v>291300</v>
       </c>
       <c r="G62" s="3">
-        <v>200700</v>
+        <v>195000</v>
       </c>
       <c r="H62" s="3">
-        <v>68100</v>
+        <v>66200</v>
       </c>
       <c r="I62" s="3">
-        <v>36200</v>
+        <v>35200</v>
       </c>
       <c r="J62" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="K62" s="3">
         <v>18400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>938000</v>
+        <v>1029300</v>
       </c>
       <c r="E66" s="3">
-        <v>896700</v>
+        <v>871200</v>
       </c>
       <c r="F66" s="3">
-        <v>772800</v>
+        <v>750800</v>
       </c>
       <c r="G66" s="3">
-        <v>470500</v>
+        <v>457200</v>
       </c>
       <c r="H66" s="3">
-        <v>202800</v>
+        <v>197000</v>
       </c>
       <c r="I66" s="3">
-        <v>125100</v>
+        <v>121500</v>
       </c>
       <c r="J66" s="3">
-        <v>90000</v>
+        <v>87500</v>
       </c>
       <c r="K66" s="3">
         <v>75000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>301100</v>
+        <v>330400</v>
       </c>
       <c r="E72" s="3">
-        <v>494400</v>
+        <v>480300</v>
       </c>
       <c r="F72" s="3">
-        <v>230700</v>
+        <v>224100</v>
       </c>
       <c r="G72" s="3">
-        <v>103700</v>
+        <v>100800</v>
       </c>
       <c r="H72" s="3">
-        <v>-10000</v>
+        <v>-9800</v>
       </c>
       <c r="I72" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="J72" s="3">
-        <v>-9800</v>
+        <v>-9500</v>
       </c>
       <c r="K72" s="3">
         <v>-1400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>686800</v>
+        <v>753700</v>
       </c>
       <c r="E76" s="3">
-        <v>879300</v>
+        <v>854300</v>
       </c>
       <c r="F76" s="3">
-        <v>520000</v>
+        <v>505300</v>
       </c>
       <c r="G76" s="3">
-        <v>303500</v>
+        <v>294900</v>
       </c>
       <c r="H76" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I76" s="3">
-        <v>16700</v>
+        <v>16200</v>
       </c>
       <c r="J76" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K76" s="3">
         <v>14500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-193300</v>
+        <v>-187800</v>
       </c>
       <c r="E81" s="3">
-        <v>180400</v>
+        <v>175300</v>
       </c>
       <c r="F81" s="3">
-        <v>72200</v>
+        <v>70100</v>
       </c>
       <c r="G81" s="3">
-        <v>55500</v>
+        <v>53900</v>
       </c>
       <c r="H81" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="I81" s="3">
-        <v>12500</v>
+        <v>12100</v>
       </c>
       <c r="J81" s="3">
-        <v>-8500</v>
+        <v>-8300</v>
       </c>
       <c r="K81" s="3">
         <v>9500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>74600</v>
+        <v>72400</v>
       </c>
       <c r="E83" s="3">
-        <v>71200</v>
+        <v>69200</v>
       </c>
       <c r="F83" s="3">
-        <v>43000</v>
+        <v>41800</v>
       </c>
       <c r="G83" s="3">
-        <v>23500</v>
+        <v>22800</v>
       </c>
       <c r="H83" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I83" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="J83" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K83" s="3">
         <v>2600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>191500</v>
+        <v>186100</v>
       </c>
       <c r="E89" s="3">
-        <v>151000</v>
+        <v>146700</v>
       </c>
       <c r="F89" s="3">
-        <v>175600</v>
+        <v>170600</v>
       </c>
       <c r="G89" s="3">
-        <v>80600</v>
+        <v>78300</v>
       </c>
       <c r="H89" s="3">
-        <v>32000</v>
+        <v>31100</v>
       </c>
       <c r="I89" s="3">
-        <v>32800</v>
+        <v>31900</v>
       </c>
       <c r="J89" s="3">
-        <v>16900</v>
+        <v>16400</v>
       </c>
       <c r="K89" s="3">
         <v>17900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107500</v>
+        <v>-104500</v>
       </c>
       <c r="E91" s="3">
-        <v>-139300</v>
+        <v>-135300</v>
       </c>
       <c r="F91" s="3">
-        <v>-143600</v>
+        <v>-139500</v>
       </c>
       <c r="G91" s="3">
-        <v>-86200</v>
+        <v>-83800</v>
       </c>
       <c r="H91" s="3">
-        <v>-27000</v>
+        <v>-26300</v>
       </c>
       <c r="I91" s="3">
-        <v>-22900</v>
+        <v>-22200</v>
       </c>
       <c r="J91" s="3">
-        <v>-15300</v>
+        <v>-14900</v>
       </c>
       <c r="K91" s="3">
         <v>-11000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-78800</v>
+        <v>-76600</v>
       </c>
       <c r="E94" s="3">
-        <v>-76600</v>
+        <v>-74500</v>
       </c>
       <c r="F94" s="3">
-        <v>-144600</v>
+        <v>-140500</v>
       </c>
       <c r="G94" s="3">
-        <v>-92900</v>
+        <v>-90300</v>
       </c>
       <c r="H94" s="3">
-        <v>-25900</v>
+        <v>-25200</v>
       </c>
       <c r="I94" s="3">
-        <v>-33900</v>
+        <v>-32900</v>
       </c>
       <c r="J94" s="3">
-        <v>-16000</v>
+        <v>-15500</v>
       </c>
       <c r="K94" s="3">
         <v>-13700</v>
@@ -3675,22 +3675,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-67200</v>
+        <v>-65300</v>
       </c>
       <c r="E100" s="3">
-        <v>-75400</v>
+        <v>-73300</v>
       </c>
       <c r="F100" s="3">
-        <v>-35200</v>
+        <v>-34200</v>
       </c>
       <c r="G100" s="3">
-        <v>9500</v>
+        <v>9200</v>
       </c>
       <c r="H100" s="3">
-        <v>-5400</v>
+        <v>-5200</v>
       </c>
       <c r="I100" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J100" s="3">
         <v>-1700</v>
@@ -3711,13 +3711,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-4000</v>
+        <v>-3900</v>
       </c>
       <c r="E101" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="F101" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3747,13 +3747,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>41500</v>
+        <v>40400</v>
       </c>
       <c r="E102" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="F102" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="G102" s="3">
         <v>-2800</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>968900</v>
+        <v>938700</v>
       </c>
       <c r="E8" s="3">
-        <v>1299100</v>
+        <v>1258700</v>
       </c>
       <c r="F8" s="3">
-        <v>912900</v>
+        <v>884500</v>
       </c>
       <c r="G8" s="3">
-        <v>420200</v>
+        <v>407100</v>
       </c>
       <c r="H8" s="3">
-        <v>138800</v>
+        <v>134500</v>
       </c>
       <c r="I8" s="3">
-        <v>40300</v>
+        <v>39100</v>
       </c>
       <c r="J8" s="3">
-        <v>38200</v>
+        <v>37000</v>
       </c>
       <c r="K8" s="3">
         <v>42500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>614600</v>
+        <v>595500</v>
       </c>
       <c r="E9" s="3">
-        <v>823900</v>
+        <v>798200</v>
       </c>
       <c r="F9" s="3">
-        <v>520100</v>
+        <v>503900</v>
       </c>
       <c r="G9" s="3">
-        <v>220900</v>
+        <v>214000</v>
       </c>
       <c r="H9" s="3">
-        <v>64300</v>
+        <v>62300</v>
       </c>
       <c r="I9" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="J9" s="3">
-        <v>19900</v>
+        <v>19300</v>
       </c>
       <c r="K9" s="3">
         <v>50700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>354200</v>
+        <v>343200</v>
       </c>
       <c r="E10" s="3">
-        <v>475200</v>
+        <v>460400</v>
       </c>
       <c r="F10" s="3">
-        <v>392800</v>
+        <v>380600</v>
       </c>
       <c r="G10" s="3">
-        <v>199300</v>
+        <v>193100</v>
       </c>
       <c r="H10" s="3">
-        <v>74500</v>
+        <v>72200</v>
       </c>
       <c r="I10" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="J10" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="K10" s="3">
         <v>-8200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>82500</v>
+        <v>80000</v>
       </c>
       <c r="E14" s="3">
-        <v>-160700</v>
+        <v>-155700</v>
       </c>
       <c r="F14" s="3">
-        <v>-136000</v>
+        <v>-131700</v>
       </c>
       <c r="G14" s="3">
-        <v>-57900</v>
+        <v>-56100</v>
       </c>
       <c r="H14" s="3">
-        <v>-16800</v>
+        <v>-16300</v>
       </c>
       <c r="I14" s="3">
-        <v>-59100</v>
+        <v>-57300</v>
       </c>
       <c r="J14" s="3">
-        <v>-24100</v>
+        <v>-23300</v>
       </c>
       <c r="K14" s="3">
         <v>-36200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>72400</v>
+        <v>70200</v>
       </c>
       <c r="E15" s="3">
-        <v>69200</v>
+        <v>67000</v>
       </c>
       <c r="F15" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="G15" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="H15" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I15" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J15" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1076600</v>
+        <v>1043100</v>
       </c>
       <c r="E17" s="3">
-        <v>1068800</v>
+        <v>1035600</v>
       </c>
       <c r="F17" s="3">
-        <v>709800</v>
+        <v>687800</v>
       </c>
       <c r="G17" s="3">
-        <v>336600</v>
+        <v>326200</v>
       </c>
       <c r="H17" s="3">
-        <v>145700</v>
+        <v>141200</v>
       </c>
       <c r="I17" s="3">
-        <v>16600</v>
+        <v>16000</v>
       </c>
       <c r="J17" s="3">
-        <v>40900</v>
+        <v>39600</v>
       </c>
       <c r="K17" s="3">
         <v>26200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-107700</v>
+        <v>-104300</v>
       </c>
       <c r="E18" s="3">
-        <v>230200</v>
+        <v>223100</v>
       </c>
       <c r="F18" s="3">
-        <v>203000</v>
+        <v>196700</v>
       </c>
       <c r="G18" s="3">
-        <v>83600</v>
+        <v>81000</v>
       </c>
       <c r="H18" s="3">
-        <v>-7000</v>
+        <v>-6700</v>
       </c>
       <c r="I18" s="3">
-        <v>23800</v>
+        <v>23000</v>
       </c>
       <c r="J18" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="K18" s="3">
         <v>16200</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-84300</v>
+        <v>-81600</v>
       </c>
       <c r="E20" s="3">
-        <v>153300</v>
+        <v>148600</v>
       </c>
       <c r="F20" s="3">
-        <v>-69900</v>
+        <v>-67700</v>
       </c>
       <c r="G20" s="3">
-        <v>-15500</v>
+        <v>-15100</v>
       </c>
       <c r="H20" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="I20" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="J20" s="3">
         <v>-1100</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-119400</v>
+        <v>-115800</v>
       </c>
       <c r="E21" s="3">
-        <v>452900</v>
+        <v>438700</v>
       </c>
       <c r="F21" s="3">
-        <v>175000</v>
+        <v>169500</v>
       </c>
       <c r="G21" s="3">
-        <v>90800</v>
+        <v>88000</v>
       </c>
       <c r="H21" s="3">
-        <v>-12400</v>
+        <v>-12000</v>
       </c>
       <c r="I21" s="3">
-        <v>19500</v>
+        <v>18900</v>
       </c>
       <c r="J21" s="3">
-        <v>-1300</v>
+        <v>-1200</v>
       </c>
       <c r="K21" s="3">
         <v>12800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33600</v>
+        <v>32600</v>
       </c>
       <c r="E22" s="3">
-        <v>54200</v>
+        <v>52500</v>
       </c>
       <c r="F22" s="3">
-        <v>32400</v>
+        <v>31400</v>
       </c>
       <c r="G22" s="3">
-        <v>8700</v>
+        <v>8400</v>
       </c>
       <c r="H22" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="I22" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="J22" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-225600</v>
+        <v>-218600</v>
       </c>
       <c r="E23" s="3">
-        <v>329400</v>
+        <v>319200</v>
       </c>
       <c r="F23" s="3">
-        <v>100700</v>
+        <v>97600</v>
       </c>
       <c r="G23" s="3">
-        <v>59300</v>
+        <v>57500</v>
       </c>
       <c r="H23" s="3">
-        <v>-20500</v>
+        <v>-19900</v>
       </c>
       <c r="I23" s="3">
-        <v>14100</v>
+        <v>13600</v>
       </c>
       <c r="J23" s="3">
-        <v>-9900</v>
+        <v>-9600</v>
       </c>
       <c r="K23" s="3">
         <v>10200</v>
@@ -1233,19 +1233,19 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-37800</v>
+        <v>-36600</v>
       </c>
       <c r="E24" s="3">
-        <v>154200</v>
+        <v>149400</v>
       </c>
       <c r="F24" s="3">
-        <v>30600</v>
+        <v>29700</v>
       </c>
       <c r="G24" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="H24" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="I24" s="3">
         <v>1900</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-187800</v>
+        <v>-181900</v>
       </c>
       <c r="E26" s="3">
-        <v>175300</v>
+        <v>169800</v>
       </c>
       <c r="F26" s="3">
-        <v>70100</v>
+        <v>67900</v>
       </c>
       <c r="G26" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="H26" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="I26" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="J26" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="K26" s="3">
         <v>10700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-187800</v>
+        <v>-181900</v>
       </c>
       <c r="E27" s="3">
-        <v>175300</v>
+        <v>169800</v>
       </c>
       <c r="F27" s="3">
-        <v>70100</v>
+        <v>67900</v>
       </c>
       <c r="G27" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="H27" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="I27" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="J27" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="K27" s="3">
         <v>10700</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>84300</v>
+        <v>81600</v>
       </c>
       <c r="E32" s="3">
-        <v>-153300</v>
+        <v>-148600</v>
       </c>
       <c r="F32" s="3">
-        <v>69900</v>
+        <v>67700</v>
       </c>
       <c r="G32" s="3">
-        <v>15500</v>
+        <v>15100</v>
       </c>
       <c r="H32" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="I32" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="J32" s="3">
         <v>1100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-187800</v>
+        <v>-181900</v>
       </c>
       <c r="E33" s="3">
-        <v>175300</v>
+        <v>169800</v>
       </c>
       <c r="F33" s="3">
-        <v>70100</v>
+        <v>67900</v>
       </c>
       <c r="G33" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="H33" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="I33" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="J33" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="K33" s="3">
         <v>9500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-187800</v>
+        <v>-181900</v>
       </c>
       <c r="E35" s="3">
-        <v>175300</v>
+        <v>169800</v>
       </c>
       <c r="F35" s="3">
-        <v>70100</v>
+        <v>67900</v>
       </c>
       <c r="G35" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="H35" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="I35" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="J35" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="K35" s="3">
         <v>9500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>52300</v>
+        <v>50600</v>
       </c>
       <c r="E41" s="3">
-        <v>46200</v>
+        <v>44800</v>
       </c>
       <c r="F41" s="3">
         <v>2000</v>
       </c>
       <c r="G41" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="H41" s="3">
-        <v>19800</v>
+        <v>19200</v>
       </c>
       <c r="I41" s="3">
-        <v>14200</v>
+        <v>13800</v>
       </c>
       <c r="J41" s="3">
-        <v>4400</v>
+        <v>4200</v>
       </c>
       <c r="K41" s="3">
         <v>4300</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>73300</v>
+        <v>71000</v>
       </c>
       <c r="G42" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="H42" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="I42" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>174300</v>
+        <v>168800</v>
       </c>
       <c r="E43" s="3">
-        <v>182600</v>
+        <v>176900</v>
       </c>
       <c r="F43" s="3">
-        <v>126200</v>
+        <v>122300</v>
       </c>
       <c r="G43" s="3">
-        <v>91500</v>
+        <v>88600</v>
       </c>
       <c r="H43" s="3">
-        <v>43000</v>
+        <v>41600</v>
       </c>
       <c r="I43" s="3">
-        <v>21200</v>
+        <v>20600</v>
       </c>
       <c r="J43" s="3">
-        <v>11700</v>
+        <v>11400</v>
       </c>
       <c r="K43" s="3">
         <v>15900</v>
@@ -1846,19 +1846,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>22400</v>
+        <v>21700</v>
       </c>
       <c r="E44" s="3">
-        <v>52900</v>
+        <v>51300</v>
       </c>
       <c r="F44" s="3">
-        <v>38900</v>
+        <v>37700</v>
       </c>
       <c r="G44" s="3">
-        <v>6900</v>
+        <v>6700</v>
       </c>
       <c r="H44" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="I44" s="3">
         <v>1400</v>
@@ -1882,13 +1882,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="E45" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="F45" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
@@ -1897,7 +1897,7 @@
         <v>300</v>
       </c>
       <c r="I45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J45" s="3">
         <v>300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>279300</v>
+        <v>270600</v>
       </c>
       <c r="E46" s="3">
-        <v>258200</v>
+        <v>250200</v>
       </c>
       <c r="F46" s="3">
-        <v>223600</v>
+        <v>216700</v>
       </c>
       <c r="G46" s="3">
-        <v>145900</v>
+        <v>141300</v>
       </c>
       <c r="H46" s="3">
-        <v>70300</v>
+        <v>68100</v>
       </c>
       <c r="I46" s="3">
-        <v>41000</v>
+        <v>39800</v>
       </c>
       <c r="J46" s="3">
-        <v>17400</v>
+        <v>16900</v>
       </c>
       <c r="K46" s="3">
         <v>23100</v>
@@ -1954,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>26300</v>
+        <v>25500</v>
       </c>
       <c r="E47" s="3">
         <v>600</v>
       </c>
       <c r="F47" s="3">
-        <v>13200</v>
+        <v>12800</v>
       </c>
       <c r="G47" s="3">
         <v>800</v>
@@ -1969,10 +1969,10 @@
         <v>1000</v>
       </c>
       <c r="I47" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J47" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="K47" s="3">
         <v>2400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1500200</v>
+        <v>1453500</v>
       </c>
       <c r="E48" s="3">
-        <v>1466800</v>
+        <v>1421200</v>
       </c>
       <c r="F48" s="3">
-        <v>1019300</v>
+        <v>987600</v>
       </c>
       <c r="G48" s="3">
-        <v>605400</v>
+        <v>586600</v>
       </c>
       <c r="H48" s="3">
-        <v>118800</v>
+        <v>115100</v>
       </c>
       <c r="I48" s="3">
-        <v>94300</v>
+        <v>91300</v>
       </c>
       <c r="J48" s="3">
-        <v>70600</v>
+        <v>68400</v>
       </c>
       <c r="K48" s="3">
         <v>64000</v>
@@ -2143,10 +2143,10 @@
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="H52" s="3">
-        <v>10800</v>
+        <v>10500</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1783000</v>
+        <v>1727500</v>
       </c>
       <c r="E54" s="3">
-        <v>1725500</v>
+        <v>1671900</v>
       </c>
       <c r="F54" s="3">
-        <v>1256100</v>
+        <v>1217000</v>
       </c>
       <c r="G54" s="3">
-        <v>752100</v>
+        <v>728700</v>
       </c>
       <c r="H54" s="3">
-        <v>200900</v>
+        <v>194600</v>
       </c>
       <c r="I54" s="3">
-        <v>137700</v>
+        <v>133400</v>
       </c>
       <c r="J54" s="3">
-        <v>91600</v>
+        <v>88700</v>
       </c>
       <c r="K54" s="3">
         <v>89600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>395700</v>
+        <v>383400</v>
       </c>
       <c r="E57" s="3">
-        <v>183400</v>
+        <v>177700</v>
       </c>
       <c r="F57" s="3">
-        <v>238300</v>
+        <v>230900</v>
       </c>
       <c r="G57" s="3">
-        <v>144100</v>
+        <v>139600</v>
       </c>
       <c r="H57" s="3">
-        <v>72400</v>
+        <v>70100</v>
       </c>
       <c r="I57" s="3">
-        <v>47500</v>
+        <v>46000</v>
       </c>
       <c r="J57" s="3">
-        <v>35000</v>
+        <v>33900</v>
       </c>
       <c r="K57" s="3">
         <v>30600</v>
@@ -2310,13 +2310,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="E58" s="3">
-        <v>25900</v>
+        <v>25100</v>
       </c>
       <c r="F58" s="3">
-        <v>17600</v>
+        <v>17000</v>
       </c>
       <c r="G58" s="3">
         <v>1100</v>
@@ -2328,7 +2328,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>104400</v>
+        <v>101100</v>
       </c>
       <c r="E59" s="3">
-        <v>145700</v>
+        <v>141200</v>
       </c>
       <c r="F59" s="3">
-        <v>86300</v>
+        <v>83600</v>
       </c>
       <c r="G59" s="3">
-        <v>51300</v>
+        <v>49700</v>
       </c>
       <c r="H59" s="3">
-        <v>28500</v>
+        <v>27600</v>
       </c>
       <c r="I59" s="3">
-        <v>12200</v>
+        <v>11900</v>
       </c>
       <c r="J59" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="K59" s="3">
         <v>9400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>505300</v>
+        <v>489600</v>
       </c>
       <c r="E60" s="3">
-        <v>355000</v>
+        <v>344000</v>
       </c>
       <c r="F60" s="3">
-        <v>342200</v>
+        <v>331600</v>
       </c>
       <c r="G60" s="3">
-        <v>196500</v>
+        <v>190400</v>
       </c>
       <c r="H60" s="3">
-        <v>101500</v>
+        <v>98300</v>
       </c>
       <c r="I60" s="3">
-        <v>60200</v>
+        <v>58400</v>
       </c>
       <c r="J60" s="3">
-        <v>46000</v>
+        <v>44500</v>
       </c>
       <c r="K60" s="3">
         <v>40500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>99000</v>
+        <v>95900</v>
       </c>
       <c r="E61" s="3">
-        <v>118400</v>
+        <v>114700</v>
       </c>
       <c r="F61" s="3">
-        <v>117300</v>
+        <v>113700</v>
       </c>
       <c r="G61" s="3">
-        <v>65700</v>
+        <v>63600</v>
       </c>
       <c r="H61" s="3">
-        <v>29400</v>
+        <v>28500</v>
       </c>
       <c r="I61" s="3">
-        <v>26100</v>
+        <v>25300</v>
       </c>
       <c r="J61" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="K61" s="3">
         <v>16200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>425000</v>
+        <v>411800</v>
       </c>
       <c r="E62" s="3">
-        <v>397800</v>
+        <v>385400</v>
       </c>
       <c r="F62" s="3">
-        <v>291300</v>
+        <v>282200</v>
       </c>
       <c r="G62" s="3">
-        <v>195000</v>
+        <v>189000</v>
       </c>
       <c r="H62" s="3">
-        <v>66200</v>
+        <v>64100</v>
       </c>
       <c r="I62" s="3">
-        <v>35200</v>
+        <v>34100</v>
       </c>
       <c r="J62" s="3">
-        <v>24500</v>
+        <v>23800</v>
       </c>
       <c r="K62" s="3">
         <v>18400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1029300</v>
+        <v>997300</v>
       </c>
       <c r="E66" s="3">
-        <v>871200</v>
+        <v>844100</v>
       </c>
       <c r="F66" s="3">
-        <v>750800</v>
+        <v>727500</v>
       </c>
       <c r="G66" s="3">
-        <v>457200</v>
+        <v>442900</v>
       </c>
       <c r="H66" s="3">
-        <v>197000</v>
+        <v>190900</v>
       </c>
       <c r="I66" s="3">
-        <v>121500</v>
+        <v>117800</v>
       </c>
       <c r="J66" s="3">
-        <v>87500</v>
+        <v>84800</v>
       </c>
       <c r="K66" s="3">
         <v>75000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>330400</v>
+        <v>320100</v>
       </c>
       <c r="E72" s="3">
-        <v>480300</v>
+        <v>465400</v>
       </c>
       <c r="F72" s="3">
-        <v>224100</v>
+        <v>217100</v>
       </c>
       <c r="G72" s="3">
-        <v>100800</v>
+        <v>97700</v>
       </c>
       <c r="H72" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="I72" s="3">
         <v>2600</v>
       </c>
       <c r="J72" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="K72" s="3">
         <v>-1400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>753700</v>
+        <v>730200</v>
       </c>
       <c r="E76" s="3">
-        <v>854300</v>
+        <v>827700</v>
       </c>
       <c r="F76" s="3">
-        <v>505300</v>
+        <v>489500</v>
       </c>
       <c r="G76" s="3">
-        <v>294900</v>
+        <v>285700</v>
       </c>
       <c r="H76" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I76" s="3">
-        <v>16200</v>
+        <v>15700</v>
       </c>
       <c r="J76" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="K76" s="3">
         <v>14500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-187800</v>
+        <v>-181900</v>
       </c>
       <c r="E81" s="3">
-        <v>175300</v>
+        <v>169800</v>
       </c>
       <c r="F81" s="3">
-        <v>70100</v>
+        <v>67900</v>
       </c>
       <c r="G81" s="3">
-        <v>53900</v>
+        <v>52200</v>
       </c>
       <c r="H81" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="I81" s="3">
-        <v>12100</v>
+        <v>11700</v>
       </c>
       <c r="J81" s="3">
-        <v>-8300</v>
+        <v>-8000</v>
       </c>
       <c r="K81" s="3">
         <v>9500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>72400</v>
+        <v>70200</v>
       </c>
       <c r="E83" s="3">
-        <v>69200</v>
+        <v>67000</v>
       </c>
       <c r="F83" s="3">
-        <v>41800</v>
+        <v>40500</v>
       </c>
       <c r="G83" s="3">
-        <v>22800</v>
+        <v>22100</v>
       </c>
       <c r="H83" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I83" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="J83" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K83" s="3">
         <v>2600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>186100</v>
+        <v>180300</v>
       </c>
       <c r="E89" s="3">
-        <v>146700</v>
+        <v>142100</v>
       </c>
       <c r="F89" s="3">
-        <v>170600</v>
+        <v>165300</v>
       </c>
       <c r="G89" s="3">
-        <v>78300</v>
+        <v>75900</v>
       </c>
       <c r="H89" s="3">
-        <v>31100</v>
+        <v>30100</v>
       </c>
       <c r="I89" s="3">
-        <v>31900</v>
+        <v>30900</v>
       </c>
       <c r="J89" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="K89" s="3">
         <v>17900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-104500</v>
+        <v>-101200</v>
       </c>
       <c r="E91" s="3">
-        <v>-135300</v>
+        <v>-131100</v>
       </c>
       <c r="F91" s="3">
-        <v>-139500</v>
+        <v>-135200</v>
       </c>
       <c r="G91" s="3">
-        <v>-83800</v>
+        <v>-81200</v>
       </c>
       <c r="H91" s="3">
-        <v>-26300</v>
+        <v>-25400</v>
       </c>
       <c r="I91" s="3">
-        <v>-22200</v>
+        <v>-21500</v>
       </c>
       <c r="J91" s="3">
-        <v>-14900</v>
+        <v>-14400</v>
       </c>
       <c r="K91" s="3">
         <v>-11000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-76600</v>
+        <v>-74200</v>
       </c>
       <c r="E94" s="3">
-        <v>-74500</v>
+        <v>-72200</v>
       </c>
       <c r="F94" s="3">
-        <v>-140500</v>
+        <v>-136100</v>
       </c>
       <c r="G94" s="3">
-        <v>-90300</v>
+        <v>-87500</v>
       </c>
       <c r="H94" s="3">
-        <v>-25200</v>
+        <v>-24400</v>
       </c>
       <c r="I94" s="3">
-        <v>-32900</v>
+        <v>-31900</v>
       </c>
       <c r="J94" s="3">
-        <v>-15500</v>
+        <v>-15000</v>
       </c>
       <c r="K94" s="3">
         <v>-13700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-65300</v>
+        <v>-63200</v>
       </c>
       <c r="E100" s="3">
-        <v>-73300</v>
+        <v>-71000</v>
       </c>
       <c r="F100" s="3">
-        <v>-34200</v>
+        <v>-33100</v>
       </c>
       <c r="G100" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="H100" s="3">
-        <v>-5200</v>
+        <v>-5100</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="K100" s="3">
         <v>-2200</v>
@@ -3711,10 +3711,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3900</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
-        <v>6300</v>
+        <v>6100</v>
       </c>
       <c r="F101" s="3">
         <v>2500</v>
@@ -3747,19 +3747,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>40400</v>
+        <v>39100</v>
       </c>
       <c r="E102" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="F102" s="3">
         <v>-1500</v>
       </c>
       <c r="G102" s="3">
-        <v>-2800</v>
+        <v>-2700</v>
       </c>
       <c r="H102" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>938700</v>
+        <v>905900</v>
       </c>
       <c r="E8" s="3">
-        <v>1258700</v>
+        <v>1214600</v>
       </c>
       <c r="F8" s="3">
-        <v>884500</v>
+        <v>853500</v>
       </c>
       <c r="G8" s="3">
-        <v>407100</v>
+        <v>392900</v>
       </c>
       <c r="H8" s="3">
-        <v>134500</v>
+        <v>129700</v>
       </c>
       <c r="I8" s="3">
-        <v>39100</v>
+        <v>37700</v>
       </c>
       <c r="J8" s="3">
-        <v>37000</v>
+        <v>35700</v>
       </c>
       <c r="K8" s="3">
         <v>42500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>595500</v>
+        <v>574700</v>
       </c>
       <c r="E9" s="3">
-        <v>798200</v>
+        <v>770300</v>
       </c>
       <c r="F9" s="3">
-        <v>503900</v>
+        <v>486200</v>
       </c>
       <c r="G9" s="3">
-        <v>214000</v>
+        <v>206500</v>
       </c>
       <c r="H9" s="3">
-        <v>62300</v>
+        <v>60100</v>
       </c>
       <c r="I9" s="3">
-        <v>20800</v>
+        <v>20100</v>
       </c>
       <c r="J9" s="3">
-        <v>19300</v>
+        <v>18600</v>
       </c>
       <c r="K9" s="3">
         <v>50700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>343200</v>
+        <v>331200</v>
       </c>
       <c r="E10" s="3">
-        <v>460400</v>
+        <v>444300</v>
       </c>
       <c r="F10" s="3">
-        <v>380600</v>
+        <v>367300</v>
       </c>
       <c r="G10" s="3">
-        <v>193100</v>
+        <v>186300</v>
       </c>
       <c r="H10" s="3">
-        <v>72200</v>
+        <v>69600</v>
       </c>
       <c r="I10" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="J10" s="3">
-        <v>17700</v>
+        <v>17100</v>
       </c>
       <c r="K10" s="3">
         <v>-8200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>80000</v>
+        <v>174100</v>
       </c>
       <c r="E14" s="3">
-        <v>-155700</v>
+        <v>900</v>
       </c>
       <c r="F14" s="3">
-        <v>-131700</v>
+        <v>-127100</v>
       </c>
       <c r="G14" s="3">
-        <v>-56100</v>
+        <v>-54100</v>
       </c>
       <c r="H14" s="3">
-        <v>-16300</v>
+        <v>-15700</v>
       </c>
       <c r="I14" s="3">
-        <v>-57300</v>
+        <v>-55300</v>
       </c>
       <c r="J14" s="3">
-        <v>-23300</v>
+        <v>-22500</v>
       </c>
       <c r="K14" s="3">
         <v>-36200</v>
@@ -952,22 +952,22 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>70200</v>
+        <v>67700</v>
       </c>
       <c r="E15" s="3">
-        <v>67000</v>
+        <v>64700</v>
       </c>
       <c r="F15" s="3">
-        <v>40500</v>
+        <v>39100</v>
       </c>
       <c r="G15" s="3">
-        <v>22100</v>
+        <v>21300</v>
       </c>
       <c r="H15" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I15" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J15" s="3">
         <v>2400</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1043100</v>
+        <v>1103400</v>
       </c>
       <c r="E17" s="3">
-        <v>1035600</v>
+        <v>1150400</v>
       </c>
       <c r="F17" s="3">
-        <v>687800</v>
+        <v>663700</v>
       </c>
       <c r="G17" s="3">
-        <v>326200</v>
+        <v>314700</v>
       </c>
       <c r="H17" s="3">
-        <v>141200</v>
+        <v>136300</v>
       </c>
       <c r="I17" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="J17" s="3">
-        <v>39600</v>
+        <v>38200</v>
       </c>
       <c r="K17" s="3">
         <v>26200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-104300</v>
+        <v>-197600</v>
       </c>
       <c r="E18" s="3">
-        <v>223100</v>
+        <v>64100</v>
       </c>
       <c r="F18" s="3">
-        <v>196700</v>
+        <v>189800</v>
       </c>
       <c r="G18" s="3">
-        <v>81000</v>
+        <v>78100</v>
       </c>
       <c r="H18" s="3">
-        <v>-6700</v>
+        <v>-6500</v>
       </c>
       <c r="I18" s="3">
-        <v>23000</v>
+        <v>22200</v>
       </c>
       <c r="J18" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="K18" s="3">
         <v>16200</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-81600</v>
+        <v>18100</v>
       </c>
       <c r="E20" s="3">
-        <v>148600</v>
+        <v>294500</v>
       </c>
       <c r="F20" s="3">
-        <v>-67700</v>
+        <v>-65300</v>
       </c>
       <c r="G20" s="3">
-        <v>-15100</v>
+        <v>-14500</v>
       </c>
       <c r="H20" s="3">
-        <v>-8900</v>
+        <v>-8600</v>
       </c>
       <c r="I20" s="3">
-        <v>-7000</v>
+        <v>-6800</v>
       </c>
       <c r="J20" s="3">
-        <v>-1100</v>
+        <v>-1000</v>
       </c>
       <c r="K20" s="3">
         <v>-6100</v>
@@ -1125,22 +1125,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-115800</v>
+        <v>-111700</v>
       </c>
       <c r="E21" s="3">
-        <v>438700</v>
+        <v>423400</v>
       </c>
       <c r="F21" s="3">
-        <v>169500</v>
+        <v>163600</v>
       </c>
       <c r="G21" s="3">
-        <v>88000</v>
+        <v>84900</v>
       </c>
       <c r="H21" s="3">
-        <v>-12000</v>
+        <v>-11600</v>
       </c>
       <c r="I21" s="3">
-        <v>18900</v>
+        <v>18300</v>
       </c>
       <c r="J21" s="3">
         <v>-1200</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32600</v>
+        <v>31400</v>
       </c>
       <c r="E22" s="3">
-        <v>52500</v>
+        <v>50700</v>
       </c>
       <c r="F22" s="3">
-        <v>31400</v>
+        <v>30300</v>
       </c>
       <c r="G22" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="H22" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="I22" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="J22" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-218600</v>
+        <v>-210900</v>
       </c>
       <c r="E23" s="3">
-        <v>319200</v>
+        <v>308000</v>
       </c>
       <c r="F23" s="3">
-        <v>97600</v>
+        <v>94200</v>
       </c>
       <c r="G23" s="3">
-        <v>57500</v>
+        <v>55500</v>
       </c>
       <c r="H23" s="3">
-        <v>-19900</v>
+        <v>-19200</v>
       </c>
       <c r="I23" s="3">
-        <v>13600</v>
+        <v>13200</v>
       </c>
       <c r="J23" s="3">
-        <v>-9600</v>
+        <v>-9300</v>
       </c>
       <c r="K23" s="3">
         <v>10200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-36600</v>
+        <v>-35300</v>
       </c>
       <c r="E24" s="3">
-        <v>149400</v>
+        <v>144100</v>
       </c>
       <c r="F24" s="3">
-        <v>29700</v>
+        <v>28600</v>
       </c>
       <c r="G24" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="H24" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="I24" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="J24" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K24" s="3">
         <v>-500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-181900</v>
+        <v>-175600</v>
       </c>
       <c r="E26" s="3">
-        <v>169800</v>
+        <v>163900</v>
       </c>
       <c r="F26" s="3">
-        <v>67900</v>
+        <v>65600</v>
       </c>
       <c r="G26" s="3">
-        <v>52200</v>
+        <v>50400</v>
       </c>
       <c r="H26" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="I26" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J26" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="K26" s="3">
         <v>10700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-181900</v>
+        <v>-175600</v>
       </c>
       <c r="E27" s="3">
-        <v>169800</v>
+        <v>163900</v>
       </c>
       <c r="F27" s="3">
-        <v>67900</v>
+        <v>65600</v>
       </c>
       <c r="G27" s="3">
-        <v>52200</v>
+        <v>50400</v>
       </c>
       <c r="H27" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="I27" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J27" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="K27" s="3">
         <v>10700</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>81600</v>
+        <v>-18100</v>
       </c>
       <c r="E32" s="3">
-        <v>-148600</v>
+        <v>-294500</v>
       </c>
       <c r="F32" s="3">
-        <v>67700</v>
+        <v>65300</v>
       </c>
       <c r="G32" s="3">
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="H32" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="I32" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="J32" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="K32" s="3">
         <v>6100</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-181900</v>
+        <v>-175600</v>
       </c>
       <c r="E33" s="3">
-        <v>169800</v>
+        <v>163900</v>
       </c>
       <c r="F33" s="3">
-        <v>67900</v>
+        <v>65600</v>
       </c>
       <c r="G33" s="3">
-        <v>52200</v>
+        <v>50400</v>
       </c>
       <c r="H33" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="I33" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J33" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="K33" s="3">
         <v>9500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-181900</v>
+        <v>-175600</v>
       </c>
       <c r="E35" s="3">
-        <v>169800</v>
+        <v>163900</v>
       </c>
       <c r="F35" s="3">
-        <v>67900</v>
+        <v>65600</v>
       </c>
       <c r="G35" s="3">
-        <v>52200</v>
+        <v>50400</v>
       </c>
       <c r="H35" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="I35" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J35" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="K35" s="3">
         <v>9500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>50600</v>
+        <v>59300</v>
       </c>
       <c r="E41" s="3">
-        <v>44800</v>
+        <v>43200</v>
       </c>
       <c r="F41" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G41" s="3">
-        <v>26400</v>
+        <v>25500</v>
       </c>
       <c r="H41" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="I41" s="3">
-        <v>13800</v>
+        <v>13300</v>
       </c>
       <c r="J41" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="K41" s="3">
         <v>4300</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>26700</v>
+        <v>31200</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>71000</v>
+        <v>68600</v>
       </c>
       <c r="G42" s="3">
-        <v>19000</v>
+        <v>18300</v>
       </c>
       <c r="H42" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="I42" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>168800</v>
+        <v>197600</v>
       </c>
       <c r="E43" s="3">
-        <v>176900</v>
+        <v>170700</v>
       </c>
       <c r="F43" s="3">
-        <v>122300</v>
+        <v>118000</v>
       </c>
       <c r="G43" s="3">
-        <v>88600</v>
+        <v>85500</v>
       </c>
       <c r="H43" s="3">
-        <v>41600</v>
+        <v>40200</v>
       </c>
       <c r="I43" s="3">
-        <v>20600</v>
+        <v>19800</v>
       </c>
       <c r="J43" s="3">
-        <v>11400</v>
+        <v>11000</v>
       </c>
       <c r="K43" s="3">
         <v>15900</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>21700</v>
+        <v>25400</v>
       </c>
       <c r="E44" s="3">
-        <v>51300</v>
+        <v>49500</v>
       </c>
       <c r="F44" s="3">
-        <v>37700</v>
+        <v>36400</v>
       </c>
       <c r="G44" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="H44" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="I44" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="J44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K44" s="3">
         <v>1000</v>
@@ -1882,7 +1882,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2700</v>
+        <v>3200</v>
       </c>
       <c r="E45" s="3">
         <v>1500</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>270600</v>
+        <v>316700</v>
       </c>
       <c r="E46" s="3">
-        <v>250200</v>
+        <v>241400</v>
       </c>
       <c r="F46" s="3">
-        <v>216700</v>
+        <v>209100</v>
       </c>
       <c r="G46" s="3">
-        <v>141300</v>
+        <v>136400</v>
       </c>
       <c r="H46" s="3">
-        <v>68100</v>
+        <v>65700</v>
       </c>
       <c r="I46" s="3">
-        <v>39800</v>
+        <v>38400</v>
       </c>
       <c r="J46" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="K46" s="3">
         <v>23100</v>
@@ -1954,19 +1954,19 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25500</v>
+        <v>25300</v>
       </c>
       <c r="E47" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F47" s="3">
-        <v>12800</v>
+        <v>12300</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I47" s="3">
         <v>1800</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1453500</v>
+        <v>1700900</v>
       </c>
       <c r="E48" s="3">
-        <v>1421200</v>
+        <v>1371400</v>
       </c>
       <c r="F48" s="3">
-        <v>987600</v>
+        <v>953000</v>
       </c>
       <c r="G48" s="3">
-        <v>586600</v>
+        <v>566000</v>
       </c>
       <c r="H48" s="3">
-        <v>115100</v>
+        <v>111100</v>
       </c>
       <c r="I48" s="3">
-        <v>91300</v>
+        <v>88100</v>
       </c>
       <c r="J48" s="3">
-        <v>68400</v>
+        <v>66000</v>
       </c>
       <c r="K48" s="3">
         <v>64000</v>
@@ -2143,10 +2143,10 @@
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>12200</v>
+        <v>11800</v>
       </c>
       <c r="H52" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1727500</v>
+        <v>2021600</v>
       </c>
       <c r="E54" s="3">
-        <v>1671900</v>
+        <v>1613300</v>
       </c>
       <c r="F54" s="3">
-        <v>1217000</v>
+        <v>1174400</v>
       </c>
       <c r="G54" s="3">
-        <v>728700</v>
+        <v>703100</v>
       </c>
       <c r="H54" s="3">
-        <v>194600</v>
+        <v>187800</v>
       </c>
       <c r="I54" s="3">
-        <v>133400</v>
+        <v>128800</v>
       </c>
       <c r="J54" s="3">
-        <v>88700</v>
+        <v>85600</v>
       </c>
       <c r="K54" s="3">
         <v>89600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>383400</v>
+        <v>448600</v>
       </c>
       <c r="E57" s="3">
-        <v>177700</v>
+        <v>171500</v>
       </c>
       <c r="F57" s="3">
-        <v>230900</v>
+        <v>222800</v>
       </c>
       <c r="G57" s="3">
-        <v>139600</v>
+        <v>134700</v>
       </c>
       <c r="H57" s="3">
-        <v>70100</v>
+        <v>67700</v>
       </c>
       <c r="I57" s="3">
-        <v>46000</v>
+        <v>44400</v>
       </c>
       <c r="J57" s="3">
-        <v>33900</v>
+        <v>32700</v>
       </c>
       <c r="K57" s="3">
         <v>30600</v>
@@ -2310,19 +2310,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5100</v>
+        <v>6000</v>
       </c>
       <c r="E58" s="3">
-        <v>25100</v>
+        <v>24200</v>
       </c>
       <c r="F58" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>500</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>101100</v>
+        <v>118300</v>
       </c>
       <c r="E59" s="3">
-        <v>141200</v>
+        <v>136200</v>
       </c>
       <c r="F59" s="3">
-        <v>83600</v>
+        <v>80700</v>
       </c>
       <c r="G59" s="3">
-        <v>49700</v>
+        <v>48000</v>
       </c>
       <c r="H59" s="3">
-        <v>27600</v>
+        <v>26700</v>
       </c>
       <c r="I59" s="3">
-        <v>11900</v>
+        <v>11400</v>
       </c>
       <c r="J59" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="K59" s="3">
         <v>9400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>489600</v>
+        <v>572900</v>
       </c>
       <c r="E60" s="3">
-        <v>344000</v>
+        <v>332000</v>
       </c>
       <c r="F60" s="3">
-        <v>331600</v>
+        <v>320000</v>
       </c>
       <c r="G60" s="3">
-        <v>190400</v>
+        <v>183700</v>
       </c>
       <c r="H60" s="3">
-        <v>98300</v>
+        <v>94900</v>
       </c>
       <c r="I60" s="3">
-        <v>58400</v>
+        <v>56300</v>
       </c>
       <c r="J60" s="3">
-        <v>44500</v>
+        <v>43000</v>
       </c>
       <c r="K60" s="3">
         <v>40500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>95900</v>
+        <v>112200</v>
       </c>
       <c r="E61" s="3">
-        <v>114700</v>
+        <v>110700</v>
       </c>
       <c r="F61" s="3">
-        <v>113700</v>
+        <v>109700</v>
       </c>
       <c r="G61" s="3">
-        <v>63600</v>
+        <v>61400</v>
       </c>
       <c r="H61" s="3">
-        <v>28500</v>
+        <v>27500</v>
       </c>
       <c r="I61" s="3">
-        <v>25300</v>
+        <v>24400</v>
       </c>
       <c r="J61" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="K61" s="3">
         <v>16200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>411800</v>
+        <v>481900</v>
       </c>
       <c r="E62" s="3">
-        <v>385400</v>
+        <v>371900</v>
       </c>
       <c r="F62" s="3">
-        <v>282200</v>
+        <v>272300</v>
       </c>
       <c r="G62" s="3">
-        <v>189000</v>
+        <v>182300</v>
       </c>
       <c r="H62" s="3">
-        <v>64100</v>
+        <v>61900</v>
       </c>
       <c r="I62" s="3">
-        <v>34100</v>
+        <v>32900</v>
       </c>
       <c r="J62" s="3">
-        <v>23800</v>
+        <v>22900</v>
       </c>
       <c r="K62" s="3">
         <v>18400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>997300</v>
+        <v>1167000</v>
       </c>
       <c r="E66" s="3">
-        <v>844100</v>
+        <v>814600</v>
       </c>
       <c r="F66" s="3">
-        <v>727500</v>
+        <v>702000</v>
       </c>
       <c r="G66" s="3">
-        <v>442900</v>
+        <v>427400</v>
       </c>
       <c r="H66" s="3">
-        <v>190900</v>
+        <v>184200</v>
       </c>
       <c r="I66" s="3">
-        <v>117800</v>
+        <v>113600</v>
       </c>
       <c r="J66" s="3">
-        <v>84800</v>
+        <v>81800</v>
       </c>
       <c r="K66" s="3">
         <v>75000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>320100</v>
+        <v>374600</v>
       </c>
       <c r="E72" s="3">
-        <v>465400</v>
+        <v>449100</v>
       </c>
       <c r="F72" s="3">
-        <v>217100</v>
+        <v>209500</v>
       </c>
       <c r="G72" s="3">
-        <v>97700</v>
+        <v>94200</v>
       </c>
       <c r="H72" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="I72" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J72" s="3">
-        <v>-9200</v>
+        <v>-8900</v>
       </c>
       <c r="K72" s="3">
         <v>-1400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>730200</v>
+        <v>854500</v>
       </c>
       <c r="E76" s="3">
-        <v>827700</v>
+        <v>798800</v>
       </c>
       <c r="F76" s="3">
-        <v>489500</v>
+        <v>472400</v>
       </c>
       <c r="G76" s="3">
-        <v>285700</v>
+        <v>275700</v>
       </c>
       <c r="H76" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I76" s="3">
-        <v>15700</v>
+        <v>15100</v>
       </c>
       <c r="J76" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="K76" s="3">
         <v>14500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-181900</v>
+        <v>-175600</v>
       </c>
       <c r="E81" s="3">
-        <v>169800</v>
+        <v>163900</v>
       </c>
       <c r="F81" s="3">
-        <v>67900</v>
+        <v>65600</v>
       </c>
       <c r="G81" s="3">
-        <v>52200</v>
+        <v>50400</v>
       </c>
       <c r="H81" s="3">
-        <v>-12200</v>
+        <v>-11800</v>
       </c>
       <c r="I81" s="3">
-        <v>11700</v>
+        <v>11300</v>
       </c>
       <c r="J81" s="3">
-        <v>-8000</v>
+        <v>-7700</v>
       </c>
       <c r="K81" s="3">
         <v>9500</v>
@@ -3103,22 +3103,22 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>70200</v>
+        <v>67700</v>
       </c>
       <c r="E83" s="3">
-        <v>67000</v>
+        <v>64700</v>
       </c>
       <c r="F83" s="3">
-        <v>40500</v>
+        <v>39100</v>
       </c>
       <c r="G83" s="3">
-        <v>22100</v>
+        <v>21300</v>
       </c>
       <c r="H83" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I83" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="J83" s="3">
         <v>2400</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>180300</v>
+        <v>174000</v>
       </c>
       <c r="E89" s="3">
-        <v>142100</v>
+        <v>137200</v>
       </c>
       <c r="F89" s="3">
-        <v>165300</v>
+        <v>159500</v>
       </c>
       <c r="G89" s="3">
-        <v>75900</v>
+        <v>73200</v>
       </c>
       <c r="H89" s="3">
-        <v>30100</v>
+        <v>29100</v>
       </c>
       <c r="I89" s="3">
-        <v>30900</v>
+        <v>29800</v>
       </c>
       <c r="J89" s="3">
-        <v>15900</v>
+        <v>15400</v>
       </c>
       <c r="K89" s="3">
         <v>17900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-101200</v>
+        <v>-97700</v>
       </c>
       <c r="E91" s="3">
-        <v>-131100</v>
+        <v>-126500</v>
       </c>
       <c r="F91" s="3">
-        <v>-135200</v>
+        <v>-130400</v>
       </c>
       <c r="G91" s="3">
-        <v>-81200</v>
+        <v>-78300</v>
       </c>
       <c r="H91" s="3">
-        <v>-25400</v>
+        <v>-24500</v>
       </c>
       <c r="I91" s="3">
-        <v>-21500</v>
+        <v>-20800</v>
       </c>
       <c r="J91" s="3">
-        <v>-14400</v>
+        <v>-13900</v>
       </c>
       <c r="K91" s="3">
         <v>-11000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-74200</v>
+        <v>-71600</v>
       </c>
       <c r="E94" s="3">
-        <v>-72200</v>
+        <v>-69600</v>
       </c>
       <c r="F94" s="3">
-        <v>-136100</v>
+        <v>-131300</v>
       </c>
       <c r="G94" s="3">
-        <v>-87500</v>
+        <v>-84400</v>
       </c>
       <c r="H94" s="3">
-        <v>-24400</v>
+        <v>-23500</v>
       </c>
       <c r="I94" s="3">
-        <v>-31900</v>
+        <v>-30800</v>
       </c>
       <c r="J94" s="3">
-        <v>-15000</v>
+        <v>-14500</v>
       </c>
       <c r="K94" s="3">
         <v>-13700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-63200</v>
+        <v>-61000</v>
       </c>
       <c r="E100" s="3">
-        <v>-71000</v>
+        <v>-68500</v>
       </c>
       <c r="F100" s="3">
-        <v>-33100</v>
+        <v>-32000</v>
       </c>
       <c r="G100" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="H100" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="K100" s="3">
         <v>-2200</v>
@@ -3711,19 +3711,19 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3700</v>
+        <v>-3600</v>
       </c>
       <c r="E101" s="3">
-        <v>6100</v>
+        <v>5900</v>
       </c>
       <c r="F101" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
       <c r="H101" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I101" s="3">
         <v>100</v>
@@ -3747,16 +3747,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>39100</v>
+        <v>37700</v>
       </c>
       <c r="E102" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="F102" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="G102" s="3">
-        <v>-2700</v>
+        <v>-2600</v>
       </c>
       <c r="H102" s="3">
         <v>1300</v>
@@ -3765,7 +3765,7 @@
         <v>-500</v>
       </c>
       <c r="J102" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="K102" s="3">
         <v>2100</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>905900</v>
+        <v>839200</v>
       </c>
       <c r="E8" s="3">
-        <v>1214600</v>
+        <v>1125200</v>
       </c>
       <c r="F8" s="3">
-        <v>853500</v>
+        <v>790700</v>
       </c>
       <c r="G8" s="3">
-        <v>392900</v>
+        <v>364000</v>
       </c>
       <c r="H8" s="3">
-        <v>129700</v>
+        <v>120200</v>
       </c>
       <c r="I8" s="3">
-        <v>37700</v>
+        <v>34900</v>
       </c>
       <c r="J8" s="3">
-        <v>35700</v>
+        <v>33100</v>
       </c>
       <c r="K8" s="3">
         <v>42500</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>574700</v>
+        <v>532400</v>
       </c>
       <c r="E9" s="3">
-        <v>770300</v>
+        <v>713600</v>
       </c>
       <c r="F9" s="3">
-        <v>486200</v>
+        <v>450400</v>
       </c>
       <c r="G9" s="3">
-        <v>206500</v>
+        <v>191300</v>
       </c>
       <c r="H9" s="3">
-        <v>60100</v>
+        <v>55700</v>
       </c>
       <c r="I9" s="3">
-        <v>20100</v>
+        <v>18600</v>
       </c>
       <c r="J9" s="3">
-        <v>18600</v>
+        <v>17300</v>
       </c>
       <c r="K9" s="3">
         <v>50700</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>331200</v>
+        <v>306800</v>
       </c>
       <c r="E10" s="3">
-        <v>444300</v>
+        <v>411600</v>
       </c>
       <c r="F10" s="3">
-        <v>367300</v>
+        <v>340300</v>
       </c>
       <c r="G10" s="3">
-        <v>186300</v>
+        <v>172600</v>
       </c>
       <c r="H10" s="3">
-        <v>69600</v>
+        <v>64500</v>
       </c>
       <c r="I10" s="3">
-        <v>17700</v>
+        <v>16400</v>
       </c>
       <c r="J10" s="3">
-        <v>17100</v>
+        <v>15800</v>
       </c>
       <c r="K10" s="3">
         <v>-8200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>174100</v>
+        <v>161300</v>
       </c>
       <c r="E14" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="F14" s="3">
-        <v>-127100</v>
+        <v>-117800</v>
       </c>
       <c r="G14" s="3">
-        <v>-54100</v>
+        <v>-50100</v>
       </c>
       <c r="H14" s="3">
-        <v>-15700</v>
+        <v>-14600</v>
       </c>
       <c r="I14" s="3">
-        <v>-55300</v>
+        <v>-51200</v>
       </c>
       <c r="J14" s="3">
-        <v>-22500</v>
+        <v>-20900</v>
       </c>
       <c r="K14" s="3">
         <v>-36200</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>67700</v>
+        <v>62700</v>
       </c>
       <c r="E15" s="3">
-        <v>64700</v>
+        <v>59900</v>
       </c>
       <c r="F15" s="3">
-        <v>39100</v>
+        <v>36200</v>
       </c>
       <c r="G15" s="3">
-        <v>21300</v>
+        <v>19700</v>
       </c>
       <c r="H15" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="I15" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>8</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1103400</v>
+        <v>1022200</v>
       </c>
       <c r="E17" s="3">
-        <v>1150400</v>
+        <v>1065800</v>
       </c>
       <c r="F17" s="3">
-        <v>663700</v>
+        <v>614800</v>
       </c>
       <c r="G17" s="3">
-        <v>314700</v>
+        <v>291600</v>
       </c>
       <c r="H17" s="3">
-        <v>136300</v>
+        <v>126200</v>
       </c>
       <c r="I17" s="3">
-        <v>15500</v>
+        <v>14300</v>
       </c>
       <c r="J17" s="3">
-        <v>38200</v>
+        <v>35400</v>
       </c>
       <c r="K17" s="3">
         <v>26200</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-197600</v>
+        <v>-183000</v>
       </c>
       <c r="E18" s="3">
-        <v>64100</v>
+        <v>59400</v>
       </c>
       <c r="F18" s="3">
-        <v>189800</v>
+        <v>175900</v>
       </c>
       <c r="G18" s="3">
-        <v>78100</v>
+        <v>72400</v>
       </c>
       <c r="H18" s="3">
-        <v>-6500</v>
+        <v>-6000</v>
       </c>
       <c r="I18" s="3">
-        <v>22200</v>
+        <v>20600</v>
       </c>
       <c r="J18" s="3">
-        <v>-2500</v>
+        <v>-2300</v>
       </c>
       <c r="K18" s="3">
         <v>16200</v>
@@ -1089,22 +1089,22 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>18100</v>
+        <v>16800</v>
       </c>
       <c r="E20" s="3">
-        <v>294500</v>
+        <v>272800</v>
       </c>
       <c r="F20" s="3">
-        <v>-65300</v>
+        <v>-60500</v>
       </c>
       <c r="G20" s="3">
-        <v>-14500</v>
+        <v>-13500</v>
       </c>
       <c r="H20" s="3">
-        <v>-8600</v>
+        <v>-7900</v>
       </c>
       <c r="I20" s="3">
-        <v>-6800</v>
+        <v>-6300</v>
       </c>
       <c r="J20" s="3">
         <v>-1000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-111700</v>
+        <v>-103400</v>
       </c>
       <c r="E21" s="3">
-        <v>423400</v>
+        <v>392200</v>
       </c>
       <c r="F21" s="3">
-        <v>163600</v>
+        <v>151600</v>
       </c>
       <c r="G21" s="3">
-        <v>84900</v>
+        <v>78700</v>
       </c>
       <c r="H21" s="3">
-        <v>-11600</v>
+        <v>-10700</v>
       </c>
       <c r="I21" s="3">
-        <v>18300</v>
+        <v>16900</v>
       </c>
       <c r="J21" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="K21" s="3">
         <v>12800</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31400</v>
+        <v>29100</v>
       </c>
       <c r="E22" s="3">
-        <v>50700</v>
+        <v>46900</v>
       </c>
       <c r="F22" s="3">
-        <v>30300</v>
+        <v>28100</v>
       </c>
       <c r="G22" s="3">
-        <v>8100</v>
+        <v>7500</v>
       </c>
       <c r="H22" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="I22" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="J22" s="3">
-        <v>5700</v>
+        <v>5300</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-210900</v>
+        <v>-195400</v>
       </c>
       <c r="E23" s="3">
-        <v>308000</v>
+        <v>285300</v>
       </c>
       <c r="F23" s="3">
-        <v>94200</v>
+        <v>87300</v>
       </c>
       <c r="G23" s="3">
-        <v>55500</v>
+        <v>51400</v>
       </c>
       <c r="H23" s="3">
-        <v>-19200</v>
+        <v>-17800</v>
       </c>
       <c r="I23" s="3">
-        <v>13200</v>
+        <v>12200</v>
       </c>
       <c r="J23" s="3">
-        <v>-9300</v>
+        <v>-8600</v>
       </c>
       <c r="K23" s="3">
         <v>10200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-35300</v>
+        <v>-32700</v>
       </c>
       <c r="E24" s="3">
-        <v>144100</v>
+        <v>133500</v>
       </c>
       <c r="F24" s="3">
-        <v>28600</v>
+        <v>26500</v>
       </c>
       <c r="G24" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="H24" s="3">
-        <v>-7400</v>
+        <v>-6800</v>
       </c>
       <c r="I24" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="J24" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K24" s="3">
         <v>-500</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-175600</v>
+        <v>-162600</v>
       </c>
       <c r="E26" s="3">
-        <v>163900</v>
+        <v>151800</v>
       </c>
       <c r="F26" s="3">
-        <v>65600</v>
+        <v>60700</v>
       </c>
       <c r="G26" s="3">
-        <v>50400</v>
+        <v>46700</v>
       </c>
       <c r="H26" s="3">
-        <v>-11800</v>
+        <v>-10900</v>
       </c>
       <c r="I26" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="J26" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K26" s="3">
         <v>10700</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-175600</v>
+        <v>-162600</v>
       </c>
       <c r="E27" s="3">
-        <v>163900</v>
+        <v>151800</v>
       </c>
       <c r="F27" s="3">
-        <v>65600</v>
+        <v>60700</v>
       </c>
       <c r="G27" s="3">
-        <v>50400</v>
+        <v>46700</v>
       </c>
       <c r="H27" s="3">
-        <v>-11800</v>
+        <v>-10900</v>
       </c>
       <c r="I27" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="J27" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K27" s="3">
         <v>10700</v>
@@ -1521,22 +1521,22 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-18100</v>
+        <v>-16800</v>
       </c>
       <c r="E32" s="3">
-        <v>-294500</v>
+        <v>-272800</v>
       </c>
       <c r="F32" s="3">
-        <v>65300</v>
+        <v>60500</v>
       </c>
       <c r="G32" s="3">
-        <v>14500</v>
+        <v>13500</v>
       </c>
       <c r="H32" s="3">
-        <v>8600</v>
+        <v>7900</v>
       </c>
       <c r="I32" s="3">
-        <v>6800</v>
+        <v>6300</v>
       </c>
       <c r="J32" s="3">
         <v>1000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-175600</v>
+        <v>-162600</v>
       </c>
       <c r="E33" s="3">
-        <v>163900</v>
+        <v>151800</v>
       </c>
       <c r="F33" s="3">
-        <v>65600</v>
+        <v>60700</v>
       </c>
       <c r="G33" s="3">
-        <v>50400</v>
+        <v>46700</v>
       </c>
       <c r="H33" s="3">
-        <v>-11800</v>
+        <v>-10900</v>
       </c>
       <c r="I33" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="J33" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K33" s="3">
         <v>9500</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-175600</v>
+        <v>-162600</v>
       </c>
       <c r="E35" s="3">
-        <v>163900</v>
+        <v>151800</v>
       </c>
       <c r="F35" s="3">
-        <v>65600</v>
+        <v>60700</v>
       </c>
       <c r="G35" s="3">
-        <v>50400</v>
+        <v>46700</v>
       </c>
       <c r="H35" s="3">
-        <v>-11800</v>
+        <v>-10900</v>
       </c>
       <c r="I35" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="J35" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K35" s="3">
         <v>9500</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>59300</v>
+        <v>54900</v>
       </c>
       <c r="E41" s="3">
-        <v>43200</v>
+        <v>40000</v>
       </c>
       <c r="F41" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="G41" s="3">
-        <v>25500</v>
+        <v>23600</v>
       </c>
       <c r="H41" s="3">
-        <v>18500</v>
+        <v>17100</v>
       </c>
       <c r="I41" s="3">
-        <v>13300</v>
+        <v>12300</v>
       </c>
       <c r="J41" s="3">
-        <v>4100</v>
+        <v>3800</v>
       </c>
       <c r="K41" s="3">
         <v>4300</v>
@@ -1774,22 +1774,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>31200</v>
+        <v>28900</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>68600</v>
+        <v>63500</v>
       </c>
       <c r="G42" s="3">
-        <v>18300</v>
+        <v>17000</v>
       </c>
       <c r="H42" s="3">
-        <v>3900</v>
+        <v>3600</v>
       </c>
       <c r="I42" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="J42" s="3">
         <v>200</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>197600</v>
+        <v>183000</v>
       </c>
       <c r="E43" s="3">
-        <v>170700</v>
+        <v>158100</v>
       </c>
       <c r="F43" s="3">
-        <v>118000</v>
+        <v>109300</v>
       </c>
       <c r="G43" s="3">
-        <v>85500</v>
+        <v>79200</v>
       </c>
       <c r="H43" s="3">
-        <v>40200</v>
+        <v>37200</v>
       </c>
       <c r="I43" s="3">
-        <v>19800</v>
+        <v>18400</v>
       </c>
       <c r="J43" s="3">
-        <v>11000</v>
+        <v>10200</v>
       </c>
       <c r="K43" s="3">
         <v>15900</v>
@@ -1846,22 +1846,22 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25400</v>
+        <v>23600</v>
       </c>
       <c r="E44" s="3">
-        <v>49500</v>
+        <v>45900</v>
       </c>
       <c r="F44" s="3">
-        <v>36400</v>
+        <v>33700</v>
       </c>
       <c r="G44" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="H44" s="3">
-        <v>2900</v>
+        <v>2600</v>
       </c>
       <c r="I44" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J44" s="3">
         <v>700</v>
@@ -1882,16 +1882,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3200</v>
+        <v>2900</v>
       </c>
       <c r="E45" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F45" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G45" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H45" s="3">
         <v>300</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>316700</v>
+        <v>293400</v>
       </c>
       <c r="E46" s="3">
-        <v>241400</v>
+        <v>223600</v>
       </c>
       <c r="F46" s="3">
-        <v>209100</v>
+        <v>193700</v>
       </c>
       <c r="G46" s="3">
-        <v>136400</v>
+        <v>126300</v>
       </c>
       <c r="H46" s="3">
-        <v>65700</v>
+        <v>60900</v>
       </c>
       <c r="I46" s="3">
-        <v>38400</v>
+        <v>35500</v>
       </c>
       <c r="J46" s="3">
-        <v>16300</v>
+        <v>15100</v>
       </c>
       <c r="K46" s="3">
         <v>23100</v>
@@ -1954,13 +1954,13 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>25300</v>
+        <v>23500</v>
       </c>
       <c r="E47" s="3">
         <v>500</v>
       </c>
       <c r="F47" s="3">
-        <v>12300</v>
+        <v>11400</v>
       </c>
       <c r="G47" s="3">
         <v>700</v>
@@ -1969,10 +1969,10 @@
         <v>900</v>
       </c>
       <c r="I47" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="J47" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="K47" s="3">
         <v>2400</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1700900</v>
+        <v>1575800</v>
       </c>
       <c r="E48" s="3">
-        <v>1371400</v>
+        <v>1270500</v>
       </c>
       <c r="F48" s="3">
-        <v>953000</v>
+        <v>882900</v>
       </c>
       <c r="G48" s="3">
-        <v>566000</v>
+        <v>524400</v>
       </c>
       <c r="H48" s="3">
-        <v>111100</v>
+        <v>102900</v>
       </c>
       <c r="I48" s="3">
-        <v>88100</v>
+        <v>81700</v>
       </c>
       <c r="J48" s="3">
-        <v>66000</v>
+        <v>61100</v>
       </c>
       <c r="K48" s="3">
         <v>64000</v>
@@ -2143,16 +2143,16 @@
         <v>8</v>
       </c>
       <c r="G52" s="3">
-        <v>11800</v>
+        <v>10900</v>
       </c>
       <c r="H52" s="3">
-        <v>10100</v>
+        <v>9400</v>
       </c>
       <c r="I52" s="3">
         <v>500</v>
       </c>
       <c r="J52" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2021600</v>
+        <v>1872800</v>
       </c>
       <c r="E54" s="3">
-        <v>1613300</v>
+        <v>1494600</v>
       </c>
       <c r="F54" s="3">
-        <v>1174400</v>
+        <v>1088000</v>
       </c>
       <c r="G54" s="3">
-        <v>703100</v>
+        <v>651400</v>
       </c>
       <c r="H54" s="3">
-        <v>187800</v>
+        <v>174000</v>
       </c>
       <c r="I54" s="3">
-        <v>128800</v>
+        <v>119300</v>
       </c>
       <c r="J54" s="3">
-        <v>85600</v>
+        <v>79300</v>
       </c>
       <c r="K54" s="3">
         <v>89600</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>448600</v>
+        <v>415600</v>
       </c>
       <c r="E57" s="3">
-        <v>171500</v>
+        <v>158900</v>
       </c>
       <c r="F57" s="3">
-        <v>222800</v>
+        <v>206400</v>
       </c>
       <c r="G57" s="3">
-        <v>134700</v>
+        <v>124800</v>
       </c>
       <c r="H57" s="3">
-        <v>67700</v>
+        <v>62700</v>
       </c>
       <c r="I57" s="3">
-        <v>44400</v>
+        <v>41100</v>
       </c>
       <c r="J57" s="3">
-        <v>32700</v>
+        <v>30300</v>
       </c>
       <c r="K57" s="3">
         <v>30600</v>
@@ -2310,13 +2310,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>6000</v>
+        <v>5500</v>
       </c>
       <c r="E58" s="3">
-        <v>24200</v>
+        <v>22400</v>
       </c>
       <c r="F58" s="3">
-        <v>16400</v>
+        <v>15200</v>
       </c>
       <c r="G58" s="3">
         <v>1000</v>
@@ -2325,7 +2325,7 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>300</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>118300</v>
+        <v>109600</v>
       </c>
       <c r="E59" s="3">
-        <v>136200</v>
+        <v>126200</v>
       </c>
       <c r="F59" s="3">
-        <v>80700</v>
+        <v>74800</v>
       </c>
       <c r="G59" s="3">
-        <v>48000</v>
+        <v>44400</v>
       </c>
       <c r="H59" s="3">
-        <v>26700</v>
+        <v>24700</v>
       </c>
       <c r="I59" s="3">
-        <v>11400</v>
+        <v>10600</v>
       </c>
       <c r="J59" s="3">
-        <v>9900</v>
+        <v>9200</v>
       </c>
       <c r="K59" s="3">
         <v>9400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>572900</v>
+        <v>530700</v>
       </c>
       <c r="E60" s="3">
-        <v>332000</v>
+        <v>307500</v>
       </c>
       <c r="F60" s="3">
-        <v>320000</v>
+        <v>296400</v>
       </c>
       <c r="G60" s="3">
-        <v>183700</v>
+        <v>170200</v>
       </c>
       <c r="H60" s="3">
-        <v>94900</v>
+        <v>87900</v>
       </c>
       <c r="I60" s="3">
-        <v>56300</v>
+        <v>52200</v>
       </c>
       <c r="J60" s="3">
-        <v>43000</v>
+        <v>39800</v>
       </c>
       <c r="K60" s="3">
         <v>40500</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>112200</v>
+        <v>104000</v>
       </c>
       <c r="E61" s="3">
-        <v>110700</v>
+        <v>102600</v>
       </c>
       <c r="F61" s="3">
-        <v>109700</v>
+        <v>101600</v>
       </c>
       <c r="G61" s="3">
-        <v>61400</v>
+        <v>56900</v>
       </c>
       <c r="H61" s="3">
-        <v>27500</v>
+        <v>25500</v>
       </c>
       <c r="I61" s="3">
-        <v>24400</v>
+        <v>22600</v>
       </c>
       <c r="J61" s="3">
-        <v>15900</v>
+        <v>14700</v>
       </c>
       <c r="K61" s="3">
         <v>16200</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>481900</v>
+        <v>446500</v>
       </c>
       <c r="E62" s="3">
-        <v>371900</v>
+        <v>344500</v>
       </c>
       <c r="F62" s="3">
-        <v>272300</v>
+        <v>252300</v>
       </c>
       <c r="G62" s="3">
-        <v>182300</v>
+        <v>168900</v>
       </c>
       <c r="H62" s="3">
-        <v>61900</v>
+        <v>57300</v>
       </c>
       <c r="I62" s="3">
-        <v>32900</v>
+        <v>30500</v>
       </c>
       <c r="J62" s="3">
-        <v>22900</v>
+        <v>21300</v>
       </c>
       <c r="K62" s="3">
         <v>18400</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1167000</v>
+        <v>1081200</v>
       </c>
       <c r="E66" s="3">
-        <v>814600</v>
+        <v>754600</v>
       </c>
       <c r="F66" s="3">
-        <v>702000</v>
+        <v>650400</v>
       </c>
       <c r="G66" s="3">
-        <v>427400</v>
+        <v>396000</v>
       </c>
       <c r="H66" s="3">
-        <v>184200</v>
+        <v>170700</v>
       </c>
       <c r="I66" s="3">
-        <v>113600</v>
+        <v>105300</v>
       </c>
       <c r="J66" s="3">
-        <v>81800</v>
+        <v>75800</v>
       </c>
       <c r="K66" s="3">
         <v>75000</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>374600</v>
+        <v>347100</v>
       </c>
       <c r="E72" s="3">
-        <v>449100</v>
+        <v>416000</v>
       </c>
       <c r="F72" s="3">
-        <v>209500</v>
+        <v>194100</v>
       </c>
       <c r="G72" s="3">
-        <v>94200</v>
+        <v>87300</v>
       </c>
       <c r="H72" s="3">
-        <v>-9100</v>
+        <v>-8400</v>
       </c>
       <c r="I72" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="J72" s="3">
-        <v>-8900</v>
+        <v>-8200</v>
       </c>
       <c r="K72" s="3">
         <v>-1400</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>854500</v>
+        <v>791700</v>
       </c>
       <c r="E76" s="3">
-        <v>798800</v>
+        <v>740000</v>
       </c>
       <c r="F76" s="3">
-        <v>472400</v>
+        <v>437600</v>
       </c>
       <c r="G76" s="3">
-        <v>275700</v>
+        <v>255400</v>
       </c>
       <c r="H76" s="3">
-        <v>3600</v>
+        <v>3300</v>
       </c>
       <c r="I76" s="3">
-        <v>15100</v>
+        <v>14000</v>
       </c>
       <c r="J76" s="3">
-        <v>3800</v>
+        <v>3500</v>
       </c>
       <c r="K76" s="3">
         <v>14500</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-175600</v>
+        <v>-162600</v>
       </c>
       <c r="E81" s="3">
-        <v>163900</v>
+        <v>151800</v>
       </c>
       <c r="F81" s="3">
-        <v>65600</v>
+        <v>60700</v>
       </c>
       <c r="G81" s="3">
-        <v>50400</v>
+        <v>46700</v>
       </c>
       <c r="H81" s="3">
-        <v>-11800</v>
+        <v>-10900</v>
       </c>
       <c r="I81" s="3">
-        <v>11300</v>
+        <v>10500</v>
       </c>
       <c r="J81" s="3">
-        <v>-7700</v>
+        <v>-7200</v>
       </c>
       <c r="K81" s="3">
         <v>9500</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>67700</v>
+        <v>62700</v>
       </c>
       <c r="E83" s="3">
-        <v>64700</v>
+        <v>59900</v>
       </c>
       <c r="F83" s="3">
-        <v>39100</v>
+        <v>36200</v>
       </c>
       <c r="G83" s="3">
-        <v>21300</v>
+        <v>19700</v>
       </c>
       <c r="H83" s="3">
-        <v>3500</v>
+        <v>3200</v>
       </c>
       <c r="I83" s="3">
-        <v>2800</v>
+        <v>2600</v>
       </c>
       <c r="J83" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="K83" s="3">
         <v>2600</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>174000</v>
+        <v>161200</v>
       </c>
       <c r="E89" s="3">
-        <v>137200</v>
+        <v>127100</v>
       </c>
       <c r="F89" s="3">
-        <v>159500</v>
+        <v>147700</v>
       </c>
       <c r="G89" s="3">
-        <v>73200</v>
+        <v>67800</v>
       </c>
       <c r="H89" s="3">
-        <v>29100</v>
+        <v>26900</v>
       </c>
       <c r="I89" s="3">
-        <v>29800</v>
+        <v>27600</v>
       </c>
       <c r="J89" s="3">
-        <v>15400</v>
+        <v>14200</v>
       </c>
       <c r="K89" s="3">
         <v>17900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-97700</v>
+        <v>-90500</v>
       </c>
       <c r="E91" s="3">
-        <v>-126500</v>
+        <v>-117200</v>
       </c>
       <c r="F91" s="3">
-        <v>-130400</v>
+        <v>-120800</v>
       </c>
       <c r="G91" s="3">
-        <v>-78300</v>
+        <v>-72600</v>
       </c>
       <c r="H91" s="3">
-        <v>-24500</v>
+        <v>-22700</v>
       </c>
       <c r="I91" s="3">
-        <v>-20800</v>
+        <v>-19300</v>
       </c>
       <c r="J91" s="3">
-        <v>-13900</v>
+        <v>-12900</v>
       </c>
       <c r="K91" s="3">
         <v>-11000</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-71600</v>
+        <v>-66300</v>
       </c>
       <c r="E94" s="3">
-        <v>-69600</v>
+        <v>-64500</v>
       </c>
       <c r="F94" s="3">
-        <v>-131300</v>
+        <v>-121700</v>
       </c>
       <c r="G94" s="3">
-        <v>-84400</v>
+        <v>-78200</v>
       </c>
       <c r="H94" s="3">
-        <v>-23500</v>
+        <v>-21800</v>
       </c>
       <c r="I94" s="3">
-        <v>-30800</v>
+        <v>-28500</v>
       </c>
       <c r="J94" s="3">
-        <v>-14500</v>
+        <v>-13400</v>
       </c>
       <c r="K94" s="3">
         <v>-13700</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-61000</v>
+        <v>-56500</v>
       </c>
       <c r="E100" s="3">
-        <v>-68500</v>
+        <v>-63500</v>
       </c>
       <c r="F100" s="3">
-        <v>-32000</v>
+        <v>-29600</v>
       </c>
       <c r="G100" s="3">
-        <v>8600</v>
+        <v>8000</v>
       </c>
       <c r="H100" s="3">
-        <v>-4900</v>
+        <v>-4500</v>
       </c>
       <c r="I100" s="3">
         <v>400</v>
       </c>
       <c r="J100" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K100" s="3">
         <v>-2200</v>
@@ -3711,13 +3711,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3600</v>
+        <v>-3300</v>
       </c>
       <c r="E101" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="F101" s="3">
-        <v>2400</v>
+        <v>2200</v>
       </c>
       <c r="G101" s="3">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>100</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>100</v>
@@ -3747,19 +3747,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>37700</v>
+        <v>35000</v>
       </c>
       <c r="E102" s="3">
-        <v>5000</v>
+        <v>4600</v>
       </c>
       <c r="F102" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2600</v>
+        <v>-2400</v>
       </c>
       <c r="H102" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I102" s="3">
         <v>-500</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>839200</v>
+        <v>968200</v>
       </c>
       <c r="E8" s="3">
-        <v>1125200</v>
+        <v>1175300</v>
       </c>
       <c r="F8" s="3">
-        <v>790700</v>
+        <v>1044400</v>
       </c>
       <c r="G8" s="3">
-        <v>364000</v>
+        <v>733900</v>
       </c>
       <c r="H8" s="3">
-        <v>120200</v>
+        <v>337800</v>
       </c>
       <c r="I8" s="3">
-        <v>34900</v>
+        <v>111600</v>
       </c>
       <c r="J8" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K8" s="3">
         <v>33100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>42500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>49200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>75700</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>532400</v>
+        <v>595400</v>
       </c>
       <c r="E9" s="3">
-        <v>713600</v>
+        <v>745600</v>
       </c>
       <c r="F9" s="3">
-        <v>450400</v>
+        <v>662300</v>
       </c>
       <c r="G9" s="3">
-        <v>191300</v>
+        <v>418100</v>
       </c>
       <c r="H9" s="3">
-        <v>55700</v>
+        <v>177600</v>
       </c>
       <c r="I9" s="3">
-        <v>18600</v>
+        <v>51700</v>
       </c>
       <c r="J9" s="3">
+        <v>17200</v>
+      </c>
+      <c r="K9" s="3">
         <v>17300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>50700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>52900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>107400</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>306800</v>
+        <v>372800</v>
       </c>
       <c r="E10" s="3">
-        <v>411600</v>
+        <v>429700</v>
       </c>
       <c r="F10" s="3">
-        <v>340300</v>
+        <v>382000</v>
       </c>
       <c r="G10" s="3">
-        <v>172600</v>
+        <v>315800</v>
       </c>
       <c r="H10" s="3">
-        <v>64500</v>
+        <v>160200</v>
       </c>
       <c r="I10" s="3">
-        <v>16400</v>
+        <v>59900</v>
       </c>
       <c r="J10" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K10" s="3">
         <v>15800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-8200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-31600</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +850,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>161300</v>
+        <v>2100</v>
       </c>
       <c r="E14" s="3">
-        <v>800</v>
+        <v>225800</v>
       </c>
       <c r="F14" s="3">
-        <v>-117800</v>
+        <v>700</v>
       </c>
       <c r="G14" s="3">
-        <v>-50100</v>
+        <v>-109300</v>
       </c>
       <c r="H14" s="3">
-        <v>-14600</v>
+        <v>-46500</v>
       </c>
       <c r="I14" s="3">
-        <v>-51200</v>
+        <v>-13500</v>
       </c>
       <c r="J14" s="3">
+        <v>-47500</v>
+      </c>
+      <c r="K14" s="3">
         <v>-20900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-36200</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-8700</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>62700</v>
+        <v>81500</v>
       </c>
       <c r="E15" s="3">
-        <v>59900</v>
+        <v>87800</v>
       </c>
       <c r="F15" s="3">
-        <v>36200</v>
+        <v>55600</v>
       </c>
       <c r="G15" s="3">
-        <v>19700</v>
+        <v>33600</v>
       </c>
       <c r="H15" s="3">
-        <v>3200</v>
+        <v>18300</v>
       </c>
       <c r="I15" s="3">
-        <v>2600</v>
+        <v>3000</v>
       </c>
       <c r="J15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="L15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1022200</v>
+        <v>1005700</v>
       </c>
       <c r="E17" s="3">
-        <v>1065800</v>
+        <v>1431600</v>
       </c>
       <c r="F17" s="3">
-        <v>614800</v>
+        <v>989200</v>
       </c>
       <c r="G17" s="3">
-        <v>291600</v>
+        <v>570700</v>
       </c>
       <c r="H17" s="3">
-        <v>126200</v>
+        <v>270600</v>
       </c>
       <c r="I17" s="3">
-        <v>14300</v>
+        <v>117200</v>
       </c>
       <c r="J17" s="3">
+        <v>13300</v>
+      </c>
+      <c r="K17" s="3">
         <v>35400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>26200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>62900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>68800</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-183000</v>
+        <v>-37500</v>
       </c>
       <c r="E18" s="3">
-        <v>59400</v>
+        <v>-256300</v>
       </c>
       <c r="F18" s="3">
-        <v>175900</v>
+        <v>55100</v>
       </c>
       <c r="G18" s="3">
-        <v>72400</v>
+        <v>163200</v>
       </c>
       <c r="H18" s="3">
-        <v>-6000</v>
+        <v>67200</v>
       </c>
       <c r="I18" s="3">
-        <v>20600</v>
+        <v>-5600</v>
       </c>
       <c r="J18" s="3">
+        <v>19100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6900</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16800</v>
+        <v>28800</v>
       </c>
       <c r="E20" s="3">
-        <v>272800</v>
+        <v>23500</v>
       </c>
       <c r="F20" s="3">
-        <v>-60500</v>
+        <v>253200</v>
       </c>
       <c r="G20" s="3">
-        <v>-13500</v>
+        <v>-56200</v>
       </c>
       <c r="H20" s="3">
-        <v>-7900</v>
+        <v>-12500</v>
       </c>
       <c r="I20" s="3">
-        <v>-6300</v>
+        <v>-7400</v>
       </c>
       <c r="J20" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2000</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-103400</v>
+        <v>72900</v>
       </c>
       <c r="E21" s="3">
-        <v>392200</v>
+        <v>-145000</v>
       </c>
       <c r="F21" s="3">
-        <v>151600</v>
+        <v>364100</v>
       </c>
       <c r="G21" s="3">
-        <v>78700</v>
+        <v>140700</v>
       </c>
       <c r="H21" s="3">
-        <v>-10700</v>
+        <v>73000</v>
       </c>
       <c r="I21" s="3">
-        <v>16900</v>
+        <v>-10000</v>
       </c>
       <c r="J21" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>12800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29100</v>
+        <v>40000</v>
       </c>
       <c r="E22" s="3">
-        <v>46900</v>
+        <v>40800</v>
       </c>
       <c r="F22" s="3">
-        <v>28100</v>
+        <v>43600</v>
       </c>
       <c r="G22" s="3">
-        <v>7500</v>
+        <v>26100</v>
       </c>
       <c r="H22" s="3">
-        <v>3800</v>
+        <v>7000</v>
       </c>
       <c r="I22" s="3">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="J22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K22" s="3">
         <v>5300</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>5000</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-195400</v>
+        <v>-48700</v>
       </c>
       <c r="E23" s="3">
-        <v>285300</v>
+        <v>-273600</v>
       </c>
       <c r="F23" s="3">
-        <v>87300</v>
+        <v>264800</v>
       </c>
       <c r="G23" s="3">
-        <v>51400</v>
+        <v>81000</v>
       </c>
       <c r="H23" s="3">
-        <v>-17800</v>
+        <v>47700</v>
       </c>
       <c r="I23" s="3">
-        <v>12200</v>
+        <v>-16500</v>
       </c>
       <c r="J23" s="3">
+        <v>11300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>10200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-19000</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-32700</v>
+        <v>133400</v>
       </c>
       <c r="E24" s="3">
-        <v>133500</v>
+        <v>-45900</v>
       </c>
       <c r="F24" s="3">
-        <v>26500</v>
+        <v>123900</v>
       </c>
       <c r="G24" s="3">
-        <v>4700</v>
+        <v>24600</v>
       </c>
       <c r="H24" s="3">
-        <v>-6800</v>
+        <v>4400</v>
       </c>
       <c r="I24" s="3">
-        <v>1700</v>
+        <v>-6300</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4000</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-162600</v>
+        <v>-182100</v>
       </c>
       <c r="E26" s="3">
-        <v>151800</v>
+        <v>-227800</v>
       </c>
       <c r="F26" s="3">
-        <v>60700</v>
+        <v>140900</v>
       </c>
       <c r="G26" s="3">
-        <v>46700</v>
+        <v>56400</v>
       </c>
       <c r="H26" s="3">
-        <v>-10900</v>
+        <v>43300</v>
       </c>
       <c r="I26" s="3">
-        <v>10500</v>
+        <v>-10100</v>
       </c>
       <c r="J26" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-7200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>10700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-4000</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-162600</v>
+        <v>-182100</v>
       </c>
       <c r="E27" s="3">
-        <v>151800</v>
+        <v>-227800</v>
       </c>
       <c r="F27" s="3">
-        <v>60700</v>
+        <v>140900</v>
       </c>
       <c r="G27" s="3">
-        <v>46700</v>
+        <v>56400</v>
       </c>
       <c r="H27" s="3">
-        <v>-10900</v>
+        <v>43300</v>
       </c>
       <c r="I27" s="3">
-        <v>10500</v>
+        <v>-10100</v>
       </c>
       <c r="J27" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K27" s="3">
         <v>-7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>10700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-1200</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-3700</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16800</v>
+        <v>-28800</v>
       </c>
       <c r="E32" s="3">
-        <v>-272800</v>
+        <v>-23500</v>
       </c>
       <c r="F32" s="3">
-        <v>60500</v>
+        <v>-253200</v>
       </c>
       <c r="G32" s="3">
-        <v>13500</v>
+        <v>56200</v>
       </c>
       <c r="H32" s="3">
-        <v>7900</v>
+        <v>12500</v>
       </c>
       <c r="I32" s="3">
-        <v>6300</v>
+        <v>7400</v>
       </c>
       <c r="J32" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2000</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-162600</v>
+        <v>-182100</v>
       </c>
       <c r="E33" s="3">
-        <v>151800</v>
+        <v>-227800</v>
       </c>
       <c r="F33" s="3">
-        <v>60700</v>
+        <v>140900</v>
       </c>
       <c r="G33" s="3">
-        <v>46700</v>
+        <v>56400</v>
       </c>
       <c r="H33" s="3">
-        <v>-10900</v>
+        <v>43300</v>
       </c>
       <c r="I33" s="3">
-        <v>10500</v>
+        <v>-10100</v>
       </c>
       <c r="J33" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K33" s="3">
         <v>-7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3800</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-162600</v>
+        <v>-182100</v>
       </c>
       <c r="E35" s="3">
-        <v>151800</v>
+        <v>-227800</v>
       </c>
       <c r="F35" s="3">
-        <v>60700</v>
+        <v>140900</v>
       </c>
       <c r="G35" s="3">
-        <v>46700</v>
+        <v>56400</v>
       </c>
       <c r="H35" s="3">
-        <v>-10900</v>
+        <v>43300</v>
       </c>
       <c r="I35" s="3">
-        <v>10500</v>
+        <v>-10100</v>
       </c>
       <c r="J35" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K35" s="3">
         <v>-7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3800</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,296 +1817,321 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>54900</v>
+        <v>83200</v>
       </c>
       <c r="E41" s="3">
-        <v>40000</v>
+        <v>56100</v>
       </c>
       <c r="F41" s="3">
-        <v>1700</v>
+        <v>37200</v>
       </c>
       <c r="G41" s="3">
-        <v>23600</v>
+        <v>1600</v>
       </c>
       <c r="H41" s="3">
-        <v>17100</v>
+        <v>21900</v>
       </c>
       <c r="I41" s="3">
-        <v>12300</v>
+        <v>15900</v>
       </c>
       <c r="J41" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K41" s="3">
         <v>3800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>4300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>2400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3400</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>28900</v>
+        <v>77800</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>29600</v>
       </c>
       <c r="F42" s="3">
-        <v>63500</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>17000</v>
+        <v>59000</v>
       </c>
       <c r="H42" s="3">
-        <v>3600</v>
+        <v>15800</v>
       </c>
       <c r="I42" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="J42" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K42" s="3">
         <v>200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>1400</v>
-      </c>
-      <c r="L42" s="3">
-        <v>100</v>
       </c>
       <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>100</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>183000</v>
+        <v>164700</v>
       </c>
       <c r="E43" s="3">
-        <v>158100</v>
+        <v>187200</v>
       </c>
       <c r="F43" s="3">
-        <v>109300</v>
+        <v>146800</v>
       </c>
       <c r="G43" s="3">
-        <v>79200</v>
+        <v>101500</v>
       </c>
       <c r="H43" s="3">
-        <v>37200</v>
+        <v>73500</v>
       </c>
       <c r="I43" s="3">
-        <v>18400</v>
+        <v>34600</v>
       </c>
       <c r="J43" s="3">
+        <v>17100</v>
+      </c>
+      <c r="K43" s="3">
         <v>10200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>15900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>32900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>28600</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23600</v>
+        <v>29400</v>
       </c>
       <c r="E44" s="3">
-        <v>45900</v>
+        <v>24100</v>
       </c>
       <c r="F44" s="3">
-        <v>33700</v>
+        <v>42600</v>
       </c>
       <c r="G44" s="3">
-        <v>6000</v>
+        <v>31300</v>
       </c>
       <c r="H44" s="3">
-        <v>2600</v>
+        <v>5500</v>
       </c>
       <c r="I44" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J44" s="3">
         <v>1200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2900</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
-        <v>1400</v>
+        <v>3000</v>
       </c>
       <c r="F45" s="3">
-        <v>1900</v>
+        <v>1300</v>
       </c>
       <c r="G45" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H45" s="3">
         <v>500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>400</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>8300</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>293400</v>
+        <v>358300</v>
       </c>
       <c r="E46" s="3">
-        <v>223600</v>
+        <v>300000</v>
       </c>
       <c r="F46" s="3">
-        <v>193700</v>
+        <v>207600</v>
       </c>
       <c r="G46" s="3">
-        <v>126300</v>
+        <v>179800</v>
       </c>
       <c r="H46" s="3">
-        <v>60900</v>
+        <v>117300</v>
       </c>
       <c r="I46" s="3">
-        <v>35500</v>
+        <v>56500</v>
       </c>
       <c r="J46" s="3">
+        <v>33000</v>
+      </c>
+      <c r="K46" s="3">
         <v>15100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>23100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>20800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>21900</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>23500</v>
+        <v>200</v>
       </c>
       <c r="E47" s="3">
+        <v>22800</v>
+      </c>
+      <c r="F47" s="3">
         <v>500</v>
       </c>
-      <c r="F47" s="3">
-        <v>11400</v>
-      </c>
       <c r="G47" s="3">
-        <v>700</v>
+        <v>10600</v>
       </c>
       <c r="H47" s="3">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="I47" s="3">
-        <v>1600</v>
+        <v>800</v>
       </c>
       <c r="J47" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K47" s="3">
         <v>2300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>1200</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1575800</v>
+        <v>1670200</v>
       </c>
       <c r="E48" s="3">
-        <v>1270500</v>
+        <v>1610700</v>
       </c>
       <c r="F48" s="3">
-        <v>882900</v>
+        <v>1179300</v>
       </c>
       <c r="G48" s="3">
-        <v>524400</v>
+        <v>819500</v>
       </c>
       <c r="H48" s="3">
-        <v>102900</v>
+        <v>486700</v>
       </c>
       <c r="I48" s="3">
-        <v>81700</v>
+        <v>95500</v>
       </c>
       <c r="J48" s="3">
+        <v>75800</v>
+      </c>
+      <c r="K48" s="3">
         <v>61100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>64000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>194700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>230700</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2050,14 +2160,17 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>23000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>33900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,9 +2243,12 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2142,30 +2261,33 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
-        <v>10900</v>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>9400</v>
+        <v>10100</v>
       </c>
       <c r="I52" s="3">
-        <v>500</v>
+        <v>8700</v>
       </c>
       <c r="J52" s="3">
+        <v>400</v>
+      </c>
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
         <v>7000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>35800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1872800</v>
+        <v>2028600</v>
       </c>
       <c r="E54" s="3">
-        <v>1494600</v>
+        <v>1915100</v>
       </c>
       <c r="F54" s="3">
-        <v>1088000</v>
+        <v>1387300</v>
       </c>
       <c r="G54" s="3">
-        <v>651400</v>
+        <v>1009900</v>
       </c>
       <c r="H54" s="3">
-        <v>174000</v>
+        <v>604600</v>
       </c>
       <c r="I54" s="3">
-        <v>119300</v>
+        <v>161500</v>
       </c>
       <c r="J54" s="3">
+        <v>110700</v>
+      </c>
+      <c r="K54" s="3">
         <v>79300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>89600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>113600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>183600</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>415600</v>
+        <v>649800</v>
       </c>
       <c r="E57" s="3">
-        <v>158900</v>
+        <v>425000</v>
       </c>
       <c r="F57" s="3">
-        <v>206400</v>
+        <v>147500</v>
       </c>
       <c r="G57" s="3">
-        <v>124800</v>
+        <v>191600</v>
       </c>
       <c r="H57" s="3">
-        <v>62700</v>
+        <v>115800</v>
       </c>
       <c r="I57" s="3">
-        <v>41100</v>
+        <v>58200</v>
       </c>
       <c r="J57" s="3">
+        <v>38200</v>
+      </c>
+      <c r="K57" s="3">
         <v>30300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>37600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>11600</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5500</v>
+        <v>89800</v>
       </c>
       <c r="E58" s="3">
-        <v>22400</v>
+        <v>3700</v>
       </c>
       <c r="F58" s="3">
-        <v>15200</v>
+        <v>20800</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>14100</v>
       </c>
       <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>3400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3100</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>109600</v>
+        <v>92200</v>
       </c>
       <c r="E59" s="3">
-        <v>126200</v>
+        <v>114100</v>
       </c>
       <c r="F59" s="3">
-        <v>74800</v>
+        <v>117200</v>
       </c>
       <c r="G59" s="3">
-        <v>44400</v>
+        <v>69400</v>
       </c>
       <c r="H59" s="3">
-        <v>24700</v>
+        <v>41200</v>
       </c>
       <c r="I59" s="3">
-        <v>10600</v>
+        <v>22900</v>
       </c>
       <c r="J59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="K59" s="3">
         <v>9200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>29000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>24000</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>530700</v>
+        <v>831800</v>
       </c>
       <c r="E60" s="3">
-        <v>307500</v>
+        <v>542700</v>
       </c>
       <c r="F60" s="3">
-        <v>296400</v>
+        <v>285400</v>
       </c>
       <c r="G60" s="3">
-        <v>170200</v>
+        <v>275100</v>
       </c>
       <c r="H60" s="3">
-        <v>87900</v>
+        <v>158000</v>
       </c>
       <c r="I60" s="3">
-        <v>52200</v>
+        <v>81600</v>
       </c>
       <c r="J60" s="3">
+        <v>48400</v>
+      </c>
+      <c r="K60" s="3">
         <v>39800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>40500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>35100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>32900</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>104000</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>102600</v>
+        <v>106300</v>
       </c>
       <c r="F61" s="3">
-        <v>101600</v>
+        <v>95200</v>
       </c>
       <c r="G61" s="3">
-        <v>56900</v>
+        <v>94300</v>
       </c>
       <c r="H61" s="3">
-        <v>25500</v>
+        <v>52800</v>
       </c>
       <c r="I61" s="3">
-        <v>22600</v>
+        <v>23600</v>
       </c>
       <c r="J61" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K61" s="3">
         <v>14700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>16200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>22300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>31200</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>446500</v>
+        <v>568200</v>
       </c>
       <c r="E62" s="3">
-        <v>344500</v>
+        <v>456500</v>
       </c>
       <c r="F62" s="3">
-        <v>252300</v>
+        <v>319800</v>
       </c>
       <c r="G62" s="3">
-        <v>168900</v>
+        <v>234200</v>
       </c>
       <c r="H62" s="3">
-        <v>57300</v>
+        <v>156800</v>
       </c>
       <c r="I62" s="3">
-        <v>30500</v>
+        <v>53200</v>
       </c>
       <c r="J62" s="3">
+        <v>28300</v>
+      </c>
+      <c r="K62" s="3">
         <v>21300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>18400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>47100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>60100</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1081200</v>
+        <v>1400000</v>
       </c>
       <c r="E66" s="3">
-        <v>754600</v>
+        <v>1105600</v>
       </c>
       <c r="F66" s="3">
-        <v>650400</v>
+        <v>700400</v>
       </c>
       <c r="G66" s="3">
-        <v>396000</v>
+        <v>603600</v>
       </c>
       <c r="H66" s="3">
-        <v>170700</v>
+        <v>367500</v>
       </c>
       <c r="I66" s="3">
-        <v>105300</v>
+        <v>158400</v>
       </c>
       <c r="J66" s="3">
+        <v>97700</v>
+      </c>
+      <c r="K66" s="3">
         <v>75800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>106700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>146100</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>347100</v>
+        <v>172800</v>
       </c>
       <c r="E72" s="3">
-        <v>416000</v>
+        <v>354900</v>
       </c>
       <c r="F72" s="3">
-        <v>194100</v>
+        <v>386200</v>
       </c>
       <c r="G72" s="3">
-        <v>87300</v>
+        <v>180200</v>
       </c>
       <c r="H72" s="3">
-        <v>-8400</v>
+        <v>81000</v>
       </c>
       <c r="I72" s="3">
-        <v>2300</v>
+        <v>-7800</v>
       </c>
       <c r="J72" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-14600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12400</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>791700</v>
+        <v>628600</v>
       </c>
       <c r="E76" s="3">
-        <v>740000</v>
+        <v>809500</v>
       </c>
       <c r="F76" s="3">
-        <v>437600</v>
+        <v>686800</v>
       </c>
       <c r="G76" s="3">
-        <v>255400</v>
+        <v>406200</v>
       </c>
       <c r="H76" s="3">
-        <v>3300</v>
+        <v>237100</v>
       </c>
       <c r="I76" s="3">
-        <v>14000</v>
+        <v>3100</v>
       </c>
       <c r="J76" s="3">
+        <v>13000</v>
+      </c>
+      <c r="K76" s="3">
         <v>3500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>14500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>37500</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-162600</v>
+        <v>-182100</v>
       </c>
       <c r="E81" s="3">
-        <v>151800</v>
+        <v>-227800</v>
       </c>
       <c r="F81" s="3">
-        <v>60700</v>
+        <v>140900</v>
       </c>
       <c r="G81" s="3">
-        <v>46700</v>
+        <v>56400</v>
       </c>
       <c r="H81" s="3">
-        <v>-10900</v>
+        <v>43300</v>
       </c>
       <c r="I81" s="3">
-        <v>10500</v>
+        <v>-10100</v>
       </c>
       <c r="J81" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K81" s="3">
         <v>-7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3800</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>62700</v>
+        <v>81500</v>
       </c>
       <c r="E83" s="3">
-        <v>59900</v>
+        <v>87800</v>
       </c>
       <c r="F83" s="3">
-        <v>36200</v>
+        <v>55600</v>
       </c>
       <c r="G83" s="3">
-        <v>19700</v>
+        <v>33600</v>
       </c>
       <c r="H83" s="3">
-        <v>3200</v>
+        <v>18300</v>
       </c>
       <c r="I83" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J83" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="L83" s="3">
         <v>2600</v>
       </c>
-      <c r="J83" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>3600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>161200</v>
+        <v>182100</v>
       </c>
       <c r="E89" s="3">
-        <v>127100</v>
+        <v>227700</v>
       </c>
       <c r="F89" s="3">
-        <v>147700</v>
+        <v>117900</v>
       </c>
       <c r="G89" s="3">
-        <v>67800</v>
+        <v>137100</v>
       </c>
       <c r="H89" s="3">
-        <v>26900</v>
+        <v>63000</v>
       </c>
       <c r="I89" s="3">
-        <v>27600</v>
+        <v>25000</v>
       </c>
       <c r="J89" s="3">
+        <v>25600</v>
+      </c>
+      <c r="K89" s="3">
         <v>14200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>17900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>9400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>17300</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-90500</v>
+        <v>-125600</v>
       </c>
       <c r="E91" s="3">
-        <v>-117200</v>
+        <v>-126700</v>
       </c>
       <c r="F91" s="3">
-        <v>-120800</v>
+        <v>-108800</v>
       </c>
       <c r="G91" s="3">
-        <v>-72600</v>
+        <v>-112100</v>
       </c>
       <c r="H91" s="3">
-        <v>-22700</v>
+        <v>-67400</v>
       </c>
       <c r="I91" s="3">
-        <v>-19300</v>
+        <v>-21100</v>
       </c>
       <c r="J91" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-12900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-25600</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-66300</v>
+        <v>-217900</v>
       </c>
       <c r="E94" s="3">
-        <v>-64500</v>
+        <v>-160300</v>
       </c>
       <c r="F94" s="3">
-        <v>-121700</v>
+        <v>-59900</v>
       </c>
       <c r="G94" s="3">
-        <v>-78200</v>
+        <v>-112900</v>
       </c>
       <c r="H94" s="3">
-        <v>-21800</v>
+        <v>-72600</v>
       </c>
       <c r="I94" s="3">
-        <v>-28500</v>
+        <v>-20200</v>
       </c>
       <c r="J94" s="3">
+        <v>-26500</v>
+      </c>
+      <c r="K94" s="3">
         <v>-13400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-9800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-20800</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,8 +3757,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3555,14 +3788,17 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
         <v>-100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-1000</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-56500</v>
+        <v>-12300</v>
       </c>
       <c r="E100" s="3">
-        <v>-63500</v>
+        <v>-79200</v>
       </c>
       <c r="F100" s="3">
-        <v>-29600</v>
+        <v>-58900</v>
       </c>
       <c r="G100" s="3">
-        <v>8000</v>
+        <v>-27500</v>
       </c>
       <c r="H100" s="3">
-        <v>-4500</v>
+        <v>7400</v>
       </c>
       <c r="I100" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-2200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>400</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-3300</v>
+        <v>19000</v>
       </c>
       <c r="E101" s="3">
-        <v>5500</v>
+        <v>11800</v>
       </c>
       <c r="F101" s="3">
-        <v>2200</v>
+        <v>5100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="H101" s="3">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>500</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L101" s="3">
         <v>100</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="M101" s="3">
+        <v>100</v>
+      </c>
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>35000</v>
+        <v>-29100</v>
       </c>
       <c r="E102" s="3">
-        <v>4600</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>-1300</v>
+        <v>4300</v>
       </c>
       <c r="G102" s="3">
-        <v>-2400</v>
+        <v>-1200</v>
       </c>
       <c r="H102" s="3">
-        <v>1200</v>
+        <v>-2200</v>
       </c>
       <c r="I102" s="3">
-        <v>-500</v>
+        <v>1100</v>
       </c>
       <c r="J102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K102" s="3">
         <v>-600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>2100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-3000</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>968200</v>
+        <v>826300</v>
       </c>
       <c r="E8" s="3">
-        <v>1175300</v>
+        <v>1003100</v>
       </c>
       <c r="F8" s="3">
-        <v>1044400</v>
+        <v>891300</v>
       </c>
       <c r="G8" s="3">
-        <v>733900</v>
+        <v>626400</v>
       </c>
       <c r="H8" s="3">
-        <v>337800</v>
+        <v>288300</v>
       </c>
       <c r="I8" s="3">
-        <v>111600</v>
+        <v>95200</v>
       </c>
       <c r="J8" s="3">
-        <v>32400</v>
+        <v>27700</v>
       </c>
       <c r="K8" s="3">
         <v>33100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>595400</v>
+        <v>508100</v>
       </c>
       <c r="E9" s="3">
-        <v>745600</v>
+        <v>636300</v>
       </c>
       <c r="F9" s="3">
-        <v>662300</v>
+        <v>565300</v>
       </c>
       <c r="G9" s="3">
-        <v>418100</v>
+        <v>356800</v>
       </c>
       <c r="H9" s="3">
-        <v>177600</v>
+        <v>151600</v>
       </c>
       <c r="I9" s="3">
-        <v>51700</v>
+        <v>44100</v>
       </c>
       <c r="J9" s="3">
-        <v>17200</v>
+        <v>14700</v>
       </c>
       <c r="K9" s="3">
         <v>17300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>372800</v>
+        <v>318100</v>
       </c>
       <c r="E10" s="3">
-        <v>429700</v>
+        <v>366700</v>
       </c>
       <c r="F10" s="3">
-        <v>382000</v>
+        <v>326100</v>
       </c>
       <c r="G10" s="3">
-        <v>315800</v>
+        <v>269500</v>
       </c>
       <c r="H10" s="3">
-        <v>160200</v>
+        <v>136700</v>
       </c>
       <c r="I10" s="3">
-        <v>59900</v>
+        <v>51100</v>
       </c>
       <c r="J10" s="3">
-        <v>15200</v>
+        <v>13000</v>
       </c>
       <c r="K10" s="3">
         <v>15800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="3">
-        <v>225800</v>
+        <v>192700</v>
       </c>
       <c r="F14" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G14" s="3">
-        <v>-109300</v>
+        <v>-93300</v>
       </c>
       <c r="H14" s="3">
-        <v>-46500</v>
+        <v>-39700</v>
       </c>
       <c r="I14" s="3">
-        <v>-13500</v>
+        <v>-11500</v>
       </c>
       <c r="J14" s="3">
-        <v>-47500</v>
+        <v>-40600</v>
       </c>
       <c r="K14" s="3">
         <v>-20900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>81500</v>
+        <v>69600</v>
       </c>
       <c r="E15" s="3">
-        <v>87800</v>
+        <v>74900</v>
       </c>
       <c r="F15" s="3">
-        <v>55600</v>
+        <v>47500</v>
       </c>
       <c r="G15" s="3">
-        <v>33600</v>
+        <v>28700</v>
       </c>
       <c r="H15" s="3">
-        <v>18300</v>
+        <v>15600</v>
       </c>
       <c r="I15" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="J15" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1005700</v>
+        <v>858300</v>
       </c>
       <c r="E17" s="3">
-        <v>1431600</v>
+        <v>1221800</v>
       </c>
       <c r="F17" s="3">
-        <v>989200</v>
+        <v>844300</v>
       </c>
       <c r="G17" s="3">
-        <v>570700</v>
+        <v>487100</v>
       </c>
       <c r="H17" s="3">
-        <v>270600</v>
+        <v>231000</v>
       </c>
       <c r="I17" s="3">
-        <v>117200</v>
+        <v>100000</v>
       </c>
       <c r="J17" s="3">
-        <v>13300</v>
+        <v>11400</v>
       </c>
       <c r="K17" s="3">
         <v>35400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-37500</v>
+        <v>-32000</v>
       </c>
       <c r="E18" s="3">
-        <v>-256300</v>
+        <v>-218800</v>
       </c>
       <c r="F18" s="3">
-        <v>55100</v>
+        <v>47100</v>
       </c>
       <c r="G18" s="3">
-        <v>163200</v>
+        <v>139300</v>
       </c>
       <c r="H18" s="3">
-        <v>67200</v>
+        <v>57300</v>
       </c>
       <c r="I18" s="3">
-        <v>-5600</v>
+        <v>-4800</v>
       </c>
       <c r="J18" s="3">
-        <v>19100</v>
+        <v>16300</v>
       </c>
       <c r="K18" s="3">
         <v>-2300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>28800</v>
+        <v>24600</v>
       </c>
       <c r="E20" s="3">
-        <v>23500</v>
+        <v>20000</v>
       </c>
       <c r="F20" s="3">
-        <v>253200</v>
+        <v>216100</v>
       </c>
       <c r="G20" s="3">
-        <v>-56200</v>
+        <v>-47900</v>
       </c>
       <c r="H20" s="3">
-        <v>-12500</v>
+        <v>-10700</v>
       </c>
       <c r="I20" s="3">
-        <v>-7400</v>
+        <v>-6300</v>
       </c>
       <c r="J20" s="3">
-        <v>-5800</v>
+        <v>-5000</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>72900</v>
+        <v>62300</v>
       </c>
       <c r="E21" s="3">
-        <v>-145000</v>
+        <v>-123700</v>
       </c>
       <c r="F21" s="3">
-        <v>364100</v>
+        <v>310700</v>
       </c>
       <c r="G21" s="3">
-        <v>140700</v>
+        <v>120100</v>
       </c>
       <c r="H21" s="3">
-        <v>73000</v>
+        <v>62300</v>
       </c>
       <c r="I21" s="3">
-        <v>-10000</v>
+        <v>-8500</v>
       </c>
       <c r="J21" s="3">
-        <v>15700</v>
+        <v>13400</v>
       </c>
       <c r="K21" s="3">
         <v>-1100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>40000</v>
+        <v>34100</v>
       </c>
       <c r="E22" s="3">
-        <v>40800</v>
+        <v>34800</v>
       </c>
       <c r="F22" s="3">
-        <v>43600</v>
+        <v>37200</v>
       </c>
       <c r="G22" s="3">
-        <v>26100</v>
+        <v>22200</v>
       </c>
       <c r="H22" s="3">
-        <v>7000</v>
+        <v>6000</v>
       </c>
       <c r="I22" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="J22" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="K22" s="3">
         <v>5300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-48700</v>
+        <v>-41600</v>
       </c>
       <c r="E23" s="3">
-        <v>-273600</v>
+        <v>-233500</v>
       </c>
       <c r="F23" s="3">
-        <v>264800</v>
+        <v>226000</v>
       </c>
       <c r="G23" s="3">
-        <v>81000</v>
+        <v>69100</v>
       </c>
       <c r="H23" s="3">
-        <v>47700</v>
+        <v>40700</v>
       </c>
       <c r="I23" s="3">
-        <v>-16500</v>
+        <v>-14100</v>
       </c>
       <c r="J23" s="3">
-        <v>11300</v>
+        <v>9700</v>
       </c>
       <c r="K23" s="3">
         <v>-8600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>133400</v>
+        <v>113800</v>
       </c>
       <c r="E24" s="3">
-        <v>-45900</v>
+        <v>-39100</v>
       </c>
       <c r="F24" s="3">
-        <v>123900</v>
+        <v>105800</v>
       </c>
       <c r="G24" s="3">
-        <v>24600</v>
+        <v>21000</v>
       </c>
       <c r="H24" s="3">
-        <v>4400</v>
+        <v>3700</v>
       </c>
       <c r="I24" s="3">
-        <v>-6300</v>
+        <v>-5400</v>
       </c>
       <c r="J24" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="K24" s="3">
         <v>-1400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-182100</v>
+        <v>-155400</v>
       </c>
       <c r="E26" s="3">
-        <v>-227800</v>
+        <v>-194400</v>
       </c>
       <c r="F26" s="3">
-        <v>140900</v>
+        <v>120300</v>
       </c>
       <c r="G26" s="3">
-        <v>56400</v>
+        <v>48100</v>
       </c>
       <c r="H26" s="3">
-        <v>43300</v>
+        <v>37000</v>
       </c>
       <c r="I26" s="3">
-        <v>-10100</v>
+        <v>-8700</v>
       </c>
       <c r="J26" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="K26" s="3">
         <v>-7200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-182100</v>
+        <v>-155400</v>
       </c>
       <c r="E27" s="3">
-        <v>-227800</v>
+        <v>-194400</v>
       </c>
       <c r="F27" s="3">
-        <v>140900</v>
+        <v>120300</v>
       </c>
       <c r="G27" s="3">
-        <v>56400</v>
+        <v>48100</v>
       </c>
       <c r="H27" s="3">
-        <v>43300</v>
+        <v>37000</v>
       </c>
       <c r="I27" s="3">
-        <v>-10100</v>
+        <v>-8700</v>
       </c>
       <c r="J27" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="K27" s="3">
         <v>-7200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-28800</v>
+        <v>-24600</v>
       </c>
       <c r="E32" s="3">
-        <v>-23500</v>
+        <v>-20000</v>
       </c>
       <c r="F32" s="3">
-        <v>-253200</v>
+        <v>-216100</v>
       </c>
       <c r="G32" s="3">
-        <v>56200</v>
+        <v>47900</v>
       </c>
       <c r="H32" s="3">
-        <v>12500</v>
+        <v>10700</v>
       </c>
       <c r="I32" s="3">
-        <v>7400</v>
+        <v>6300</v>
       </c>
       <c r="J32" s="3">
-        <v>5800</v>
+        <v>5000</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-182100</v>
+        <v>-155400</v>
       </c>
       <c r="E33" s="3">
-        <v>-227800</v>
+        <v>-194400</v>
       </c>
       <c r="F33" s="3">
-        <v>140900</v>
+        <v>120300</v>
       </c>
       <c r="G33" s="3">
-        <v>56400</v>
+        <v>48100</v>
       </c>
       <c r="H33" s="3">
-        <v>43300</v>
+        <v>37000</v>
       </c>
       <c r="I33" s="3">
-        <v>-10100</v>
+        <v>-8700</v>
       </c>
       <c r="J33" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="K33" s="3">
         <v>-7200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-182100</v>
+        <v>-155400</v>
       </c>
       <c r="E35" s="3">
-        <v>-227800</v>
+        <v>-194400</v>
       </c>
       <c r="F35" s="3">
-        <v>140900</v>
+        <v>120300</v>
       </c>
       <c r="G35" s="3">
-        <v>56400</v>
+        <v>48100</v>
       </c>
       <c r="H35" s="3">
-        <v>43300</v>
+        <v>37000</v>
       </c>
       <c r="I35" s="3">
-        <v>-10100</v>
+        <v>-8700</v>
       </c>
       <c r="J35" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="K35" s="3">
         <v>-7200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>83200</v>
+        <v>82400</v>
       </c>
       <c r="E41" s="3">
-        <v>56100</v>
+        <v>47900</v>
       </c>
       <c r="F41" s="3">
-        <v>37200</v>
+        <v>31700</v>
       </c>
       <c r="G41" s="3">
-        <v>1600</v>
+        <v>1400</v>
       </c>
       <c r="H41" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="I41" s="3">
-        <v>15900</v>
+        <v>13600</v>
       </c>
       <c r="J41" s="3">
-        <v>11500</v>
+        <v>9800</v>
       </c>
       <c r="K41" s="3">
         <v>3800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77800</v>
+        <v>77000</v>
       </c>
       <c r="E42" s="3">
-        <v>29600</v>
+        <v>25300</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>59000</v>
+        <v>50300</v>
       </c>
       <c r="H42" s="3">
-        <v>15800</v>
+        <v>13400</v>
       </c>
       <c r="I42" s="3">
-        <v>3300</v>
+        <v>2800</v>
       </c>
       <c r="J42" s="3">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164700</v>
+        <v>163300</v>
       </c>
       <c r="E43" s="3">
-        <v>187200</v>
+        <v>159700</v>
       </c>
       <c r="F43" s="3">
-        <v>146800</v>
+        <v>125300</v>
       </c>
       <c r="G43" s="3">
-        <v>101500</v>
+        <v>86600</v>
       </c>
       <c r="H43" s="3">
-        <v>73500</v>
+        <v>62800</v>
       </c>
       <c r="I43" s="3">
-        <v>34600</v>
+        <v>29500</v>
       </c>
       <c r="J43" s="3">
-        <v>17100</v>
+        <v>14600</v>
       </c>
       <c r="K43" s="3">
         <v>10200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="E44" s="3">
-        <v>24100</v>
+        <v>20600</v>
       </c>
       <c r="F44" s="3">
-        <v>42600</v>
+        <v>36300</v>
       </c>
       <c r="G44" s="3">
-        <v>31300</v>
+        <v>26700</v>
       </c>
       <c r="H44" s="3">
-        <v>5500</v>
+        <v>4700</v>
       </c>
       <c r="I44" s="3">
-        <v>2500</v>
+        <v>2100</v>
       </c>
       <c r="J44" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="E45" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="F45" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H45" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
-      </c>
-      <c r="J45" s="3">
-        <v>400</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>358300</v>
+        <v>355000</v>
       </c>
       <c r="E46" s="3">
-        <v>300000</v>
+        <v>256000</v>
       </c>
       <c r="F46" s="3">
-        <v>207600</v>
+        <v>177200</v>
       </c>
       <c r="G46" s="3">
-        <v>179800</v>
+        <v>153400</v>
       </c>
       <c r="H46" s="3">
-        <v>117300</v>
+        <v>100100</v>
       </c>
       <c r="I46" s="3">
-        <v>56500</v>
+        <v>48200</v>
       </c>
       <c r="J46" s="3">
-        <v>33000</v>
+        <v>28200</v>
       </c>
       <c r="K46" s="3">
         <v>15100</v>
@@ -2061,22 +2061,22 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>22800</v>
+        <v>19500</v>
       </c>
       <c r="F47" s="3">
+        <v>400</v>
+      </c>
+      <c r="G47" s="3">
+        <v>9100</v>
+      </c>
+      <c r="H47" s="3">
         <v>500</v>
       </c>
-      <c r="G47" s="3">
-        <v>10600</v>
-      </c>
-      <c r="H47" s="3">
-        <v>600</v>
-      </c>
       <c r="I47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J47" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="K47" s="3">
         <v>2300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1670200</v>
+        <v>1654900</v>
       </c>
       <c r="E48" s="3">
-        <v>1610700</v>
+        <v>1374600</v>
       </c>
       <c r="F48" s="3">
-        <v>1179300</v>
+        <v>1006500</v>
       </c>
       <c r="G48" s="3">
-        <v>819500</v>
+        <v>699400</v>
       </c>
       <c r="H48" s="3">
-        <v>486700</v>
+        <v>415400</v>
       </c>
       <c r="I48" s="3">
-        <v>95500</v>
+        <v>81500</v>
       </c>
       <c r="J48" s="3">
-        <v>75800</v>
+        <v>64700</v>
       </c>
       <c r="K48" s="3">
         <v>61100</v>
@@ -2265,10 +2265,10 @@
         <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>10100</v>
+        <v>8600</v>
       </c>
       <c r="I52" s="3">
-        <v>8700</v>
+        <v>7400</v>
       </c>
       <c r="J52" s="3">
         <v>400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2028600</v>
+        <v>2010100</v>
       </c>
       <c r="E54" s="3">
-        <v>1915100</v>
+        <v>1634400</v>
       </c>
       <c r="F54" s="3">
-        <v>1387300</v>
+        <v>1184000</v>
       </c>
       <c r="G54" s="3">
-        <v>1009900</v>
+        <v>861900</v>
       </c>
       <c r="H54" s="3">
-        <v>604600</v>
+        <v>516000</v>
       </c>
       <c r="I54" s="3">
-        <v>161500</v>
+        <v>137800</v>
       </c>
       <c r="J54" s="3">
-        <v>110700</v>
+        <v>94500</v>
       </c>
       <c r="K54" s="3">
         <v>79300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>649800</v>
+        <v>643800</v>
       </c>
       <c r="E57" s="3">
-        <v>425000</v>
+        <v>362700</v>
       </c>
       <c r="F57" s="3">
-        <v>147500</v>
+        <v>125900</v>
       </c>
       <c r="G57" s="3">
-        <v>191600</v>
+        <v>163500</v>
       </c>
       <c r="H57" s="3">
-        <v>115800</v>
+        <v>98800</v>
       </c>
       <c r="I57" s="3">
-        <v>58200</v>
+        <v>49700</v>
       </c>
       <c r="J57" s="3">
-        <v>38200</v>
+        <v>32600</v>
       </c>
       <c r="K57" s="3">
         <v>30300</v>
@@ -2443,22 +2443,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>89800</v>
+        <v>89000</v>
       </c>
       <c r="E58" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="F58" s="3">
-        <v>20800</v>
+        <v>17800</v>
       </c>
       <c r="G58" s="3">
-        <v>14100</v>
+        <v>12100</v>
       </c>
       <c r="H58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J58" s="3">
         <v>400</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>92200</v>
+        <v>91400</v>
       </c>
       <c r="E59" s="3">
-        <v>114100</v>
+        <v>97300</v>
       </c>
       <c r="F59" s="3">
-        <v>117200</v>
+        <v>100000</v>
       </c>
       <c r="G59" s="3">
-        <v>69400</v>
+        <v>59200</v>
       </c>
       <c r="H59" s="3">
-        <v>41200</v>
+        <v>35200</v>
       </c>
       <c r="I59" s="3">
-        <v>22900</v>
+        <v>19600</v>
       </c>
       <c r="J59" s="3">
-        <v>9800</v>
+        <v>8400</v>
       </c>
       <c r="K59" s="3">
         <v>9200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>831800</v>
+        <v>824200</v>
       </c>
       <c r="E60" s="3">
-        <v>542700</v>
+        <v>463200</v>
       </c>
       <c r="F60" s="3">
-        <v>285400</v>
+        <v>243600</v>
       </c>
       <c r="G60" s="3">
-        <v>275100</v>
+        <v>234800</v>
       </c>
       <c r="H60" s="3">
-        <v>158000</v>
+        <v>134800</v>
       </c>
       <c r="I60" s="3">
-        <v>81600</v>
+        <v>69600</v>
       </c>
       <c r="J60" s="3">
-        <v>48400</v>
+        <v>41300</v>
       </c>
       <c r="K60" s="3">
         <v>39800</v>
@@ -2563,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>106300</v>
+        <v>90700</v>
       </c>
       <c r="F61" s="3">
-        <v>95200</v>
+        <v>81200</v>
       </c>
       <c r="G61" s="3">
-        <v>94300</v>
+        <v>80500</v>
       </c>
       <c r="H61" s="3">
-        <v>52800</v>
+        <v>45100</v>
       </c>
       <c r="I61" s="3">
-        <v>23600</v>
+        <v>20200</v>
       </c>
       <c r="J61" s="3">
-        <v>21000</v>
+        <v>17900</v>
       </c>
       <c r="K61" s="3">
         <v>14700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>568200</v>
+        <v>563000</v>
       </c>
       <c r="E62" s="3">
-        <v>456500</v>
+        <v>389600</v>
       </c>
       <c r="F62" s="3">
-        <v>319800</v>
+        <v>272900</v>
       </c>
       <c r="G62" s="3">
-        <v>234200</v>
+        <v>199800</v>
       </c>
       <c r="H62" s="3">
-        <v>156800</v>
+        <v>133800</v>
       </c>
       <c r="I62" s="3">
-        <v>53200</v>
+        <v>45400</v>
       </c>
       <c r="J62" s="3">
-        <v>28300</v>
+        <v>24100</v>
       </c>
       <c r="K62" s="3">
         <v>21300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1400000</v>
+        <v>1387200</v>
       </c>
       <c r="E66" s="3">
-        <v>1105600</v>
+        <v>943500</v>
       </c>
       <c r="F66" s="3">
-        <v>700400</v>
+        <v>597800</v>
       </c>
       <c r="G66" s="3">
-        <v>603600</v>
+        <v>515200</v>
       </c>
       <c r="H66" s="3">
-        <v>367500</v>
+        <v>313700</v>
       </c>
       <c r="I66" s="3">
-        <v>158400</v>
+        <v>135200</v>
       </c>
       <c r="J66" s="3">
-        <v>97700</v>
+        <v>83400</v>
       </c>
       <c r="K66" s="3">
         <v>75800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>172800</v>
+        <v>171200</v>
       </c>
       <c r="E72" s="3">
-        <v>354900</v>
+        <v>302900</v>
       </c>
       <c r="F72" s="3">
-        <v>386200</v>
+        <v>329600</v>
       </c>
       <c r="G72" s="3">
-        <v>180200</v>
+        <v>153800</v>
       </c>
       <c r="H72" s="3">
-        <v>81000</v>
+        <v>69200</v>
       </c>
       <c r="I72" s="3">
-        <v>-7800</v>
+        <v>-6700</v>
       </c>
       <c r="J72" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="K72" s="3">
         <v>-8200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>628600</v>
+        <v>622800</v>
       </c>
       <c r="E76" s="3">
-        <v>809500</v>
+        <v>690900</v>
       </c>
       <c r="F76" s="3">
-        <v>686800</v>
+        <v>586200</v>
       </c>
       <c r="G76" s="3">
-        <v>406200</v>
+        <v>346700</v>
       </c>
       <c r="H76" s="3">
-        <v>237100</v>
+        <v>202300</v>
       </c>
       <c r="I76" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="J76" s="3">
-        <v>13000</v>
+        <v>11100</v>
       </c>
       <c r="K76" s="3">
         <v>3500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-182100</v>
+        <v>-155400</v>
       </c>
       <c r="E81" s="3">
-        <v>-227800</v>
+        <v>-194400</v>
       </c>
       <c r="F81" s="3">
-        <v>140900</v>
+        <v>120300</v>
       </c>
       <c r="G81" s="3">
-        <v>56400</v>
+        <v>48100</v>
       </c>
       <c r="H81" s="3">
-        <v>43300</v>
+        <v>37000</v>
       </c>
       <c r="I81" s="3">
-        <v>-10100</v>
+        <v>-8700</v>
       </c>
       <c r="J81" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="K81" s="3">
         <v>-7200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>81500</v>
+        <v>69600</v>
       </c>
       <c r="E83" s="3">
-        <v>87800</v>
+        <v>74900</v>
       </c>
       <c r="F83" s="3">
-        <v>55600</v>
+        <v>47500</v>
       </c>
       <c r="G83" s="3">
-        <v>33600</v>
+        <v>28700</v>
       </c>
       <c r="H83" s="3">
-        <v>18300</v>
+        <v>15600</v>
       </c>
       <c r="I83" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="J83" s="3">
-        <v>2400</v>
+        <v>2000</v>
       </c>
       <c r="K83" s="3">
         <v>2200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>182100</v>
+        <v>155400</v>
       </c>
       <c r="E89" s="3">
-        <v>227700</v>
+        <v>194300</v>
       </c>
       <c r="F89" s="3">
-        <v>117900</v>
+        <v>100700</v>
       </c>
       <c r="G89" s="3">
-        <v>137100</v>
+        <v>117000</v>
       </c>
       <c r="H89" s="3">
-        <v>63000</v>
+        <v>53700</v>
       </c>
       <c r="I89" s="3">
-        <v>25000</v>
+        <v>21300</v>
       </c>
       <c r="J89" s="3">
-        <v>25600</v>
+        <v>21900</v>
       </c>
       <c r="K89" s="3">
         <v>14200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-125600</v>
+        <v>-107200</v>
       </c>
       <c r="E91" s="3">
-        <v>-126700</v>
+        <v>-108200</v>
       </c>
       <c r="F91" s="3">
-        <v>-108800</v>
+        <v>-92900</v>
       </c>
       <c r="G91" s="3">
-        <v>-112100</v>
+        <v>-95700</v>
       </c>
       <c r="H91" s="3">
-        <v>-67400</v>
+        <v>-57500</v>
       </c>
       <c r="I91" s="3">
-        <v>-21100</v>
+        <v>-18000</v>
       </c>
       <c r="J91" s="3">
-        <v>-17900</v>
+        <v>-15300</v>
       </c>
       <c r="K91" s="3">
         <v>-12900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-217900</v>
+        <v>-186000</v>
       </c>
       <c r="E94" s="3">
-        <v>-160300</v>
+        <v>-136800</v>
       </c>
       <c r="F94" s="3">
-        <v>-59900</v>
+        <v>-51100</v>
       </c>
       <c r="G94" s="3">
-        <v>-112900</v>
+        <v>-96400</v>
       </c>
       <c r="H94" s="3">
-        <v>-72600</v>
+        <v>-61900</v>
       </c>
       <c r="I94" s="3">
-        <v>-20200</v>
+        <v>-17300</v>
       </c>
       <c r="J94" s="3">
-        <v>-26500</v>
+        <v>-22600</v>
       </c>
       <c r="K94" s="3">
         <v>-13400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-12300</v>
+        <v>-10500</v>
       </c>
       <c r="E100" s="3">
-        <v>-79200</v>
+        <v>-67600</v>
       </c>
       <c r="F100" s="3">
-        <v>-58900</v>
+        <v>-50300</v>
       </c>
       <c r="G100" s="3">
-        <v>-27500</v>
+        <v>-23500</v>
       </c>
       <c r="H100" s="3">
-        <v>7400</v>
+        <v>6300</v>
       </c>
       <c r="I100" s="3">
-        <v>-4200</v>
+        <v>-3600</v>
       </c>
       <c r="J100" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K100" s="3">
         <v>-1400</v>
@@ -3959,16 +3959,16 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>19000</v>
+        <v>16200</v>
       </c>
       <c r="E101" s="3">
-        <v>11800</v>
+        <v>10100</v>
       </c>
       <c r="F101" s="3">
-        <v>5100</v>
+        <v>4300</v>
       </c>
       <c r="G101" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
@@ -3998,22 +3998,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-29100</v>
+        <v>-24800</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>4300</v>
+        <v>3600</v>
       </c>
       <c r="G102" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="H102" s="3">
-        <v>-2200</v>
+        <v>-1900</v>
       </c>
       <c r="I102" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="J102" s="3">
         <v>-400</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>826300</v>
+        <v>708200</v>
       </c>
       <c r="E8" s="3">
-        <v>1003100</v>
+        <v>859800</v>
       </c>
       <c r="F8" s="3">
-        <v>891300</v>
+        <v>764000</v>
       </c>
       <c r="G8" s="3">
-        <v>626400</v>
+        <v>536900</v>
       </c>
       <c r="H8" s="3">
-        <v>288300</v>
+        <v>247100</v>
       </c>
       <c r="I8" s="3">
-        <v>95200</v>
+        <v>81600</v>
       </c>
       <c r="J8" s="3">
-        <v>27700</v>
+        <v>23700</v>
       </c>
       <c r="K8" s="3">
         <v>33100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>508100</v>
+        <v>435600</v>
       </c>
       <c r="E9" s="3">
-        <v>636300</v>
+        <v>545400</v>
       </c>
       <c r="F9" s="3">
-        <v>565300</v>
+        <v>484500</v>
       </c>
       <c r="G9" s="3">
-        <v>356800</v>
+        <v>305900</v>
       </c>
       <c r="H9" s="3">
-        <v>151600</v>
+        <v>129900</v>
       </c>
       <c r="I9" s="3">
-        <v>44100</v>
+        <v>37800</v>
       </c>
       <c r="J9" s="3">
-        <v>14700</v>
+        <v>12600</v>
       </c>
       <c r="K9" s="3">
         <v>17300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>318100</v>
+        <v>272700</v>
       </c>
       <c r="E10" s="3">
-        <v>366700</v>
+        <v>314300</v>
       </c>
       <c r="F10" s="3">
-        <v>326100</v>
+        <v>279500</v>
       </c>
       <c r="G10" s="3">
-        <v>269500</v>
+        <v>231000</v>
       </c>
       <c r="H10" s="3">
-        <v>136700</v>
+        <v>117200</v>
       </c>
       <c r="I10" s="3">
-        <v>51100</v>
+        <v>43800</v>
       </c>
       <c r="J10" s="3">
-        <v>13000</v>
+        <v>11100</v>
       </c>
       <c r="K10" s="3">
         <v>15800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E14" s="3">
-        <v>192700</v>
+        <v>165200</v>
       </c>
       <c r="F14" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>-93300</v>
+        <v>-80000</v>
       </c>
       <c r="H14" s="3">
-        <v>-39700</v>
+        <v>-34000</v>
       </c>
       <c r="I14" s="3">
-        <v>-11500</v>
+        <v>-9900</v>
       </c>
       <c r="J14" s="3">
-        <v>-40600</v>
+        <v>-34800</v>
       </c>
       <c r="K14" s="3">
         <v>-20900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>69600</v>
+        <v>59600</v>
       </c>
       <c r="E15" s="3">
-        <v>74900</v>
+        <v>64200</v>
       </c>
       <c r="F15" s="3">
-        <v>47500</v>
+        <v>40700</v>
       </c>
       <c r="G15" s="3">
-        <v>28700</v>
+        <v>24600</v>
       </c>
       <c r="H15" s="3">
-        <v>15600</v>
+        <v>13400</v>
       </c>
       <c r="I15" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="J15" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>858300</v>
+        <v>735700</v>
       </c>
       <c r="E17" s="3">
-        <v>1221800</v>
+        <v>1047300</v>
       </c>
       <c r="F17" s="3">
-        <v>844300</v>
+        <v>723700</v>
       </c>
       <c r="G17" s="3">
-        <v>487100</v>
+        <v>417500</v>
       </c>
       <c r="H17" s="3">
-        <v>231000</v>
+        <v>198000</v>
       </c>
       <c r="I17" s="3">
-        <v>100000</v>
+        <v>85700</v>
       </c>
       <c r="J17" s="3">
-        <v>11400</v>
+        <v>9700</v>
       </c>
       <c r="K17" s="3">
         <v>35400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-32000</v>
+        <v>-27400</v>
       </c>
       <c r="E18" s="3">
-        <v>-218800</v>
+        <v>-187500</v>
       </c>
       <c r="F18" s="3">
-        <v>47100</v>
+        <v>40300</v>
       </c>
       <c r="G18" s="3">
-        <v>139300</v>
+        <v>119400</v>
       </c>
       <c r="H18" s="3">
-        <v>57300</v>
+        <v>49100</v>
       </c>
       <c r="I18" s="3">
-        <v>-4800</v>
+        <v>-4100</v>
       </c>
       <c r="J18" s="3">
-        <v>16300</v>
+        <v>14000</v>
       </c>
       <c r="K18" s="3">
         <v>-2300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>24600</v>
+        <v>21100</v>
       </c>
       <c r="E20" s="3">
-        <v>20000</v>
+        <v>17200</v>
       </c>
       <c r="F20" s="3">
-        <v>216100</v>
+        <v>185300</v>
       </c>
       <c r="G20" s="3">
-        <v>-47900</v>
+        <v>-41100</v>
       </c>
       <c r="H20" s="3">
-        <v>-10700</v>
+        <v>-9100</v>
       </c>
       <c r="I20" s="3">
-        <v>-6300</v>
+        <v>-5400</v>
       </c>
       <c r="J20" s="3">
-        <v>-5000</v>
+        <v>-4300</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>62300</v>
+        <v>53400</v>
       </c>
       <c r="E21" s="3">
-        <v>-123700</v>
+        <v>-106000</v>
       </c>
       <c r="F21" s="3">
-        <v>310700</v>
+        <v>266300</v>
       </c>
       <c r="G21" s="3">
-        <v>120100</v>
+        <v>102900</v>
       </c>
       <c r="H21" s="3">
-        <v>62300</v>
+        <v>53400</v>
       </c>
       <c r="I21" s="3">
-        <v>-8500</v>
+        <v>-7300</v>
       </c>
       <c r="J21" s="3">
-        <v>13400</v>
+        <v>11500</v>
       </c>
       <c r="K21" s="3">
         <v>-1100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>34100</v>
+        <v>29300</v>
       </c>
       <c r="E22" s="3">
-        <v>34800</v>
+        <v>29800</v>
       </c>
       <c r="F22" s="3">
-        <v>37200</v>
+        <v>31900</v>
       </c>
       <c r="G22" s="3">
-        <v>22200</v>
+        <v>19100</v>
       </c>
       <c r="H22" s="3">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="I22" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="J22" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="K22" s="3">
         <v>5300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-41600</v>
+        <v>-35600</v>
       </c>
       <c r="E23" s="3">
-        <v>-233500</v>
+        <v>-200200</v>
       </c>
       <c r="F23" s="3">
-        <v>226000</v>
+        <v>193700</v>
       </c>
       <c r="G23" s="3">
-        <v>69100</v>
+        <v>59200</v>
       </c>
       <c r="H23" s="3">
-        <v>40700</v>
+        <v>34900</v>
       </c>
       <c r="I23" s="3">
-        <v>-14100</v>
+        <v>-12100</v>
       </c>
       <c r="J23" s="3">
-        <v>9700</v>
+        <v>8300</v>
       </c>
       <c r="K23" s="3">
         <v>-8600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>113800</v>
+        <v>97600</v>
       </c>
       <c r="E24" s="3">
-        <v>-39100</v>
+        <v>-33500</v>
       </c>
       <c r="F24" s="3">
-        <v>105800</v>
+        <v>90700</v>
       </c>
       <c r="G24" s="3">
-        <v>21000</v>
+        <v>18000</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>3200</v>
       </c>
       <c r="I24" s="3">
-        <v>-5400</v>
+        <v>-4600</v>
       </c>
       <c r="J24" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K24" s="3">
         <v>-1400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-155400</v>
+        <v>-133200</v>
       </c>
       <c r="E26" s="3">
-        <v>-194400</v>
+        <v>-166600</v>
       </c>
       <c r="F26" s="3">
-        <v>120300</v>
+        <v>103100</v>
       </c>
       <c r="G26" s="3">
-        <v>48100</v>
+        <v>41200</v>
       </c>
       <c r="H26" s="3">
-        <v>37000</v>
+        <v>31700</v>
       </c>
       <c r="I26" s="3">
-        <v>-8700</v>
+        <v>-7400</v>
       </c>
       <c r="J26" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="K26" s="3">
         <v>-7200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-155400</v>
+        <v>-133200</v>
       </c>
       <c r="E27" s="3">
-        <v>-194400</v>
+        <v>-166600</v>
       </c>
       <c r="F27" s="3">
-        <v>120300</v>
+        <v>103100</v>
       </c>
       <c r="G27" s="3">
-        <v>48100</v>
+        <v>41200</v>
       </c>
       <c r="H27" s="3">
-        <v>37000</v>
+        <v>31700</v>
       </c>
       <c r="I27" s="3">
-        <v>-8700</v>
+        <v>-7400</v>
       </c>
       <c r="J27" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="K27" s="3">
         <v>-7200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-24600</v>
+        <v>-21100</v>
       </c>
       <c r="E32" s="3">
-        <v>-20000</v>
+        <v>-17200</v>
       </c>
       <c r="F32" s="3">
-        <v>-216100</v>
+        <v>-185300</v>
       </c>
       <c r="G32" s="3">
-        <v>47900</v>
+        <v>41100</v>
       </c>
       <c r="H32" s="3">
-        <v>10700</v>
+        <v>9100</v>
       </c>
       <c r="I32" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="J32" s="3">
-        <v>5000</v>
+        <v>4300</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-155400</v>
+        <v>-133200</v>
       </c>
       <c r="E33" s="3">
-        <v>-194400</v>
+        <v>-166600</v>
       </c>
       <c r="F33" s="3">
-        <v>120300</v>
+        <v>103100</v>
       </c>
       <c r="G33" s="3">
-        <v>48100</v>
+        <v>41200</v>
       </c>
       <c r="H33" s="3">
-        <v>37000</v>
+        <v>31700</v>
       </c>
       <c r="I33" s="3">
-        <v>-8700</v>
+        <v>-7400</v>
       </c>
       <c r="J33" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="K33" s="3">
         <v>-7200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-155400</v>
+        <v>-133200</v>
       </c>
       <c r="E35" s="3">
-        <v>-194400</v>
+        <v>-166600</v>
       </c>
       <c r="F35" s="3">
-        <v>120300</v>
+        <v>103100</v>
       </c>
       <c r="G35" s="3">
-        <v>48100</v>
+        <v>41200</v>
       </c>
       <c r="H35" s="3">
-        <v>37000</v>
+        <v>31700</v>
       </c>
       <c r="I35" s="3">
-        <v>-8700</v>
+        <v>-7400</v>
       </c>
       <c r="J35" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="K35" s="3">
         <v>-7200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82400</v>
+        <v>82900</v>
       </c>
       <c r="E41" s="3">
-        <v>47900</v>
+        <v>41100</v>
       </c>
       <c r="F41" s="3">
-        <v>31700</v>
+        <v>27200</v>
       </c>
       <c r="G41" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="H41" s="3">
-        <v>18700</v>
+        <v>16000</v>
       </c>
       <c r="I41" s="3">
-        <v>13600</v>
+        <v>11600</v>
       </c>
       <c r="J41" s="3">
-        <v>9800</v>
+        <v>8400</v>
       </c>
       <c r="K41" s="3">
         <v>3800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77000</v>
+        <v>77500</v>
       </c>
       <c r="E42" s="3">
-        <v>25300</v>
+        <v>21600</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>50300</v>
+        <v>43100</v>
       </c>
       <c r="H42" s="3">
-        <v>13400</v>
+        <v>11500</v>
       </c>
       <c r="I42" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="J42" s="3">
-        <v>2500</v>
+        <v>2200</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>163300</v>
+        <v>164200</v>
       </c>
       <c r="E43" s="3">
-        <v>159700</v>
+        <v>136900</v>
       </c>
       <c r="F43" s="3">
-        <v>125300</v>
+        <v>107400</v>
       </c>
       <c r="G43" s="3">
-        <v>86600</v>
+        <v>74200</v>
       </c>
       <c r="H43" s="3">
-        <v>62800</v>
+        <v>53800</v>
       </c>
       <c r="I43" s="3">
-        <v>29500</v>
+        <v>25300</v>
       </c>
       <c r="J43" s="3">
-        <v>14600</v>
+        <v>12500</v>
       </c>
       <c r="K43" s="3">
         <v>10200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29100</v>
+        <v>29300</v>
       </c>
       <c r="E44" s="3">
-        <v>20600</v>
+        <v>17600</v>
       </c>
       <c r="F44" s="3">
-        <v>36300</v>
+        <v>31100</v>
       </c>
       <c r="G44" s="3">
-        <v>26700</v>
+        <v>22900</v>
       </c>
       <c r="H44" s="3">
-        <v>4700</v>
+        <v>4100</v>
       </c>
       <c r="I44" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="J44" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
@@ -1980,16 +1980,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E45" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="G45" s="3">
-        <v>1500</v>
+        <v>1300</v>
       </c>
       <c r="H45" s="3">
         <v>400</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>355000</v>
+        <v>357300</v>
       </c>
       <c r="E46" s="3">
-        <v>256000</v>
+        <v>219400</v>
       </c>
       <c r="F46" s="3">
-        <v>177200</v>
+        <v>151800</v>
       </c>
       <c r="G46" s="3">
-        <v>153400</v>
+        <v>131500</v>
       </c>
       <c r="H46" s="3">
-        <v>100100</v>
+        <v>85800</v>
       </c>
       <c r="I46" s="3">
-        <v>48200</v>
+        <v>41300</v>
       </c>
       <c r="J46" s="3">
-        <v>28200</v>
+        <v>24100</v>
       </c>
       <c r="K46" s="3">
         <v>15100</v>
@@ -2061,22 +2061,22 @@
         <v>200</v>
       </c>
       <c r="E47" s="3">
-        <v>19500</v>
+        <v>16700</v>
       </c>
       <c r="F47" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>9100</v>
+        <v>7800</v>
       </c>
       <c r="H47" s="3">
         <v>500</v>
       </c>
       <c r="I47" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J47" s="3">
-        <v>1300</v>
+        <v>1100</v>
       </c>
       <c r="K47" s="3">
         <v>2300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1654900</v>
+        <v>1665600</v>
       </c>
       <c r="E48" s="3">
-        <v>1374600</v>
+        <v>1178200</v>
       </c>
       <c r="F48" s="3">
-        <v>1006500</v>
+        <v>862700</v>
       </c>
       <c r="G48" s="3">
-        <v>699400</v>
+        <v>599500</v>
       </c>
       <c r="H48" s="3">
-        <v>415400</v>
+        <v>356100</v>
       </c>
       <c r="I48" s="3">
-        <v>81500</v>
+        <v>69900</v>
       </c>
       <c r="J48" s="3">
-        <v>64700</v>
+        <v>55400</v>
       </c>
       <c r="K48" s="3">
         <v>61100</v>
@@ -2265,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>8600</v>
+        <v>7400</v>
       </c>
       <c r="I52" s="3">
-        <v>7400</v>
+        <v>6400</v>
       </c>
       <c r="J52" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2010100</v>
+        <v>2023100</v>
       </c>
       <c r="E54" s="3">
-        <v>1634400</v>
+        <v>1400900</v>
       </c>
       <c r="F54" s="3">
-        <v>1184000</v>
+        <v>1014800</v>
       </c>
       <c r="G54" s="3">
-        <v>861900</v>
+        <v>738700</v>
       </c>
       <c r="H54" s="3">
-        <v>516000</v>
+        <v>442300</v>
       </c>
       <c r="I54" s="3">
-        <v>137800</v>
+        <v>118100</v>
       </c>
       <c r="J54" s="3">
-        <v>94500</v>
+        <v>81000</v>
       </c>
       <c r="K54" s="3">
         <v>79300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>643800</v>
+        <v>648000</v>
       </c>
       <c r="E57" s="3">
-        <v>362700</v>
+        <v>310900</v>
       </c>
       <c r="F57" s="3">
-        <v>125900</v>
+        <v>107900</v>
       </c>
       <c r="G57" s="3">
-        <v>163500</v>
+        <v>140200</v>
       </c>
       <c r="H57" s="3">
-        <v>98800</v>
+        <v>84700</v>
       </c>
       <c r="I57" s="3">
-        <v>49700</v>
+        <v>42600</v>
       </c>
       <c r="J57" s="3">
-        <v>32600</v>
+        <v>27900</v>
       </c>
       <c r="K57" s="3">
         <v>30300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>89000</v>
+        <v>89600</v>
       </c>
       <c r="E58" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="F58" s="3">
-        <v>17800</v>
+        <v>15200</v>
       </c>
       <c r="G58" s="3">
-        <v>12100</v>
+        <v>10300</v>
       </c>
       <c r="H58" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>91400</v>
+        <v>91900</v>
       </c>
       <c r="E59" s="3">
-        <v>97300</v>
+        <v>83400</v>
       </c>
       <c r="F59" s="3">
-        <v>100000</v>
+        <v>85700</v>
       </c>
       <c r="G59" s="3">
-        <v>59200</v>
+        <v>50800</v>
       </c>
       <c r="H59" s="3">
-        <v>35200</v>
+        <v>30200</v>
       </c>
       <c r="I59" s="3">
-        <v>19600</v>
+        <v>16800</v>
       </c>
       <c r="J59" s="3">
-        <v>8400</v>
+        <v>7200</v>
       </c>
       <c r="K59" s="3">
         <v>9200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>824200</v>
+        <v>829500</v>
       </c>
       <c r="E60" s="3">
-        <v>463200</v>
+        <v>397000</v>
       </c>
       <c r="F60" s="3">
-        <v>243600</v>
+        <v>208800</v>
       </c>
       <c r="G60" s="3">
-        <v>234800</v>
+        <v>201300</v>
       </c>
       <c r="H60" s="3">
-        <v>134800</v>
+        <v>115600</v>
       </c>
       <c r="I60" s="3">
-        <v>69600</v>
+        <v>59700</v>
       </c>
       <c r="J60" s="3">
-        <v>41300</v>
+        <v>35400</v>
       </c>
       <c r="K60" s="3">
         <v>39800</v>
@@ -2563,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>90700</v>
+        <v>77800</v>
       </c>
       <c r="F61" s="3">
-        <v>81200</v>
+        <v>69600</v>
       </c>
       <c r="G61" s="3">
-        <v>80500</v>
+        <v>69000</v>
       </c>
       <c r="H61" s="3">
-        <v>45100</v>
+        <v>38600</v>
       </c>
       <c r="I61" s="3">
-        <v>20200</v>
+        <v>17300</v>
       </c>
       <c r="J61" s="3">
-        <v>17900</v>
+        <v>15400</v>
       </c>
       <c r="K61" s="3">
         <v>14700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>563000</v>
+        <v>566700</v>
       </c>
       <c r="E62" s="3">
-        <v>389600</v>
+        <v>334000</v>
       </c>
       <c r="F62" s="3">
-        <v>272900</v>
+        <v>233900</v>
       </c>
       <c r="G62" s="3">
-        <v>199800</v>
+        <v>171300</v>
       </c>
       <c r="H62" s="3">
-        <v>133800</v>
+        <v>114700</v>
       </c>
       <c r="I62" s="3">
-        <v>45400</v>
+        <v>38900</v>
       </c>
       <c r="J62" s="3">
-        <v>24100</v>
+        <v>20700</v>
       </c>
       <c r="K62" s="3">
         <v>21300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1387200</v>
+        <v>1396200</v>
       </c>
       <c r="E66" s="3">
-        <v>943500</v>
+        <v>808800</v>
       </c>
       <c r="F66" s="3">
-        <v>597800</v>
+        <v>512400</v>
       </c>
       <c r="G66" s="3">
-        <v>515200</v>
+        <v>441600</v>
       </c>
       <c r="H66" s="3">
-        <v>313700</v>
+        <v>268900</v>
       </c>
       <c r="I66" s="3">
-        <v>135200</v>
+        <v>115900</v>
       </c>
       <c r="J66" s="3">
-        <v>83400</v>
+        <v>71500</v>
       </c>
       <c r="K66" s="3">
         <v>75800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>171200</v>
+        <v>172300</v>
       </c>
       <c r="E72" s="3">
-        <v>302900</v>
+        <v>259600</v>
       </c>
       <c r="F72" s="3">
-        <v>329600</v>
+        <v>282500</v>
       </c>
       <c r="G72" s="3">
-        <v>153800</v>
+        <v>131800</v>
       </c>
       <c r="H72" s="3">
-        <v>69200</v>
+        <v>59300</v>
       </c>
       <c r="I72" s="3">
-        <v>-6700</v>
+        <v>-5700</v>
       </c>
       <c r="J72" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="K72" s="3">
         <v>-8200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>622800</v>
+        <v>626900</v>
       </c>
       <c r="E76" s="3">
-        <v>690900</v>
+        <v>592200</v>
       </c>
       <c r="F76" s="3">
-        <v>586200</v>
+        <v>502400</v>
       </c>
       <c r="G76" s="3">
-        <v>346700</v>
+        <v>297200</v>
       </c>
       <c r="H76" s="3">
-        <v>202300</v>
+        <v>173400</v>
       </c>
       <c r="I76" s="3">
-        <v>2600</v>
+        <v>2300</v>
       </c>
       <c r="J76" s="3">
-        <v>11100</v>
+        <v>9500</v>
       </c>
       <c r="K76" s="3">
         <v>3500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-155400</v>
+        <v>-133200</v>
       </c>
       <c r="E81" s="3">
-        <v>-194400</v>
+        <v>-166600</v>
       </c>
       <c r="F81" s="3">
-        <v>120300</v>
+        <v>103100</v>
       </c>
       <c r="G81" s="3">
-        <v>48100</v>
+        <v>41200</v>
       </c>
       <c r="H81" s="3">
-        <v>37000</v>
+        <v>31700</v>
       </c>
       <c r="I81" s="3">
-        <v>-8700</v>
+        <v>-7400</v>
       </c>
       <c r="J81" s="3">
-        <v>8300</v>
+        <v>7100</v>
       </c>
       <c r="K81" s="3">
         <v>-7200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>69600</v>
+        <v>59600</v>
       </c>
       <c r="E83" s="3">
-        <v>74900</v>
+        <v>64200</v>
       </c>
       <c r="F83" s="3">
-        <v>47500</v>
+        <v>40700</v>
       </c>
       <c r="G83" s="3">
-        <v>28700</v>
+        <v>24600</v>
       </c>
       <c r="H83" s="3">
-        <v>15600</v>
+        <v>13400</v>
       </c>
       <c r="I83" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="J83" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="K83" s="3">
         <v>2200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>155400</v>
+        <v>133200</v>
       </c>
       <c r="E89" s="3">
-        <v>194300</v>
+        <v>166600</v>
       </c>
       <c r="F89" s="3">
-        <v>100700</v>
+        <v>86300</v>
       </c>
       <c r="G89" s="3">
-        <v>117000</v>
+        <v>100300</v>
       </c>
       <c r="H89" s="3">
-        <v>53700</v>
+        <v>46100</v>
       </c>
       <c r="I89" s="3">
-        <v>21300</v>
+        <v>18300</v>
       </c>
       <c r="J89" s="3">
-        <v>21900</v>
+        <v>18700</v>
       </c>
       <c r="K89" s="3">
         <v>14200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-107200</v>
+        <v>-91900</v>
       </c>
       <c r="E91" s="3">
-        <v>-108200</v>
+        <v>-92700</v>
       </c>
       <c r="F91" s="3">
-        <v>-92900</v>
+        <v>-79600</v>
       </c>
       <c r="G91" s="3">
-        <v>-95700</v>
+        <v>-82000</v>
       </c>
       <c r="H91" s="3">
-        <v>-57500</v>
+        <v>-49300</v>
       </c>
       <c r="I91" s="3">
-        <v>-18000</v>
+        <v>-15400</v>
       </c>
       <c r="J91" s="3">
-        <v>-15300</v>
+        <v>-13100</v>
       </c>
       <c r="K91" s="3">
         <v>-12900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-186000</v>
+        <v>-159400</v>
       </c>
       <c r="E94" s="3">
-        <v>-136800</v>
+        <v>-117200</v>
       </c>
       <c r="F94" s="3">
-        <v>-51100</v>
+        <v>-43800</v>
       </c>
       <c r="G94" s="3">
-        <v>-96400</v>
+        <v>-82600</v>
       </c>
       <c r="H94" s="3">
-        <v>-61900</v>
+        <v>-53100</v>
       </c>
       <c r="I94" s="3">
-        <v>-17300</v>
+        <v>-14800</v>
       </c>
       <c r="J94" s="3">
-        <v>-22600</v>
+        <v>-19400</v>
       </c>
       <c r="K94" s="3">
         <v>-13400</v>
@@ -3920,22 +3920,22 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-10500</v>
+        <v>-9000</v>
       </c>
       <c r="E100" s="3">
-        <v>-67600</v>
+        <v>-57900</v>
       </c>
       <c r="F100" s="3">
-        <v>-50300</v>
+        <v>-43100</v>
       </c>
       <c r="G100" s="3">
-        <v>-23500</v>
+        <v>-20100</v>
       </c>
       <c r="H100" s="3">
-        <v>6300</v>
+        <v>5400</v>
       </c>
       <c r="I100" s="3">
-        <v>-3600</v>
+        <v>-3100</v>
       </c>
       <c r="J100" s="3">
         <v>300</v>
@@ -3959,22 +3959,22 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>16200</v>
+        <v>13900</v>
       </c>
       <c r="E101" s="3">
-        <v>10100</v>
+        <v>8600</v>
       </c>
       <c r="F101" s="3">
-        <v>4300</v>
+        <v>3700</v>
       </c>
       <c r="G101" s="3">
-        <v>1700</v>
+        <v>1500</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J101" s="3">
         <v>100</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-24800</v>
+        <v>-21300</v>
       </c>
       <c r="E102" s="3">
         <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>3600</v>
+        <v>3100</v>
       </c>
       <c r="G102" s="3">
-        <v>-1100</v>
+        <v>-900</v>
       </c>
       <c r="H102" s="3">
-        <v>-1900</v>
+        <v>-1600</v>
       </c>
       <c r="I102" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="J102" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="K102" s="3">
         <v>-600</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>708200</v>
+        <v>566400</v>
       </c>
       <c r="E8" s="3">
-        <v>859800</v>
+        <v>687500</v>
       </c>
       <c r="F8" s="3">
-        <v>764000</v>
+        <v>611000</v>
       </c>
       <c r="G8" s="3">
-        <v>536900</v>
+        <v>429300</v>
       </c>
       <c r="H8" s="3">
-        <v>247100</v>
+        <v>197600</v>
       </c>
       <c r="I8" s="3">
-        <v>81600</v>
+        <v>65300</v>
       </c>
       <c r="J8" s="3">
-        <v>23700</v>
+        <v>19000</v>
       </c>
       <c r="K8" s="3">
         <v>33100</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>435600</v>
+        <v>348300</v>
       </c>
       <c r="E9" s="3">
-        <v>545400</v>
+        <v>436200</v>
       </c>
       <c r="F9" s="3">
-        <v>484500</v>
+        <v>387500</v>
       </c>
       <c r="G9" s="3">
-        <v>305900</v>
+        <v>244600</v>
       </c>
       <c r="H9" s="3">
-        <v>129900</v>
+        <v>103900</v>
       </c>
       <c r="I9" s="3">
-        <v>37800</v>
+        <v>30200</v>
       </c>
       <c r="J9" s="3">
-        <v>12600</v>
+        <v>10100</v>
       </c>
       <c r="K9" s="3">
         <v>17300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>272700</v>
+        <v>218100</v>
       </c>
       <c r="E10" s="3">
-        <v>314300</v>
+        <v>251400</v>
       </c>
       <c r="F10" s="3">
-        <v>279500</v>
+        <v>223500</v>
       </c>
       <c r="G10" s="3">
-        <v>231000</v>
+        <v>184800</v>
       </c>
       <c r="H10" s="3">
-        <v>117200</v>
+        <v>93700</v>
       </c>
       <c r="I10" s="3">
-        <v>43800</v>
+        <v>35000</v>
       </c>
       <c r="J10" s="3">
-        <v>11100</v>
+        <v>8900</v>
       </c>
       <c r="K10" s="3">
         <v>15800</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="E14" s="3">
-        <v>165200</v>
+        <v>132100</v>
       </c>
       <c r="F14" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G14" s="3">
-        <v>-80000</v>
+        <v>-64000</v>
       </c>
       <c r="H14" s="3">
-        <v>-34000</v>
+        <v>-27200</v>
       </c>
       <c r="I14" s="3">
-        <v>-9900</v>
+        <v>-7900</v>
       </c>
       <c r="J14" s="3">
-        <v>-34800</v>
+        <v>-27800</v>
       </c>
       <c r="K14" s="3">
         <v>-20900</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>59600</v>
+        <v>47700</v>
       </c>
       <c r="E15" s="3">
-        <v>64200</v>
+        <v>51300</v>
       </c>
       <c r="F15" s="3">
-        <v>40700</v>
+        <v>32500</v>
       </c>
       <c r="G15" s="3">
-        <v>24600</v>
+        <v>19700</v>
       </c>
       <c r="H15" s="3">
-        <v>13400</v>
+        <v>10700</v>
       </c>
       <c r="I15" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="J15" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K15" s="3">
         <v>2200</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>735700</v>
+        <v>588300</v>
       </c>
       <c r="E17" s="3">
-        <v>1047300</v>
+        <v>837500</v>
       </c>
       <c r="F17" s="3">
-        <v>723700</v>
+        <v>578700</v>
       </c>
       <c r="G17" s="3">
-        <v>417500</v>
+        <v>333800</v>
       </c>
       <c r="H17" s="3">
-        <v>198000</v>
+        <v>158300</v>
       </c>
       <c r="I17" s="3">
-        <v>85700</v>
+        <v>68500</v>
       </c>
       <c r="J17" s="3">
-        <v>9700</v>
+        <v>7800</v>
       </c>
       <c r="K17" s="3">
         <v>35400</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-27400</v>
+        <v>-21900</v>
       </c>
       <c r="E18" s="3">
-        <v>-187500</v>
+        <v>-149900</v>
       </c>
       <c r="F18" s="3">
-        <v>40300</v>
+        <v>32300</v>
       </c>
       <c r="G18" s="3">
-        <v>119400</v>
+        <v>95500</v>
       </c>
       <c r="H18" s="3">
-        <v>49100</v>
+        <v>39300</v>
       </c>
       <c r="I18" s="3">
-        <v>-4100</v>
+        <v>-3300</v>
       </c>
       <c r="J18" s="3">
-        <v>14000</v>
+        <v>11200</v>
       </c>
       <c r="K18" s="3">
         <v>-2300</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>21100</v>
+        <v>16900</v>
       </c>
       <c r="E20" s="3">
-        <v>17200</v>
+        <v>13700</v>
       </c>
       <c r="F20" s="3">
-        <v>185300</v>
+        <v>148100</v>
       </c>
       <c r="G20" s="3">
-        <v>-41100</v>
+        <v>-32900</v>
       </c>
       <c r="H20" s="3">
-        <v>-9100</v>
+        <v>-7300</v>
       </c>
       <c r="I20" s="3">
-        <v>-5400</v>
+        <v>-4300</v>
       </c>
       <c r="J20" s="3">
-        <v>-4300</v>
+        <v>-3400</v>
       </c>
       <c r="K20" s="3">
         <v>-1000</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>53400</v>
+        <v>42700</v>
       </c>
       <c r="E21" s="3">
-        <v>-106000</v>
+        <v>-84800</v>
       </c>
       <c r="F21" s="3">
-        <v>266300</v>
+        <v>213000</v>
       </c>
       <c r="G21" s="3">
-        <v>102900</v>
+        <v>82300</v>
       </c>
       <c r="H21" s="3">
-        <v>53400</v>
+        <v>42700</v>
       </c>
       <c r="I21" s="3">
-        <v>-7300</v>
+        <v>-5800</v>
       </c>
       <c r="J21" s="3">
-        <v>11500</v>
+        <v>9200</v>
       </c>
       <c r="K21" s="3">
         <v>-1100</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29300</v>
+        <v>23400</v>
       </c>
       <c r="E22" s="3">
-        <v>29800</v>
+        <v>23900</v>
       </c>
       <c r="F22" s="3">
-        <v>31900</v>
+        <v>25500</v>
       </c>
       <c r="G22" s="3">
-        <v>19100</v>
+        <v>15200</v>
       </c>
       <c r="H22" s="3">
-        <v>5100</v>
+        <v>4100</v>
       </c>
       <c r="I22" s="3">
-        <v>2600</v>
+        <v>2100</v>
       </c>
       <c r="J22" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>5300</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-35600</v>
+        <v>-28500</v>
       </c>
       <c r="E23" s="3">
-        <v>-200200</v>
+        <v>-160100</v>
       </c>
       <c r="F23" s="3">
-        <v>193700</v>
+        <v>154900</v>
       </c>
       <c r="G23" s="3">
-        <v>59200</v>
+        <v>47400</v>
       </c>
       <c r="H23" s="3">
-        <v>34900</v>
+        <v>27900</v>
       </c>
       <c r="I23" s="3">
-        <v>-12100</v>
+        <v>-9600</v>
       </c>
       <c r="J23" s="3">
-        <v>8300</v>
+        <v>6600</v>
       </c>
       <c r="K23" s="3">
         <v>-8600</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>97600</v>
+        <v>78000</v>
       </c>
       <c r="E24" s="3">
-        <v>-33500</v>
+        <v>-26800</v>
       </c>
       <c r="F24" s="3">
-        <v>90700</v>
+        <v>72500</v>
       </c>
       <c r="G24" s="3">
-        <v>18000</v>
+        <v>14400</v>
       </c>
       <c r="H24" s="3">
-        <v>3200</v>
+        <v>2500</v>
       </c>
       <c r="I24" s="3">
-        <v>-4600</v>
+        <v>-3700</v>
       </c>
       <c r="J24" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K24" s="3">
         <v>-1400</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-133200</v>
+        <v>-106500</v>
       </c>
       <c r="E26" s="3">
-        <v>-166600</v>
+        <v>-133300</v>
       </c>
       <c r="F26" s="3">
-        <v>103100</v>
+        <v>82400</v>
       </c>
       <c r="G26" s="3">
-        <v>41200</v>
+        <v>33000</v>
       </c>
       <c r="H26" s="3">
-        <v>31700</v>
+        <v>25400</v>
       </c>
       <c r="I26" s="3">
-        <v>-7400</v>
+        <v>-5900</v>
       </c>
       <c r="J26" s="3">
-        <v>7100</v>
+        <v>5700</v>
       </c>
       <c r="K26" s="3">
         <v>-7200</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-133200</v>
+        <v>-106500</v>
       </c>
       <c r="E27" s="3">
-        <v>-166600</v>
+        <v>-133300</v>
       </c>
       <c r="F27" s="3">
-        <v>103100</v>
+        <v>82400</v>
       </c>
       <c r="G27" s="3">
-        <v>41200</v>
+        <v>33000</v>
       </c>
       <c r="H27" s="3">
-        <v>31700</v>
+        <v>25400</v>
       </c>
       <c r="I27" s="3">
-        <v>-7400</v>
+        <v>-5900</v>
       </c>
       <c r="J27" s="3">
-        <v>7100</v>
+        <v>5700</v>
       </c>
       <c r="K27" s="3">
         <v>-7200</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-21100</v>
+        <v>-16900</v>
       </c>
       <c r="E32" s="3">
-        <v>-17200</v>
+        <v>-13700</v>
       </c>
       <c r="F32" s="3">
-        <v>-185300</v>
+        <v>-148100</v>
       </c>
       <c r="G32" s="3">
-        <v>41100</v>
+        <v>32900</v>
       </c>
       <c r="H32" s="3">
-        <v>9100</v>
+        <v>7300</v>
       </c>
       <c r="I32" s="3">
-        <v>5400</v>
+        <v>4300</v>
       </c>
       <c r="J32" s="3">
-        <v>4300</v>
+        <v>3400</v>
       </c>
       <c r="K32" s="3">
         <v>1000</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-133200</v>
+        <v>-106500</v>
       </c>
       <c r="E33" s="3">
-        <v>-166600</v>
+        <v>-133300</v>
       </c>
       <c r="F33" s="3">
-        <v>103100</v>
+        <v>82400</v>
       </c>
       <c r="G33" s="3">
-        <v>41200</v>
+        <v>33000</v>
       </c>
       <c r="H33" s="3">
-        <v>31700</v>
+        <v>25400</v>
       </c>
       <c r="I33" s="3">
-        <v>-7400</v>
+        <v>-5900</v>
       </c>
       <c r="J33" s="3">
-        <v>7100</v>
+        <v>5700</v>
       </c>
       <c r="K33" s="3">
         <v>-7200</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-133200</v>
+        <v>-106500</v>
       </c>
       <c r="E35" s="3">
-        <v>-166600</v>
+        <v>-133300</v>
       </c>
       <c r="F35" s="3">
-        <v>103100</v>
+        <v>82400</v>
       </c>
       <c r="G35" s="3">
-        <v>41200</v>
+        <v>33000</v>
       </c>
       <c r="H35" s="3">
-        <v>31700</v>
+        <v>25400</v>
       </c>
       <c r="I35" s="3">
-        <v>-7400</v>
+        <v>-5900</v>
       </c>
       <c r="J35" s="3">
-        <v>7100</v>
+        <v>5700</v>
       </c>
       <c r="K35" s="3">
         <v>-7200</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>82900</v>
+        <v>66300</v>
       </c>
       <c r="E41" s="3">
-        <v>41100</v>
+        <v>32800</v>
       </c>
       <c r="F41" s="3">
-        <v>27200</v>
+        <v>21700</v>
       </c>
       <c r="G41" s="3">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="H41" s="3">
-        <v>16000</v>
+        <v>12800</v>
       </c>
       <c r="I41" s="3">
-        <v>11600</v>
+        <v>9300</v>
       </c>
       <c r="J41" s="3">
-        <v>8400</v>
+        <v>6700</v>
       </c>
       <c r="K41" s="3">
         <v>3800</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>77500</v>
+        <v>62000</v>
       </c>
       <c r="E42" s="3">
-        <v>21600</v>
+        <v>17300</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>43100</v>
+        <v>34500</v>
       </c>
       <c r="H42" s="3">
-        <v>11500</v>
+        <v>9200</v>
       </c>
       <c r="I42" s="3">
-        <v>2400</v>
+        <v>1900</v>
       </c>
       <c r="J42" s="3">
-        <v>2200</v>
+        <v>1700</v>
       </c>
       <c r="K42" s="3">
         <v>200</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>164200</v>
+        <v>131300</v>
       </c>
       <c r="E43" s="3">
-        <v>136900</v>
+        <v>109500</v>
       </c>
       <c r="F43" s="3">
-        <v>107400</v>
+        <v>85900</v>
       </c>
       <c r="G43" s="3">
-        <v>74200</v>
+        <v>59400</v>
       </c>
       <c r="H43" s="3">
-        <v>53800</v>
+        <v>43000</v>
       </c>
       <c r="I43" s="3">
-        <v>25300</v>
+        <v>20200</v>
       </c>
       <c r="J43" s="3">
-        <v>12500</v>
+        <v>10000</v>
       </c>
       <c r="K43" s="3">
         <v>10200</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29300</v>
+        <v>23400</v>
       </c>
       <c r="E44" s="3">
-        <v>17600</v>
+        <v>14100</v>
       </c>
       <c r="F44" s="3">
-        <v>31100</v>
+        <v>24900</v>
       </c>
       <c r="G44" s="3">
-        <v>22900</v>
+        <v>18300</v>
       </c>
       <c r="H44" s="3">
-        <v>4100</v>
+        <v>3200</v>
       </c>
       <c r="I44" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="J44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="E45" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="F45" s="3">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="G45" s="3">
-        <v>1300</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I45" s="3">
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
         <v>200</v>
-      </c>
-      <c r="J45" s="3">
-        <v>300</v>
       </c>
       <c r="K45" s="3">
         <v>300</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>357300</v>
+        <v>285700</v>
       </c>
       <c r="E46" s="3">
-        <v>219400</v>
+        <v>175500</v>
       </c>
       <c r="F46" s="3">
-        <v>151800</v>
+        <v>121400</v>
       </c>
       <c r="G46" s="3">
-        <v>131500</v>
+        <v>105200</v>
       </c>
       <c r="H46" s="3">
-        <v>85800</v>
+        <v>68600</v>
       </c>
       <c r="I46" s="3">
-        <v>41300</v>
+        <v>33000</v>
       </c>
       <c r="J46" s="3">
-        <v>24100</v>
+        <v>19300</v>
       </c>
       <c r="K46" s="3">
         <v>15100</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>16700</v>
+        <v>13300</v>
       </c>
       <c r="F47" s="3">
         <v>300</v>
       </c>
       <c r="G47" s="3">
-        <v>7800</v>
+        <v>6200</v>
       </c>
       <c r="H47" s="3">
+        <v>400</v>
+      </c>
+      <c r="I47" s="3">
         <v>500</v>
       </c>
-      <c r="I47" s="3">
-        <v>600</v>
-      </c>
       <c r="J47" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="K47" s="3">
         <v>2300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1665600</v>
+        <v>1332000</v>
       </c>
       <c r="E48" s="3">
-        <v>1178200</v>
+        <v>942200</v>
       </c>
       <c r="F48" s="3">
-        <v>862700</v>
+        <v>689900</v>
       </c>
       <c r="G48" s="3">
-        <v>599500</v>
+        <v>479400</v>
       </c>
       <c r="H48" s="3">
-        <v>356100</v>
+        <v>284700</v>
       </c>
       <c r="I48" s="3">
-        <v>69900</v>
+        <v>55900</v>
       </c>
       <c r="J48" s="3">
-        <v>55400</v>
+        <v>44300</v>
       </c>
       <c r="K48" s="3">
         <v>61100</v>
@@ -2265,13 +2265,13 @@
         <v>8</v>
       </c>
       <c r="H52" s="3">
-        <v>7400</v>
+        <v>5900</v>
       </c>
       <c r="I52" s="3">
-        <v>6400</v>
+        <v>5100</v>
       </c>
       <c r="J52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>800</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2023100</v>
+        <v>1617800</v>
       </c>
       <c r="E54" s="3">
-        <v>1400900</v>
+        <v>1120300</v>
       </c>
       <c r="F54" s="3">
-        <v>1014800</v>
+        <v>811500</v>
       </c>
       <c r="G54" s="3">
-        <v>738700</v>
+        <v>590800</v>
       </c>
       <c r="H54" s="3">
-        <v>442300</v>
+        <v>353700</v>
       </c>
       <c r="I54" s="3">
-        <v>118100</v>
+        <v>94500</v>
       </c>
       <c r="J54" s="3">
-        <v>81000</v>
+        <v>64800</v>
       </c>
       <c r="K54" s="3">
         <v>79300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>648000</v>
+        <v>518200</v>
       </c>
       <c r="E57" s="3">
-        <v>310900</v>
+        <v>248600</v>
       </c>
       <c r="F57" s="3">
-        <v>107900</v>
+        <v>86300</v>
       </c>
       <c r="G57" s="3">
-        <v>140200</v>
+        <v>112100</v>
       </c>
       <c r="H57" s="3">
-        <v>84700</v>
+        <v>67800</v>
       </c>
       <c r="I57" s="3">
-        <v>42600</v>
+        <v>34000</v>
       </c>
       <c r="J57" s="3">
-        <v>27900</v>
+        <v>22300</v>
       </c>
       <c r="K57" s="3">
         <v>30300</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>89600</v>
+        <v>71600</v>
       </c>
       <c r="E58" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
-        <v>15200</v>
+        <v>12200</v>
       </c>
       <c r="G58" s="3">
-        <v>10300</v>
+        <v>8300</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>300</v>
       </c>
       <c r="J58" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>300</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>91900</v>
+        <v>73500</v>
       </c>
       <c r="E59" s="3">
-        <v>83400</v>
+        <v>66700</v>
       </c>
       <c r="F59" s="3">
-        <v>85700</v>
+        <v>68500</v>
       </c>
       <c r="G59" s="3">
-        <v>50800</v>
+        <v>40600</v>
       </c>
       <c r="H59" s="3">
-        <v>30200</v>
+        <v>24100</v>
       </c>
       <c r="I59" s="3">
-        <v>16800</v>
+        <v>13400</v>
       </c>
       <c r="J59" s="3">
-        <v>7200</v>
+        <v>5800</v>
       </c>
       <c r="K59" s="3">
         <v>9200</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>829500</v>
+        <v>663400</v>
       </c>
       <c r="E60" s="3">
-        <v>397000</v>
+        <v>317500</v>
       </c>
       <c r="F60" s="3">
-        <v>208800</v>
+        <v>167000</v>
       </c>
       <c r="G60" s="3">
-        <v>201300</v>
+        <v>161000</v>
       </c>
       <c r="H60" s="3">
-        <v>115600</v>
+        <v>92400</v>
       </c>
       <c r="I60" s="3">
-        <v>59700</v>
+        <v>47700</v>
       </c>
       <c r="J60" s="3">
-        <v>35400</v>
+        <v>28300</v>
       </c>
       <c r="K60" s="3">
         <v>39800</v>
@@ -2563,22 +2563,22 @@
         <v>0</v>
       </c>
       <c r="E61" s="3">
-        <v>77800</v>
+        <v>62200</v>
       </c>
       <c r="F61" s="3">
-        <v>69600</v>
+        <v>55700</v>
       </c>
       <c r="G61" s="3">
-        <v>69000</v>
+        <v>55200</v>
       </c>
       <c r="H61" s="3">
-        <v>38600</v>
+        <v>30900</v>
       </c>
       <c r="I61" s="3">
-        <v>17300</v>
+        <v>13800</v>
       </c>
       <c r="J61" s="3">
-        <v>15400</v>
+        <v>12300</v>
       </c>
       <c r="K61" s="3">
         <v>14700</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>566700</v>
+        <v>453200</v>
       </c>
       <c r="E62" s="3">
-        <v>334000</v>
+        <v>267100</v>
       </c>
       <c r="F62" s="3">
-        <v>233900</v>
+        <v>187100</v>
       </c>
       <c r="G62" s="3">
-        <v>171300</v>
+        <v>137000</v>
       </c>
       <c r="H62" s="3">
-        <v>114700</v>
+        <v>91700</v>
       </c>
       <c r="I62" s="3">
-        <v>38900</v>
+        <v>31100</v>
       </c>
       <c r="J62" s="3">
-        <v>20700</v>
+        <v>16500</v>
       </c>
       <c r="K62" s="3">
         <v>21300</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1396200</v>
+        <v>1116500</v>
       </c>
       <c r="E66" s="3">
-        <v>808800</v>
+        <v>646700</v>
       </c>
       <c r="F66" s="3">
-        <v>512400</v>
+        <v>409700</v>
       </c>
       <c r="G66" s="3">
-        <v>441600</v>
+        <v>353100</v>
       </c>
       <c r="H66" s="3">
-        <v>268900</v>
+        <v>215000</v>
       </c>
       <c r="I66" s="3">
-        <v>115900</v>
+        <v>92700</v>
       </c>
       <c r="J66" s="3">
-        <v>71500</v>
+        <v>57200</v>
       </c>
       <c r="K66" s="3">
         <v>75800</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>172300</v>
+        <v>137800</v>
       </c>
       <c r="E72" s="3">
-        <v>259600</v>
+        <v>207600</v>
       </c>
       <c r="F72" s="3">
-        <v>282500</v>
+        <v>225900</v>
       </c>
       <c r="G72" s="3">
-        <v>131800</v>
+        <v>105400</v>
       </c>
       <c r="H72" s="3">
-        <v>59300</v>
+        <v>47400</v>
       </c>
       <c r="I72" s="3">
-        <v>-5700</v>
+        <v>-4600</v>
       </c>
       <c r="J72" s="3">
-        <v>1600</v>
+        <v>1200</v>
       </c>
       <c r="K72" s="3">
         <v>-8200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>626900</v>
+        <v>501300</v>
       </c>
       <c r="E76" s="3">
-        <v>592200</v>
+        <v>473600</v>
       </c>
       <c r="F76" s="3">
-        <v>502400</v>
+        <v>401800</v>
       </c>
       <c r="G76" s="3">
-        <v>297200</v>
+        <v>237600</v>
       </c>
       <c r="H76" s="3">
-        <v>173400</v>
+        <v>138700</v>
       </c>
       <c r="I76" s="3">
-        <v>2300</v>
+        <v>1800</v>
       </c>
       <c r="J76" s="3">
-        <v>9500</v>
+        <v>7600</v>
       </c>
       <c r="K76" s="3">
         <v>3500</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-133200</v>
+        <v>-106500</v>
       </c>
       <c r="E81" s="3">
-        <v>-166600</v>
+        <v>-133300</v>
       </c>
       <c r="F81" s="3">
-        <v>103100</v>
+        <v>82400</v>
       </c>
       <c r="G81" s="3">
-        <v>41200</v>
+        <v>33000</v>
       </c>
       <c r="H81" s="3">
-        <v>31700</v>
+        <v>25400</v>
       </c>
       <c r="I81" s="3">
-        <v>-7400</v>
+        <v>-5900</v>
       </c>
       <c r="J81" s="3">
-        <v>7100</v>
+        <v>5700</v>
       </c>
       <c r="K81" s="3">
         <v>-7200</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>59600</v>
+        <v>47700</v>
       </c>
       <c r="E83" s="3">
-        <v>64200</v>
+        <v>51300</v>
       </c>
       <c r="F83" s="3">
-        <v>40700</v>
+        <v>32500</v>
       </c>
       <c r="G83" s="3">
-        <v>24600</v>
+        <v>19700</v>
       </c>
       <c r="H83" s="3">
-        <v>13400</v>
+        <v>10700</v>
       </c>
       <c r="I83" s="3">
-        <v>2200</v>
+        <v>1800</v>
       </c>
       <c r="J83" s="3">
-        <v>1800</v>
+        <v>1400</v>
       </c>
       <c r="K83" s="3">
         <v>2200</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>106500</v>
+      </c>
+      <c r="E89" s="3">
         <v>133200</v>
       </c>
-      <c r="E89" s="3">
-        <v>166600</v>
-      </c>
       <c r="F89" s="3">
-        <v>86300</v>
+        <v>69000</v>
       </c>
       <c r="G89" s="3">
-        <v>100300</v>
+        <v>80200</v>
       </c>
       <c r="H89" s="3">
-        <v>46100</v>
+        <v>36800</v>
       </c>
       <c r="I89" s="3">
-        <v>18300</v>
+        <v>14600</v>
       </c>
       <c r="J89" s="3">
-        <v>18700</v>
+        <v>15000</v>
       </c>
       <c r="K89" s="3">
         <v>14200</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-91900</v>
+        <v>-73500</v>
       </c>
       <c r="E91" s="3">
-        <v>-92700</v>
+        <v>-74100</v>
       </c>
       <c r="F91" s="3">
-        <v>-79600</v>
+        <v>-63600</v>
       </c>
       <c r="G91" s="3">
-        <v>-82000</v>
+        <v>-65600</v>
       </c>
       <c r="H91" s="3">
-        <v>-49300</v>
+        <v>-39400</v>
       </c>
       <c r="I91" s="3">
-        <v>-15400</v>
+        <v>-12300</v>
       </c>
       <c r="J91" s="3">
-        <v>-13100</v>
+        <v>-10500</v>
       </c>
       <c r="K91" s="3">
         <v>-12900</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-159400</v>
+        <v>-127500</v>
       </c>
       <c r="E94" s="3">
-        <v>-117200</v>
+        <v>-93700</v>
       </c>
       <c r="F94" s="3">
-        <v>-43800</v>
+        <v>-35000</v>
       </c>
       <c r="G94" s="3">
-        <v>-82600</v>
+        <v>-66100</v>
       </c>
       <c r="H94" s="3">
-        <v>-53100</v>
+        <v>-42500</v>
       </c>
       <c r="I94" s="3">
-        <v>-14800</v>
+        <v>-11800</v>
       </c>
       <c r="J94" s="3">
-        <v>-19400</v>
+        <v>-15500</v>
       </c>
       <c r="K94" s="3">
         <v>-13400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-9000</v>
+        <v>-7200</v>
       </c>
       <c r="E100" s="3">
-        <v>-57900</v>
+        <v>-46300</v>
       </c>
       <c r="F100" s="3">
-        <v>-43100</v>
+        <v>-34500</v>
       </c>
       <c r="G100" s="3">
-        <v>-20100</v>
+        <v>-16100</v>
       </c>
       <c r="H100" s="3">
-        <v>5400</v>
+        <v>4300</v>
       </c>
       <c r="I100" s="3">
-        <v>-3100</v>
+        <v>-2500</v>
       </c>
       <c r="J100" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>-1400</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13900</v>
+        <v>11100</v>
       </c>
       <c r="E101" s="3">
-        <v>8600</v>
+        <v>6900</v>
       </c>
       <c r="F101" s="3">
-        <v>3700</v>
+        <v>3000</v>
       </c>
       <c r="G101" s="3">
-        <v>1500</v>
+        <v>1200</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
       <c r="I101" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -3998,22 +3998,22 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-21300</v>
+        <v>-17000</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>3100</v>
+        <v>2500</v>
       </c>
       <c r="G102" s="3">
-        <v>-900</v>
+        <v>-700</v>
       </c>
       <c r="H102" s="3">
-        <v>-1600</v>
+        <v>-1300</v>
       </c>
       <c r="I102" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="J102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>EDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>566400</v>
+        <v>887100</v>
       </c>
       <c r="E8" s="3">
-        <v>687500</v>
+        <v>952900</v>
       </c>
       <c r="F8" s="3">
-        <v>611000</v>
+        <v>593800</v>
       </c>
       <c r="G8" s="3">
-        <v>429300</v>
+        <v>527700</v>
       </c>
       <c r="H8" s="3">
-        <v>197600</v>
+        <v>370800</v>
       </c>
       <c r="I8" s="3">
-        <v>65300</v>
+        <v>170700</v>
       </c>
       <c r="J8" s="3">
+        <v>56400</v>
+      </c>
+      <c r="K8" s="3">
         <v>19000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>33100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>42500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>49200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>75700</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>348300</v>
+        <v>617300</v>
       </c>
       <c r="E9" s="3">
-        <v>436200</v>
+        <v>586000</v>
       </c>
       <c r="F9" s="3">
-        <v>387500</v>
+        <v>376700</v>
       </c>
       <c r="G9" s="3">
-        <v>244600</v>
+        <v>334700</v>
       </c>
       <c r="H9" s="3">
-        <v>103900</v>
+        <v>211300</v>
       </c>
       <c r="I9" s="3">
-        <v>30200</v>
+        <v>89700</v>
       </c>
       <c r="J9" s="3">
+        <v>26100</v>
+      </c>
+      <c r="K9" s="3">
         <v>10100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>17300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>50700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>52900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>107400</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>218100</v>
+        <v>269800</v>
       </c>
       <c r="E10" s="3">
-        <v>251400</v>
+        <v>366900</v>
       </c>
       <c r="F10" s="3">
-        <v>223500</v>
+        <v>217100</v>
       </c>
       <c r="G10" s="3">
-        <v>184800</v>
+        <v>193000</v>
       </c>
       <c r="H10" s="3">
-        <v>93700</v>
+        <v>159600</v>
       </c>
       <c r="I10" s="3">
-        <v>35000</v>
+        <v>81000</v>
       </c>
       <c r="J10" s="3">
+        <v>30300</v>
+      </c>
+      <c r="K10" s="3">
         <v>8900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>15800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-8200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-3700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-31600</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,8 +863,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E14" s="3">
-        <v>132100</v>
+        <v>2100</v>
       </c>
       <c r="F14" s="3">
+        <v>114100</v>
+      </c>
+      <c r="G14" s="3">
         <v>400</v>
       </c>
-      <c r="G14" s="3">
-        <v>-64000</v>
-      </c>
       <c r="H14" s="3">
-        <v>-27200</v>
+        <v>-55200</v>
       </c>
       <c r="I14" s="3">
-        <v>-7900</v>
+        <v>-23500</v>
       </c>
       <c r="J14" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="K14" s="3">
         <v>-27800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-20900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-36200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-8700</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47700</v>
+        <v>82900</v>
       </c>
       <c r="E15" s="3">
-        <v>51300</v>
+        <v>80300</v>
       </c>
       <c r="F15" s="3">
-        <v>32500</v>
+        <v>44300</v>
       </c>
       <c r="G15" s="3">
-        <v>19700</v>
+        <v>28100</v>
       </c>
       <c r="H15" s="3">
-        <v>10700</v>
+        <v>17000</v>
       </c>
       <c r="I15" s="3">
-        <v>1800</v>
+        <v>9300</v>
       </c>
       <c r="J15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K15" s="3">
         <v>1400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>2200</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>588300</v>
+        <v>1021800</v>
       </c>
       <c r="E17" s="3">
-        <v>837500</v>
+        <v>989800</v>
       </c>
       <c r="F17" s="3">
-        <v>578700</v>
+        <v>723400</v>
       </c>
       <c r="G17" s="3">
-        <v>333800</v>
+        <v>499800</v>
       </c>
       <c r="H17" s="3">
-        <v>158300</v>
+        <v>288400</v>
       </c>
       <c r="I17" s="3">
-        <v>68500</v>
+        <v>136700</v>
       </c>
       <c r="J17" s="3">
+        <v>59200</v>
+      </c>
+      <c r="K17" s="3">
         <v>7800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>35400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>26200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>62900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>68800</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-21900</v>
+        <v>-134700</v>
       </c>
       <c r="E18" s="3">
-        <v>-149900</v>
+        <v>-36900</v>
       </c>
       <c r="F18" s="3">
-        <v>32300</v>
+        <v>-129500</v>
       </c>
       <c r="G18" s="3">
-        <v>95500</v>
+        <v>27900</v>
       </c>
       <c r="H18" s="3">
-        <v>39300</v>
+        <v>82500</v>
       </c>
       <c r="I18" s="3">
-        <v>-3300</v>
+        <v>33900</v>
       </c>
       <c r="J18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>11200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>6900</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>16900</v>
+        <v>179500</v>
       </c>
       <c r="E20" s="3">
-        <v>13700</v>
+        <v>48500</v>
       </c>
       <c r="F20" s="3">
-        <v>148100</v>
+        <v>11900</v>
       </c>
       <c r="G20" s="3">
-        <v>-32900</v>
+        <v>128000</v>
       </c>
       <c r="H20" s="3">
-        <v>-7300</v>
+        <v>-28400</v>
       </c>
       <c r="I20" s="3">
-        <v>-4300</v>
+        <v>-6300</v>
       </c>
       <c r="J20" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-3400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2000</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>42700</v>
+        <v>127900</v>
       </c>
       <c r="E21" s="3">
-        <v>-84800</v>
+        <v>92100</v>
       </c>
       <c r="F21" s="3">
-        <v>213000</v>
+        <v>-73200</v>
       </c>
       <c r="G21" s="3">
-        <v>82300</v>
+        <v>184000</v>
       </c>
       <c r="H21" s="3">
-        <v>42700</v>
+        <v>71100</v>
       </c>
       <c r="I21" s="3">
-        <v>-5800</v>
+        <v>36900</v>
       </c>
       <c r="J21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K21" s="3">
         <v>9200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>12800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-15400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10200</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>23400</v>
+        <v>56200</v>
       </c>
       <c r="E22" s="3">
-        <v>23900</v>
+        <v>59600</v>
       </c>
       <c r="F22" s="3">
-        <v>25500</v>
+        <v>20600</v>
       </c>
       <c r="G22" s="3">
-        <v>15200</v>
+        <v>22000</v>
       </c>
       <c r="H22" s="3">
-        <v>4100</v>
+        <v>13200</v>
       </c>
       <c r="I22" s="3">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="J22" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K22" s="3">
         <v>1200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5300</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>5000</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-28500</v>
+        <v>-11400</v>
       </c>
       <c r="E23" s="3">
-        <v>-160100</v>
+        <v>-47900</v>
       </c>
       <c r="F23" s="3">
-        <v>154900</v>
+        <v>-138300</v>
       </c>
       <c r="G23" s="3">
-        <v>47400</v>
+        <v>133800</v>
       </c>
       <c r="H23" s="3">
-        <v>27900</v>
+        <v>40900</v>
       </c>
       <c r="I23" s="3">
-        <v>-9600</v>
+        <v>24100</v>
       </c>
       <c r="J23" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="K23" s="3">
         <v>6600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>10200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-19000</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>78000</v>
+        <v>63900</v>
       </c>
       <c r="E24" s="3">
-        <v>-26800</v>
+        <v>131300</v>
       </c>
       <c r="F24" s="3">
-        <v>72500</v>
+        <v>-23200</v>
       </c>
       <c r="G24" s="3">
-        <v>14400</v>
+        <v>62600</v>
       </c>
       <c r="H24" s="3">
-        <v>2500</v>
+        <v>12400</v>
       </c>
       <c r="I24" s="3">
-        <v>-3700</v>
+        <v>2200</v>
       </c>
       <c r="J24" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="K24" s="3">
         <v>900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4000</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-106500</v>
+        <v>-75300</v>
       </c>
       <c r="E26" s="3">
-        <v>-133300</v>
+        <v>-179200</v>
       </c>
       <c r="F26" s="3">
-        <v>82400</v>
+        <v>-115100</v>
       </c>
       <c r="G26" s="3">
-        <v>33000</v>
+        <v>71200</v>
       </c>
       <c r="H26" s="3">
-        <v>25400</v>
+        <v>28500</v>
       </c>
       <c r="I26" s="3">
-        <v>-5900</v>
+        <v>21900</v>
       </c>
       <c r="J26" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K26" s="3">
         <v>5700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>10700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-4000</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-106500</v>
+        <v>-75300</v>
       </c>
       <c r="E27" s="3">
-        <v>-133300</v>
+        <v>-179200</v>
       </c>
       <c r="F27" s="3">
-        <v>82400</v>
+        <v>-115100</v>
       </c>
       <c r="G27" s="3">
-        <v>33000</v>
+        <v>71200</v>
       </c>
       <c r="H27" s="3">
-        <v>25400</v>
+        <v>28500</v>
       </c>
       <c r="I27" s="3">
-        <v>-5900</v>
+        <v>21900</v>
       </c>
       <c r="J27" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K27" s="3">
         <v>5700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>10700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1497,17 +1557,20 @@
         <v>0</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>-1200</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>300</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>-3700</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-16900</v>
+        <v>-179500</v>
       </c>
       <c r="E32" s="3">
-        <v>-13700</v>
+        <v>-48500</v>
       </c>
       <c r="F32" s="3">
-        <v>-148100</v>
+        <v>-11900</v>
       </c>
       <c r="G32" s="3">
-        <v>32900</v>
+        <v>-128000</v>
       </c>
       <c r="H32" s="3">
-        <v>7300</v>
+        <v>28400</v>
       </c>
       <c r="I32" s="3">
-        <v>4300</v>
+        <v>6300</v>
       </c>
       <c r="J32" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K32" s="3">
         <v>3400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2000</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-106500</v>
+        <v>-75300</v>
       </c>
       <c r="E33" s="3">
-        <v>-133300</v>
+        <v>-179200</v>
       </c>
       <c r="F33" s="3">
-        <v>82400</v>
+        <v>-115100</v>
       </c>
       <c r="G33" s="3">
-        <v>33000</v>
+        <v>71200</v>
       </c>
       <c r="H33" s="3">
-        <v>25400</v>
+        <v>28500</v>
       </c>
       <c r="I33" s="3">
-        <v>-5900</v>
+        <v>21900</v>
       </c>
       <c r="J33" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K33" s="3">
         <v>5700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>9500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3800</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-106500</v>
+        <v>-75300</v>
       </c>
       <c r="E35" s="3">
-        <v>-133300</v>
+        <v>-179200</v>
       </c>
       <c r="F35" s="3">
-        <v>82400</v>
+        <v>-115100</v>
       </c>
       <c r="G35" s="3">
-        <v>33000</v>
+        <v>71200</v>
       </c>
       <c r="H35" s="3">
-        <v>25400</v>
+        <v>28500</v>
       </c>
       <c r="I35" s="3">
-        <v>-5900</v>
+        <v>21900</v>
       </c>
       <c r="J35" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K35" s="3">
         <v>5700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>9500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3800</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,242 +1903,261 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>66300</v>
+        <v>71600</v>
       </c>
       <c r="E41" s="3">
-        <v>32800</v>
+        <v>81900</v>
       </c>
       <c r="F41" s="3">
-        <v>21700</v>
+        <v>28400</v>
       </c>
       <c r="G41" s="3">
-        <v>900</v>
+        <v>18800</v>
       </c>
       <c r="H41" s="3">
-        <v>12800</v>
+        <v>800</v>
       </c>
       <c r="I41" s="3">
-        <v>9300</v>
+        <v>11100</v>
       </c>
       <c r="J41" s="3">
+        <v>8000</v>
+      </c>
+      <c r="K41" s="3">
         <v>6700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>2400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3400</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>62000</v>
+        <v>59100</v>
       </c>
       <c r="E42" s="3">
-        <v>17300</v>
+        <v>76500</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G42" s="3">
-        <v>34500</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>9200</v>
+        <v>29800</v>
       </c>
       <c r="I42" s="3">
-        <v>1900</v>
+        <v>8000</v>
       </c>
       <c r="J42" s="3">
         <v>1700</v>
       </c>
       <c r="K42" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L42" s="3">
         <v>200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1400</v>
-      </c>
-      <c r="M42" s="3">
-        <v>100</v>
       </c>
       <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>100</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>131300</v>
+        <v>196900</v>
       </c>
       <c r="E43" s="3">
-        <v>109500</v>
+        <v>162100</v>
       </c>
       <c r="F43" s="3">
-        <v>85900</v>
+        <v>94600</v>
       </c>
       <c r="G43" s="3">
-        <v>59400</v>
+        <v>74200</v>
       </c>
       <c r="H43" s="3">
-        <v>43000</v>
+        <v>51300</v>
       </c>
       <c r="I43" s="3">
-        <v>20200</v>
+        <v>37200</v>
       </c>
       <c r="J43" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K43" s="3">
         <v>10000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>10200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>15900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>32900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>28600</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>23400</v>
+        <v>29100</v>
       </c>
       <c r="E44" s="3">
-        <v>14100</v>
+        <v>29000</v>
       </c>
       <c r="F44" s="3">
-        <v>24900</v>
+        <v>12600</v>
       </c>
       <c r="G44" s="3">
-        <v>18300</v>
+        <v>21500</v>
       </c>
       <c r="H44" s="3">
-        <v>3200</v>
+        <v>16400</v>
       </c>
       <c r="I44" s="3">
-        <v>1400</v>
+        <v>2800</v>
       </c>
       <c r="J44" s="3">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
       </c>
       <c r="L44" s="3">
+        <v>700</v>
+      </c>
+      <c r="M44" s="3">
         <v>1000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1800</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2700</v>
+        <v>3000</v>
       </c>
       <c r="E45" s="3">
-        <v>1800</v>
+        <v>3200</v>
       </c>
       <c r="F45" s="3">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="3">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
+        <v>100</v>
+      </c>
+      <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
-        <v>300</v>
-      </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>4700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8300</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>285700</v>
+        <v>359700</v>
       </c>
       <c r="E46" s="3">
-        <v>175500</v>
+        <v>352600</v>
       </c>
       <c r="F46" s="3">
-        <v>121400</v>
+        <v>151600</v>
       </c>
       <c r="G46" s="3">
-        <v>105200</v>
+        <v>104900</v>
       </c>
       <c r="H46" s="3">
-        <v>68600</v>
+        <v>90800</v>
       </c>
       <c r="I46" s="3">
-        <v>33000</v>
+        <v>59300</v>
       </c>
       <c r="J46" s="3">
+        <v>28500</v>
+      </c>
+      <c r="K46" s="3">
         <v>19300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>15100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>23100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>20800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>21900</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2061,77 +2165,83 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>13300</v>
+        <v>200</v>
       </c>
       <c r="F47" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G47" s="3">
+        <v>200</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5400</v>
+      </c>
+      <c r="I47" s="3">
         <v>300</v>
       </c>
-      <c r="G47" s="3">
-        <v>6200</v>
-      </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>400</v>
       </c>
-      <c r="I47" s="3">
-        <v>500</v>
-      </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>2300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>2400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3100</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>1200</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1332000</v>
+        <v>1709500</v>
       </c>
       <c r="E48" s="3">
-        <v>942200</v>
+        <v>1643900</v>
       </c>
       <c r="F48" s="3">
-        <v>689900</v>
+        <v>813800</v>
       </c>
       <c r="G48" s="3">
-        <v>479400</v>
+        <v>595900</v>
       </c>
       <c r="H48" s="3">
-        <v>284700</v>
+        <v>414100</v>
       </c>
       <c r="I48" s="3">
-        <v>55900</v>
+        <v>245900</v>
       </c>
       <c r="J48" s="3">
+        <v>48300</v>
+      </c>
+      <c r="K48" s="3">
         <v>44300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>61100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>64000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>194700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>230700</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2163,14 +2273,17 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
         <v>23000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>33900</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,9 +2362,12 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2264,30 +2383,33 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
-        <v>5900</v>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I52" s="3">
         <v>5100</v>
       </c>
       <c r="J52" s="3">
+        <v>4400</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>7000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>35800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1617800</v>
+        <v>2069400</v>
       </c>
       <c r="E54" s="3">
-        <v>1120300</v>
+        <v>1996700</v>
       </c>
       <c r="F54" s="3">
-        <v>811500</v>
+        <v>967600</v>
       </c>
       <c r="G54" s="3">
-        <v>590800</v>
+        <v>700900</v>
       </c>
       <c r="H54" s="3">
-        <v>353700</v>
+        <v>510300</v>
       </c>
       <c r="I54" s="3">
-        <v>94500</v>
+        <v>305500</v>
       </c>
       <c r="J54" s="3">
+        <v>81600</v>
+      </c>
+      <c r="K54" s="3">
         <v>64800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>79300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>89600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>113600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>183600</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>518200</v>
+        <v>775000</v>
       </c>
       <c r="E57" s="3">
-        <v>248600</v>
+        <v>639600</v>
       </c>
       <c r="F57" s="3">
-        <v>86300</v>
+        <v>214700</v>
       </c>
       <c r="G57" s="3">
-        <v>112100</v>
+        <v>74500</v>
       </c>
       <c r="H57" s="3">
-        <v>67800</v>
+        <v>96800</v>
       </c>
       <c r="I57" s="3">
-        <v>34000</v>
+        <v>58500</v>
       </c>
       <c r="J57" s="3">
+        <v>29400</v>
+      </c>
+      <c r="K57" s="3">
         <v>22300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>30300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>30600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>37600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>11600</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>71600</v>
+        <v>2800</v>
       </c>
       <c r="E58" s="3">
-        <v>2200</v>
+        <v>88400</v>
       </c>
       <c r="F58" s="3">
-        <v>12200</v>
+        <v>1900</v>
       </c>
       <c r="G58" s="3">
-        <v>8300</v>
+        <v>10500</v>
       </c>
       <c r="H58" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I58" s="3">
         <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3100</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>73500</v>
+        <v>78900</v>
       </c>
       <c r="E59" s="3">
-        <v>66700</v>
+        <v>90700</v>
       </c>
       <c r="F59" s="3">
-        <v>68500</v>
+        <v>57600</v>
       </c>
       <c r="G59" s="3">
-        <v>40600</v>
+        <v>59200</v>
       </c>
       <c r="H59" s="3">
-        <v>24100</v>
+        <v>35100</v>
       </c>
       <c r="I59" s="3">
-        <v>13400</v>
+        <v>20800</v>
       </c>
       <c r="J59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="K59" s="3">
         <v>5800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>29000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>24000</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>663400</v>
+        <v>856600</v>
       </c>
       <c r="E60" s="3">
-        <v>317500</v>
+        <v>818700</v>
       </c>
       <c r="F60" s="3">
-        <v>167000</v>
+        <v>274200</v>
       </c>
       <c r="G60" s="3">
-        <v>161000</v>
+        <v>144200</v>
       </c>
       <c r="H60" s="3">
-        <v>92400</v>
+        <v>139000</v>
       </c>
       <c r="I60" s="3">
-        <v>47700</v>
+        <v>79800</v>
       </c>
       <c r="J60" s="3">
+        <v>41200</v>
+      </c>
+      <c r="K60" s="3">
         <v>28300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>39800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>40500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>35100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>32900</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>62700</v>
       </c>
       <c r="E61" s="3">
-        <v>62200</v>
+        <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>55700</v>
+        <v>53700</v>
       </c>
       <c r="G61" s="3">
-        <v>55200</v>
+        <v>48100</v>
       </c>
       <c r="H61" s="3">
-        <v>30900</v>
+        <v>47700</v>
       </c>
       <c r="I61" s="3">
-        <v>13800</v>
+        <v>26700</v>
       </c>
       <c r="J61" s="3">
+        <v>11900</v>
+      </c>
+      <c r="K61" s="3">
         <v>12300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>14700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>16200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>22300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>31200</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>453200</v>
+        <v>608500</v>
       </c>
       <c r="E62" s="3">
-        <v>267100</v>
+        <v>559300</v>
       </c>
       <c r="F62" s="3">
-        <v>187100</v>
+        <v>230700</v>
       </c>
       <c r="G62" s="3">
-        <v>137000</v>
+        <v>161600</v>
       </c>
       <c r="H62" s="3">
-        <v>91700</v>
+        <v>118300</v>
       </c>
       <c r="I62" s="3">
-        <v>31100</v>
+        <v>79200</v>
       </c>
       <c r="J62" s="3">
+        <v>26900</v>
+      </c>
+      <c r="K62" s="3">
         <v>16500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>21300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>18400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>47100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>60100</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1116500</v>
+        <v>1527700</v>
       </c>
       <c r="E66" s="3">
-        <v>646700</v>
+        <v>1378000</v>
       </c>
       <c r="F66" s="3">
-        <v>409700</v>
+        <v>558600</v>
       </c>
       <c r="G66" s="3">
-        <v>353100</v>
+        <v>353900</v>
       </c>
       <c r="H66" s="3">
-        <v>215000</v>
+        <v>305000</v>
       </c>
       <c r="I66" s="3">
-        <v>92700</v>
+        <v>185700</v>
       </c>
       <c r="J66" s="3">
+        <v>80000</v>
+      </c>
+      <c r="K66" s="3">
         <v>57200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>75800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>75000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>106700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>146100</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>137800</v>
+        <v>94800</v>
       </c>
       <c r="E72" s="3">
-        <v>207600</v>
+        <v>170100</v>
       </c>
       <c r="F72" s="3">
-        <v>225900</v>
+        <v>179300</v>
       </c>
       <c r="G72" s="3">
-        <v>105400</v>
+        <v>195100</v>
       </c>
       <c r="H72" s="3">
-        <v>47400</v>
+        <v>91000</v>
       </c>
       <c r="I72" s="3">
-        <v>-4600</v>
+        <v>40900</v>
       </c>
       <c r="J72" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="K72" s="3">
         <v>1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-1400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-14600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12400</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>501300</v>
+        <v>541600</v>
       </c>
       <c r="E76" s="3">
-        <v>473600</v>
+        <v>618700</v>
       </c>
       <c r="F76" s="3">
-        <v>401800</v>
+        <v>409000</v>
       </c>
       <c r="G76" s="3">
-        <v>237600</v>
+        <v>347000</v>
       </c>
       <c r="H76" s="3">
-        <v>138700</v>
+        <v>205200</v>
       </c>
       <c r="I76" s="3">
-        <v>1800</v>
+        <v>119800</v>
       </c>
       <c r="J76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K76" s="3">
         <v>7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>37500</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-106500</v>
+        <v>-75300</v>
       </c>
       <c r="E81" s="3">
-        <v>-133300</v>
+        <v>-179200</v>
       </c>
       <c r="F81" s="3">
-        <v>82400</v>
+        <v>-115100</v>
       </c>
       <c r="G81" s="3">
-        <v>33000</v>
+        <v>71200</v>
       </c>
       <c r="H81" s="3">
-        <v>25400</v>
+        <v>28500</v>
       </c>
       <c r="I81" s="3">
-        <v>-5900</v>
+        <v>21900</v>
       </c>
       <c r="J81" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K81" s="3">
         <v>5700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>9500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3800</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>47700</v>
+        <v>82900</v>
       </c>
       <c r="E83" s="3">
-        <v>51300</v>
+        <v>80300</v>
       </c>
       <c r="F83" s="3">
-        <v>32500</v>
+        <v>44300</v>
       </c>
       <c r="G83" s="3">
-        <v>19700</v>
+        <v>28100</v>
       </c>
       <c r="H83" s="3">
-        <v>10700</v>
+        <v>17000</v>
       </c>
       <c r="I83" s="3">
-        <v>1800</v>
+        <v>9300</v>
       </c>
       <c r="J83" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>2200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>2600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>3600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5100</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>106500</v>
+        <v>152600</v>
       </c>
       <c r="E89" s="3">
-        <v>133200</v>
+        <v>179200</v>
       </c>
       <c r="F89" s="3">
-        <v>69000</v>
+        <v>115100</v>
       </c>
       <c r="G89" s="3">
-        <v>80200</v>
+        <v>59600</v>
       </c>
       <c r="H89" s="3">
-        <v>36800</v>
+        <v>69300</v>
       </c>
       <c r="I89" s="3">
-        <v>14600</v>
+        <v>31800</v>
       </c>
       <c r="J89" s="3">
+        <v>12600</v>
+      </c>
+      <c r="K89" s="3">
         <v>15000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>14200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>17900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>9400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>17300</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-73500</v>
+        <v>-136700</v>
       </c>
       <c r="E91" s="3">
-        <v>-74100</v>
+        <v>-123600</v>
       </c>
       <c r="F91" s="3">
-        <v>-63600</v>
+        <v>-64000</v>
       </c>
       <c r="G91" s="3">
-        <v>-65600</v>
+        <v>-55000</v>
       </c>
       <c r="H91" s="3">
-        <v>-39400</v>
+        <v>-56700</v>
       </c>
       <c r="I91" s="3">
-        <v>-12300</v>
+        <v>-34000</v>
       </c>
       <c r="J91" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="K91" s="3">
         <v>-10500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-25600</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-127500</v>
+        <v>-161000</v>
       </c>
       <c r="E94" s="3">
-        <v>-93700</v>
+        <v>-214500</v>
       </c>
       <c r="F94" s="3">
-        <v>-35000</v>
+        <v>-81000</v>
       </c>
       <c r="G94" s="3">
-        <v>-66100</v>
+        <v>-30300</v>
       </c>
       <c r="H94" s="3">
-        <v>-42500</v>
+        <v>-57100</v>
       </c>
       <c r="I94" s="3">
-        <v>-11800</v>
+        <v>-36700</v>
       </c>
       <c r="J94" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-15500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-13700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-9800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-20800</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,8 +3990,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3791,14 +4024,17 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-1000</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-7200</v>
+        <v>-20500</v>
       </c>
       <c r="E100" s="3">
-        <v>-46300</v>
+        <v>-12100</v>
       </c>
       <c r="F100" s="3">
-        <v>-34500</v>
+        <v>-40000</v>
       </c>
       <c r="G100" s="3">
-        <v>-16100</v>
+        <v>-29800</v>
       </c>
       <c r="H100" s="3">
-        <v>4300</v>
+        <v>-13900</v>
       </c>
       <c r="I100" s="3">
-        <v>-2500</v>
+        <v>3700</v>
       </c>
       <c r="J100" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-1400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-2200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>400</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>11100</v>
+        <v>9400</v>
       </c>
       <c r="E101" s="3">
-        <v>6900</v>
+        <v>18700</v>
       </c>
       <c r="F101" s="3">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G101" s="3">
-        <v>1200</v>
+        <v>2600</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
       <c r="L101" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3" t="s">
+      <c r="N101" s="3">
+        <v>100</v>
+      </c>
+      <c r="O101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-17000</v>
+        <v>-19600</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-28600</v>
       </c>
       <c r="F102" s="3">
-        <v>2500</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>-700</v>
+        <v>2200</v>
       </c>
       <c r="H102" s="3">
-        <v>-1300</v>
+        <v>-600</v>
       </c>
       <c r="I102" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J102" s="3">
         <v>600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-3000</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>887100</v>
+        <v>588700</v>
       </c>
       <c r="E8" s="3">
-        <v>952900</v>
+        <v>632300</v>
       </c>
       <c r="F8" s="3">
-        <v>593800</v>
+        <v>394100</v>
       </c>
       <c r="G8" s="3">
-        <v>527700</v>
+        <v>350200</v>
       </c>
       <c r="H8" s="3">
-        <v>370800</v>
+        <v>246100</v>
       </c>
       <c r="I8" s="3">
-        <v>170700</v>
+        <v>113300</v>
       </c>
       <c r="J8" s="3">
-        <v>56400</v>
+        <v>37400</v>
       </c>
       <c r="K8" s="3">
         <v>19000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>617300</v>
+        <v>409600</v>
       </c>
       <c r="E9" s="3">
-        <v>586000</v>
+        <v>388900</v>
       </c>
       <c r="F9" s="3">
-        <v>376700</v>
+        <v>250000</v>
       </c>
       <c r="G9" s="3">
-        <v>334700</v>
+        <v>222100</v>
       </c>
       <c r="H9" s="3">
-        <v>211300</v>
+        <v>140200</v>
       </c>
       <c r="I9" s="3">
-        <v>89700</v>
+        <v>59500</v>
       </c>
       <c r="J9" s="3">
-        <v>26100</v>
+        <v>17300</v>
       </c>
       <c r="K9" s="3">
         <v>10100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>269800</v>
+        <v>179100</v>
       </c>
       <c r="E10" s="3">
-        <v>366900</v>
+        <v>243500</v>
       </c>
       <c r="F10" s="3">
-        <v>217100</v>
+        <v>144100</v>
       </c>
       <c r="G10" s="3">
-        <v>193000</v>
+        <v>128100</v>
       </c>
       <c r="H10" s="3">
-        <v>159600</v>
+        <v>105900</v>
       </c>
       <c r="I10" s="3">
-        <v>81000</v>
+        <v>53700</v>
       </c>
       <c r="J10" s="3">
-        <v>30300</v>
+        <v>20100</v>
       </c>
       <c r="K10" s="3">
         <v>8900</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="E14" s="3">
-        <v>2100</v>
+        <v>1400</v>
       </c>
       <c r="F14" s="3">
-        <v>114100</v>
+        <v>75700</v>
       </c>
       <c r="G14" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H14" s="3">
-        <v>-55200</v>
+        <v>-36700</v>
       </c>
       <c r="I14" s="3">
-        <v>-23500</v>
+        <v>-15600</v>
       </c>
       <c r="J14" s="3">
-        <v>-6800</v>
+        <v>-4500</v>
       </c>
       <c r="K14" s="3">
         <v>-27800</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>82900</v>
+        <v>55000</v>
       </c>
       <c r="E15" s="3">
-        <v>80300</v>
+        <v>53300</v>
       </c>
       <c r="F15" s="3">
-        <v>44300</v>
+        <v>29400</v>
       </c>
       <c r="G15" s="3">
-        <v>28100</v>
+        <v>18600</v>
       </c>
       <c r="H15" s="3">
-        <v>17000</v>
+        <v>11300</v>
       </c>
       <c r="I15" s="3">
-        <v>9300</v>
+        <v>6100</v>
       </c>
       <c r="J15" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K15" s="3">
         <v>1400</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1021800</v>
+        <v>678100</v>
       </c>
       <c r="E17" s="3">
-        <v>989800</v>
+        <v>656800</v>
       </c>
       <c r="F17" s="3">
-        <v>723400</v>
+        <v>480000</v>
       </c>
       <c r="G17" s="3">
-        <v>499800</v>
+        <v>331700</v>
       </c>
       <c r="H17" s="3">
-        <v>288400</v>
+        <v>191300</v>
       </c>
       <c r="I17" s="3">
-        <v>136700</v>
+        <v>90700</v>
       </c>
       <c r="J17" s="3">
-        <v>59200</v>
+        <v>39300</v>
       </c>
       <c r="K17" s="3">
         <v>7800</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-134700</v>
+        <v>-89400</v>
       </c>
       <c r="E18" s="3">
-        <v>-36900</v>
+        <v>-24500</v>
       </c>
       <c r="F18" s="3">
-        <v>-129500</v>
+        <v>-85900</v>
       </c>
       <c r="G18" s="3">
-        <v>27900</v>
+        <v>18500</v>
       </c>
       <c r="H18" s="3">
-        <v>82500</v>
+        <v>54700</v>
       </c>
       <c r="I18" s="3">
-        <v>33900</v>
+        <v>22500</v>
       </c>
       <c r="J18" s="3">
-        <v>-2800</v>
+        <v>-1900</v>
       </c>
       <c r="K18" s="3">
         <v>11200</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>179500</v>
+        <v>119100</v>
       </c>
       <c r="E20" s="3">
-        <v>48500</v>
+        <v>32200</v>
       </c>
       <c r="F20" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="G20" s="3">
-        <v>128000</v>
+        <v>84900</v>
       </c>
       <c r="H20" s="3">
-        <v>-28400</v>
+        <v>-18800</v>
       </c>
       <c r="I20" s="3">
-        <v>-6300</v>
+        <v>-4200</v>
       </c>
       <c r="J20" s="3">
-        <v>-3700</v>
+        <v>-2500</v>
       </c>
       <c r="K20" s="3">
         <v>-3400</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>127900</v>
+        <v>84700</v>
       </c>
       <c r="E21" s="3">
-        <v>92100</v>
+        <v>61000</v>
       </c>
       <c r="F21" s="3">
-        <v>-73200</v>
+        <v>-48600</v>
       </c>
       <c r="G21" s="3">
-        <v>184000</v>
+        <v>122000</v>
       </c>
       <c r="H21" s="3">
-        <v>71100</v>
+        <v>47200</v>
       </c>
       <c r="I21" s="3">
-        <v>36900</v>
+        <v>24500</v>
       </c>
       <c r="J21" s="3">
-        <v>-5000</v>
+        <v>-3300</v>
       </c>
       <c r="K21" s="3">
         <v>9200</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>56200</v>
+        <v>37300</v>
       </c>
       <c r="E22" s="3">
-        <v>59600</v>
+        <v>39500</v>
       </c>
       <c r="F22" s="3">
-        <v>20600</v>
+        <v>13700</v>
       </c>
       <c r="G22" s="3">
-        <v>22000</v>
+        <v>14600</v>
       </c>
       <c r="H22" s="3">
-        <v>13200</v>
+        <v>8700</v>
       </c>
       <c r="I22" s="3">
-        <v>3500</v>
+        <v>2300</v>
       </c>
       <c r="J22" s="3">
-        <v>1800</v>
+        <v>1200</v>
       </c>
       <c r="K22" s="3">
         <v>1200</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11400</v>
+        <v>-7500</v>
       </c>
       <c r="E23" s="3">
-        <v>-47900</v>
+        <v>-31800</v>
       </c>
       <c r="F23" s="3">
-        <v>-138300</v>
+        <v>-91700</v>
       </c>
       <c r="G23" s="3">
-        <v>133800</v>
+        <v>88800</v>
       </c>
       <c r="H23" s="3">
-        <v>40900</v>
+        <v>27200</v>
       </c>
       <c r="I23" s="3">
-        <v>24100</v>
+        <v>16000</v>
       </c>
       <c r="J23" s="3">
-        <v>-8300</v>
+        <v>-5500</v>
       </c>
       <c r="K23" s="3">
         <v>6600</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>63900</v>
+        <v>42400</v>
       </c>
       <c r="E24" s="3">
-        <v>131300</v>
+        <v>87100</v>
       </c>
       <c r="F24" s="3">
-        <v>-23200</v>
+        <v>-15400</v>
       </c>
       <c r="G24" s="3">
-        <v>62600</v>
+        <v>41600</v>
       </c>
       <c r="H24" s="3">
-        <v>12400</v>
+        <v>8300</v>
       </c>
       <c r="I24" s="3">
-        <v>2200</v>
+        <v>1500</v>
       </c>
       <c r="J24" s="3">
-        <v>-3200</v>
+        <v>-2100</v>
       </c>
       <c r="K24" s="3">
         <v>900</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-75300</v>
+        <v>-50000</v>
       </c>
       <c r="E26" s="3">
-        <v>-179200</v>
+        <v>-118900</v>
       </c>
       <c r="F26" s="3">
-        <v>-115100</v>
+        <v>-76400</v>
       </c>
       <c r="G26" s="3">
-        <v>71200</v>
+        <v>47200</v>
       </c>
       <c r="H26" s="3">
-        <v>28500</v>
+        <v>18900</v>
       </c>
       <c r="I26" s="3">
-        <v>21900</v>
+        <v>14500</v>
       </c>
       <c r="J26" s="3">
-        <v>-5100</v>
+        <v>-3400</v>
       </c>
       <c r="K26" s="3">
         <v>5700</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-75300</v>
+        <v>-50000</v>
       </c>
       <c r="E27" s="3">
-        <v>-179200</v>
+        <v>-118900</v>
       </c>
       <c r="F27" s="3">
-        <v>-115100</v>
+        <v>-76400</v>
       </c>
       <c r="G27" s="3">
-        <v>71200</v>
+        <v>47200</v>
       </c>
       <c r="H27" s="3">
-        <v>28500</v>
+        <v>18900</v>
       </c>
       <c r="I27" s="3">
-        <v>21900</v>
+        <v>14500</v>
       </c>
       <c r="J27" s="3">
-        <v>-5100</v>
+        <v>-3400</v>
       </c>
       <c r="K27" s="3">
         <v>5700</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-179500</v>
+        <v>-119100</v>
       </c>
       <c r="E32" s="3">
-        <v>-48500</v>
+        <v>-32200</v>
       </c>
       <c r="F32" s="3">
-        <v>-11900</v>
+        <v>-7900</v>
       </c>
       <c r="G32" s="3">
-        <v>-128000</v>
+        <v>-84900</v>
       </c>
       <c r="H32" s="3">
-        <v>28400</v>
+        <v>18800</v>
       </c>
       <c r="I32" s="3">
-        <v>6300</v>
+        <v>4200</v>
       </c>
       <c r="J32" s="3">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="K32" s="3">
         <v>3400</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-75300</v>
+        <v>-50000</v>
       </c>
       <c r="E33" s="3">
-        <v>-179200</v>
+        <v>-118900</v>
       </c>
       <c r="F33" s="3">
-        <v>-115100</v>
+        <v>-76400</v>
       </c>
       <c r="G33" s="3">
-        <v>71200</v>
+        <v>47200</v>
       </c>
       <c r="H33" s="3">
-        <v>28500</v>
+        <v>18900</v>
       </c>
       <c r="I33" s="3">
-        <v>21900</v>
+        <v>14500</v>
       </c>
       <c r="J33" s="3">
-        <v>-5100</v>
+        <v>-3400</v>
       </c>
       <c r="K33" s="3">
         <v>5700</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-75300</v>
+        <v>-50000</v>
       </c>
       <c r="E35" s="3">
-        <v>-179200</v>
+        <v>-118900</v>
       </c>
       <c r="F35" s="3">
-        <v>-115100</v>
+        <v>-76400</v>
       </c>
       <c r="G35" s="3">
-        <v>71200</v>
+        <v>47200</v>
       </c>
       <c r="H35" s="3">
-        <v>28500</v>
+        <v>18900</v>
       </c>
       <c r="I35" s="3">
-        <v>21900</v>
+        <v>14500</v>
       </c>
       <c r="J35" s="3">
-        <v>-5100</v>
+        <v>-3400</v>
       </c>
       <c r="K35" s="3">
         <v>5700</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>71600</v>
+        <v>47500</v>
       </c>
       <c r="E41" s="3">
-        <v>81900</v>
+        <v>54300</v>
       </c>
       <c r="F41" s="3">
-        <v>28400</v>
+        <v>18800</v>
       </c>
       <c r="G41" s="3">
-        <v>18800</v>
+        <v>12500</v>
       </c>
       <c r="H41" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>11100</v>
+        <v>7400</v>
       </c>
       <c r="J41" s="3">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="K41" s="3">
         <v>6700</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>59100</v>
+        <v>39200</v>
       </c>
       <c r="E42" s="3">
-        <v>76500</v>
+        <v>50800</v>
       </c>
       <c r="F42" s="3">
-        <v>15000</v>
+        <v>9900</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>29800</v>
+        <v>19800</v>
       </c>
       <c r="I42" s="3">
-        <v>8000</v>
+        <v>5300</v>
       </c>
       <c r="J42" s="3">
-        <v>1700</v>
+        <v>1100</v>
       </c>
       <c r="K42" s="3">
         <v>1700</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>196900</v>
+        <v>130700</v>
       </c>
       <c r="E43" s="3">
-        <v>162100</v>
+        <v>107600</v>
       </c>
       <c r="F43" s="3">
-        <v>94600</v>
+        <v>62800</v>
       </c>
       <c r="G43" s="3">
-        <v>74200</v>
+        <v>49200</v>
       </c>
       <c r="H43" s="3">
-        <v>51300</v>
+        <v>34000</v>
       </c>
       <c r="I43" s="3">
-        <v>37200</v>
+        <v>24700</v>
       </c>
       <c r="J43" s="3">
-        <v>17500</v>
+        <v>11600</v>
       </c>
       <c r="K43" s="3">
         <v>10000</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>29100</v>
+        <v>19300</v>
       </c>
       <c r="E44" s="3">
-        <v>29000</v>
+        <v>19200</v>
       </c>
       <c r="F44" s="3">
-        <v>12600</v>
+        <v>8400</v>
       </c>
       <c r="G44" s="3">
-        <v>21500</v>
+        <v>14300</v>
       </c>
       <c r="H44" s="3">
-        <v>16400</v>
+        <v>10900</v>
       </c>
       <c r="I44" s="3">
-        <v>2800</v>
+        <v>1900</v>
       </c>
       <c r="J44" s="3">
-        <v>1300</v>
+        <v>800</v>
       </c>
       <c r="K44" s="3">
         <v>700</v>
@@ -2078,22 +2078,22 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E45" s="3">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="F45" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="G45" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="H45" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>359700</v>
+        <v>238700</v>
       </c>
       <c r="E46" s="3">
-        <v>352600</v>
+        <v>234000</v>
       </c>
       <c r="F46" s="3">
-        <v>151600</v>
+        <v>100600</v>
       </c>
       <c r="G46" s="3">
-        <v>104900</v>
+        <v>69600</v>
       </c>
       <c r="H46" s="3">
-        <v>90800</v>
+        <v>60300</v>
       </c>
       <c r="I46" s="3">
-        <v>59300</v>
+        <v>39300</v>
       </c>
       <c r="J46" s="3">
-        <v>28500</v>
+        <v>18900</v>
       </c>
       <c r="K46" s="3">
         <v>19300</v>
@@ -2165,22 +2165,22 @@
         <v>100</v>
       </c>
       <c r="E47" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F47" s="3">
-        <v>11500</v>
+        <v>7600</v>
       </c>
       <c r="G47" s="3">
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>5400</v>
+        <v>3600</v>
       </c>
       <c r="I47" s="3">
+        <v>200</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
-      </c>
-      <c r="J47" s="3">
-        <v>400</v>
       </c>
       <c r="K47" s="3">
         <v>900</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1709500</v>
+        <v>1134400</v>
       </c>
       <c r="E48" s="3">
-        <v>1643900</v>
+        <v>1090800</v>
       </c>
       <c r="F48" s="3">
-        <v>813800</v>
+        <v>540000</v>
       </c>
       <c r="G48" s="3">
-        <v>595900</v>
+        <v>395400</v>
       </c>
       <c r="H48" s="3">
-        <v>414100</v>
+        <v>274800</v>
       </c>
       <c r="I48" s="3">
-        <v>245900</v>
+        <v>163200</v>
       </c>
       <c r="J48" s="3">
-        <v>48300</v>
+        <v>32000</v>
       </c>
       <c r="K48" s="3">
         <v>44300</v>
@@ -2387,10 +2387,10 @@
         <v>8</v>
       </c>
       <c r="I52" s="3">
-        <v>5100</v>
+        <v>3400</v>
       </c>
       <c r="J52" s="3">
-        <v>4400</v>
+        <v>2900</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2069400</v>
+        <v>1373200</v>
       </c>
       <c r="E54" s="3">
-        <v>1996700</v>
+        <v>1324900</v>
       </c>
       <c r="F54" s="3">
-        <v>967600</v>
+        <v>642100</v>
       </c>
       <c r="G54" s="3">
-        <v>700900</v>
+        <v>465100</v>
       </c>
       <c r="H54" s="3">
-        <v>510300</v>
+        <v>338600</v>
       </c>
       <c r="I54" s="3">
-        <v>305500</v>
+        <v>202700</v>
       </c>
       <c r="J54" s="3">
-        <v>81600</v>
+        <v>54100</v>
       </c>
       <c r="K54" s="3">
         <v>64800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>775000</v>
+        <v>514300</v>
       </c>
       <c r="E57" s="3">
-        <v>639600</v>
+        <v>424400</v>
       </c>
       <c r="F57" s="3">
-        <v>214700</v>
+        <v>142500</v>
       </c>
       <c r="G57" s="3">
-        <v>74500</v>
+        <v>49400</v>
       </c>
       <c r="H57" s="3">
-        <v>96800</v>
+        <v>64200</v>
       </c>
       <c r="I57" s="3">
-        <v>58500</v>
+        <v>38800</v>
       </c>
       <c r="J57" s="3">
-        <v>29400</v>
+        <v>19500</v>
       </c>
       <c r="K57" s="3">
         <v>22300</v>
@@ -2576,22 +2576,22 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2800</v>
+        <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>88400</v>
+        <v>58700</v>
       </c>
       <c r="F58" s="3">
-        <v>1900</v>
+        <v>1200</v>
       </c>
       <c r="G58" s="3">
-        <v>10500</v>
+        <v>7000</v>
       </c>
       <c r="H58" s="3">
-        <v>7100</v>
+        <v>4700</v>
       </c>
       <c r="I58" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>78900</v>
+        <v>52300</v>
       </c>
       <c r="E59" s="3">
-        <v>90700</v>
+        <v>60200</v>
       </c>
       <c r="F59" s="3">
-        <v>57600</v>
+        <v>38200</v>
       </c>
       <c r="G59" s="3">
-        <v>59200</v>
+        <v>39300</v>
       </c>
       <c r="H59" s="3">
-        <v>35100</v>
+        <v>23300</v>
       </c>
       <c r="I59" s="3">
-        <v>20800</v>
+        <v>13800</v>
       </c>
       <c r="J59" s="3">
-        <v>11600</v>
+        <v>7700</v>
       </c>
       <c r="K59" s="3">
         <v>5800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>856600</v>
+        <v>568400</v>
       </c>
       <c r="E60" s="3">
-        <v>818700</v>
+        <v>543300</v>
       </c>
       <c r="F60" s="3">
-        <v>274200</v>
+        <v>182000</v>
       </c>
       <c r="G60" s="3">
-        <v>144200</v>
+        <v>95700</v>
       </c>
       <c r="H60" s="3">
-        <v>139000</v>
+        <v>92300</v>
       </c>
       <c r="I60" s="3">
-        <v>79800</v>
+        <v>53000</v>
       </c>
       <c r="J60" s="3">
-        <v>41200</v>
+        <v>27400</v>
       </c>
       <c r="K60" s="3">
         <v>28300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62700</v>
+        <v>41600</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>53700</v>
+        <v>35600</v>
       </c>
       <c r="G61" s="3">
-        <v>48100</v>
+        <v>31900</v>
       </c>
       <c r="H61" s="3">
-        <v>47700</v>
+        <v>31600</v>
       </c>
       <c r="I61" s="3">
-        <v>26700</v>
+        <v>17700</v>
       </c>
       <c r="J61" s="3">
-        <v>11900</v>
+        <v>7900</v>
       </c>
       <c r="K61" s="3">
         <v>12300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>608500</v>
+        <v>403800</v>
       </c>
       <c r="E62" s="3">
-        <v>559300</v>
+        <v>371100</v>
       </c>
       <c r="F62" s="3">
-        <v>230700</v>
+        <v>153100</v>
       </c>
       <c r="G62" s="3">
-        <v>161600</v>
+        <v>107200</v>
       </c>
       <c r="H62" s="3">
-        <v>118300</v>
+        <v>78500</v>
       </c>
       <c r="I62" s="3">
-        <v>79200</v>
+        <v>52600</v>
       </c>
       <c r="J62" s="3">
-        <v>26900</v>
+        <v>17800</v>
       </c>
       <c r="K62" s="3">
         <v>16500</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1527700</v>
+        <v>1013800</v>
       </c>
       <c r="E66" s="3">
-        <v>1378000</v>
+        <v>914400</v>
       </c>
       <c r="F66" s="3">
-        <v>558600</v>
+        <v>370700</v>
       </c>
       <c r="G66" s="3">
-        <v>353900</v>
+        <v>234800</v>
       </c>
       <c r="H66" s="3">
-        <v>305000</v>
+        <v>202400</v>
       </c>
       <c r="I66" s="3">
-        <v>185700</v>
+        <v>123200</v>
       </c>
       <c r="J66" s="3">
-        <v>80000</v>
+        <v>53100</v>
       </c>
       <c r="K66" s="3">
         <v>57200</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>94800</v>
+        <v>62900</v>
       </c>
       <c r="E72" s="3">
-        <v>170100</v>
+        <v>112900</v>
       </c>
       <c r="F72" s="3">
-        <v>179300</v>
+        <v>119000</v>
       </c>
       <c r="G72" s="3">
-        <v>195100</v>
+        <v>129500</v>
       </c>
       <c r="H72" s="3">
-        <v>91000</v>
+        <v>60400</v>
       </c>
       <c r="I72" s="3">
-        <v>40900</v>
+        <v>27200</v>
       </c>
       <c r="J72" s="3">
-        <v>-4000</v>
+        <v>-2600</v>
       </c>
       <c r="K72" s="3">
         <v>1200</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>541600</v>
+        <v>359400</v>
       </c>
       <c r="E76" s="3">
-        <v>618700</v>
+        <v>410600</v>
       </c>
       <c r="F76" s="3">
-        <v>409000</v>
+        <v>271400</v>
       </c>
       <c r="G76" s="3">
-        <v>347000</v>
+        <v>230300</v>
       </c>
       <c r="H76" s="3">
-        <v>205200</v>
+        <v>136200</v>
       </c>
       <c r="I76" s="3">
-        <v>119800</v>
+        <v>79500</v>
       </c>
       <c r="J76" s="3">
-        <v>1600</v>
+        <v>1000</v>
       </c>
       <c r="K76" s="3">
         <v>7600</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-75300</v>
+        <v>-50000</v>
       </c>
       <c r="E81" s="3">
-        <v>-179200</v>
+        <v>-118900</v>
       </c>
       <c r="F81" s="3">
-        <v>-115100</v>
+        <v>-76400</v>
       </c>
       <c r="G81" s="3">
-        <v>71200</v>
+        <v>47200</v>
       </c>
       <c r="H81" s="3">
-        <v>28500</v>
+        <v>18900</v>
       </c>
       <c r="I81" s="3">
-        <v>21900</v>
+        <v>14500</v>
       </c>
       <c r="J81" s="3">
-        <v>-5100</v>
+        <v>-3400</v>
       </c>
       <c r="K81" s="3">
         <v>5700</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>82900</v>
+        <v>55000</v>
       </c>
       <c r="E83" s="3">
-        <v>80300</v>
+        <v>53300</v>
       </c>
       <c r="F83" s="3">
-        <v>44300</v>
+        <v>29400</v>
       </c>
       <c r="G83" s="3">
-        <v>28100</v>
+        <v>18600</v>
       </c>
       <c r="H83" s="3">
-        <v>17000</v>
+        <v>11300</v>
       </c>
       <c r="I83" s="3">
-        <v>9300</v>
+        <v>6100</v>
       </c>
       <c r="J83" s="3">
-        <v>1500</v>
+        <v>1000</v>
       </c>
       <c r="K83" s="3">
         <v>1400</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>152600</v>
+        <v>101200</v>
       </c>
       <c r="E89" s="3">
-        <v>179200</v>
+        <v>118900</v>
       </c>
       <c r="F89" s="3">
-        <v>115100</v>
+        <v>76300</v>
       </c>
       <c r="G89" s="3">
-        <v>59600</v>
+        <v>39500</v>
       </c>
       <c r="H89" s="3">
-        <v>69300</v>
+        <v>46000</v>
       </c>
       <c r="I89" s="3">
-        <v>31800</v>
+        <v>21100</v>
       </c>
       <c r="J89" s="3">
-        <v>12600</v>
+        <v>8400</v>
       </c>
       <c r="K89" s="3">
         <v>15000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-136700</v>
+        <v>-90700</v>
       </c>
       <c r="E91" s="3">
-        <v>-123600</v>
+        <v>-82000</v>
       </c>
       <c r="F91" s="3">
-        <v>-64000</v>
+        <v>-42500</v>
       </c>
       <c r="G91" s="3">
-        <v>-55000</v>
+        <v>-36500</v>
       </c>
       <c r="H91" s="3">
-        <v>-56700</v>
+        <v>-37600</v>
       </c>
       <c r="I91" s="3">
-        <v>-34000</v>
+        <v>-22600</v>
       </c>
       <c r="J91" s="3">
-        <v>-10700</v>
+        <v>-7100</v>
       </c>
       <c r="K91" s="3">
         <v>-10500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-161000</v>
+        <v>-106800</v>
       </c>
       <c r="E94" s="3">
-        <v>-214500</v>
+        <v>-142300</v>
       </c>
       <c r="F94" s="3">
-        <v>-81000</v>
+        <v>-53700</v>
       </c>
       <c r="G94" s="3">
-        <v>-30300</v>
+        <v>-20100</v>
       </c>
       <c r="H94" s="3">
-        <v>-57100</v>
+        <v>-37900</v>
       </c>
       <c r="I94" s="3">
-        <v>-36700</v>
+        <v>-24300</v>
       </c>
       <c r="J94" s="3">
-        <v>-10200</v>
+        <v>-6800</v>
       </c>
       <c r="K94" s="3">
         <v>-15500</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20500</v>
+        <v>-13600</v>
       </c>
       <c r="E100" s="3">
-        <v>-12100</v>
+        <v>-8000</v>
       </c>
       <c r="F100" s="3">
-        <v>-40000</v>
+        <v>-26500</v>
       </c>
       <c r="G100" s="3">
-        <v>-29800</v>
+        <v>-19700</v>
       </c>
       <c r="H100" s="3">
-        <v>-13900</v>
+        <v>-9200</v>
       </c>
       <c r="I100" s="3">
-        <v>3700</v>
+        <v>2500</v>
       </c>
       <c r="J100" s="3">
-        <v>-2100</v>
+        <v>-1400</v>
       </c>
       <c r="K100" s="3">
         <v>200</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9400</v>
+        <v>6200</v>
       </c>
       <c r="E101" s="3">
-        <v>18700</v>
+        <v>12400</v>
       </c>
       <c r="F101" s="3">
-        <v>6000</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
-        <v>2600</v>
+        <v>1700</v>
       </c>
       <c r="H101" s="3">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
       <c r="J101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-19600</v>
+        <v>-13000</v>
       </c>
       <c r="E102" s="3">
-        <v>-28600</v>
+        <v>-19000</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="H102" s="3">
-        <v>-600</v>
+        <v>-400</v>
       </c>
       <c r="I102" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="J102" s="3">
-        <v>600</v>
+        <v>400</v>
       </c>
       <c r="K102" s="3">
         <v>-300</v>

--- a/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/EDN_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>588700</v>
+        <v>582500</v>
       </c>
       <c r="E8" s="3">
-        <v>632300</v>
+        <v>625700</v>
       </c>
       <c r="F8" s="3">
-        <v>394100</v>
+        <v>389900</v>
       </c>
       <c r="G8" s="3">
-        <v>350200</v>
+        <v>346500</v>
       </c>
       <c r="H8" s="3">
-        <v>246100</v>
+        <v>243500</v>
       </c>
       <c r="I8" s="3">
-        <v>113300</v>
+        <v>112100</v>
       </c>
       <c r="J8" s="3">
-        <v>37400</v>
+        <v>37000</v>
       </c>
       <c r="K8" s="3">
         <v>19000</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>409600</v>
+        <v>405300</v>
       </c>
       <c r="E9" s="3">
-        <v>388900</v>
+        <v>384800</v>
       </c>
       <c r="F9" s="3">
-        <v>250000</v>
+        <v>247400</v>
       </c>
       <c r="G9" s="3">
-        <v>222100</v>
+        <v>219700</v>
       </c>
       <c r="H9" s="3">
-        <v>140200</v>
+        <v>138700</v>
       </c>
       <c r="I9" s="3">
-        <v>59500</v>
+        <v>58900</v>
       </c>
       <c r="J9" s="3">
-        <v>17300</v>
+        <v>17200</v>
       </c>
       <c r="K9" s="3">
         <v>10100</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>179100</v>
+        <v>177200</v>
       </c>
       <c r="E10" s="3">
-        <v>243500</v>
+        <v>240900</v>
       </c>
       <c r="F10" s="3">
-        <v>144100</v>
+        <v>142600</v>
       </c>
       <c r="G10" s="3">
-        <v>128100</v>
+        <v>126800</v>
       </c>
       <c r="H10" s="3">
-        <v>105900</v>
+        <v>104800</v>
       </c>
       <c r="I10" s="3">
-        <v>53700</v>
+        <v>53200</v>
       </c>
       <c r="J10" s="3">
-        <v>20100</v>
+        <v>19900</v>
       </c>
       <c r="K10" s="3">
         <v>8900</v>
@@ -954,22 +954,22 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1000</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
         <v>1400</v>
       </c>
       <c r="F14" s="3">
-        <v>75700</v>
+        <v>74900</v>
       </c>
       <c r="G14" s="3">
         <v>200</v>
       </c>
       <c r="H14" s="3">
-        <v>-36700</v>
+        <v>-36300</v>
       </c>
       <c r="I14" s="3">
-        <v>-15600</v>
+        <v>-15400</v>
       </c>
       <c r="J14" s="3">
         <v>-4500</v>
@@ -996,19 +996,19 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>55000</v>
+        <v>54400</v>
       </c>
       <c r="E15" s="3">
-        <v>53300</v>
+        <v>52700</v>
       </c>
       <c r="F15" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="G15" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H15" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I15" s="3">
         <v>6100</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>678100</v>
+        <v>672200</v>
       </c>
       <c r="E17" s="3">
-        <v>656800</v>
+        <v>649900</v>
       </c>
       <c r="F17" s="3">
-        <v>480000</v>
+        <v>475000</v>
       </c>
       <c r="G17" s="3">
-        <v>331700</v>
+        <v>328200</v>
       </c>
       <c r="H17" s="3">
-        <v>191300</v>
+        <v>189300</v>
       </c>
       <c r="I17" s="3">
-        <v>90700</v>
+        <v>89800</v>
       </c>
       <c r="J17" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="K17" s="3">
         <v>7800</v>
@@ -1095,22 +1095,22 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-89400</v>
+        <v>-89700</v>
       </c>
       <c r="E18" s="3">
-        <v>-24500</v>
+        <v>-24200</v>
       </c>
       <c r="F18" s="3">
-        <v>-85900</v>
+        <v>-85000</v>
       </c>
       <c r="G18" s="3">
-        <v>18500</v>
+        <v>18300</v>
       </c>
       <c r="H18" s="3">
-        <v>54700</v>
+        <v>54200</v>
       </c>
       <c r="I18" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="J18" s="3">
         <v>-1900</v>
@@ -1158,22 +1158,22 @@
         <v>119100</v>
       </c>
       <c r="E20" s="3">
-        <v>32200</v>
+        <v>31900</v>
       </c>
       <c r="F20" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G20" s="3">
-        <v>84900</v>
+        <v>84000</v>
       </c>
       <c r="H20" s="3">
-        <v>-18800</v>
+        <v>-18600</v>
       </c>
       <c r="I20" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="J20" s="3">
-        <v>-2500</v>
+        <v>-2400</v>
       </c>
       <c r="K20" s="3">
         <v>-3400</v>
@@ -1197,22 +1197,22 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>84700</v>
+        <v>84000</v>
       </c>
       <c r="E21" s="3">
-        <v>61000</v>
+        <v>60500</v>
       </c>
       <c r="F21" s="3">
-        <v>-48600</v>
+        <v>-48000</v>
       </c>
       <c r="G21" s="3">
-        <v>122000</v>
+        <v>120800</v>
       </c>
       <c r="H21" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="I21" s="3">
-        <v>24500</v>
+        <v>24200</v>
       </c>
       <c r="J21" s="3">
         <v>-3300</v>
@@ -1239,19 +1239,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37300</v>
+        <v>36900</v>
       </c>
       <c r="E22" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="F22" s="3">
-        <v>13700</v>
+        <v>13500</v>
       </c>
       <c r="G22" s="3">
-        <v>14600</v>
+        <v>14400</v>
       </c>
       <c r="H22" s="3">
-        <v>8700</v>
+        <v>8600</v>
       </c>
       <c r="I22" s="3">
         <v>2300</v>
@@ -1284,19 +1284,19 @@
         <v>-7500</v>
       </c>
       <c r="E23" s="3">
-        <v>-31800</v>
+        <v>-31500</v>
       </c>
       <c r="F23" s="3">
-        <v>-91700</v>
+        <v>-90800</v>
       </c>
       <c r="G23" s="3">
-        <v>88800</v>
+        <v>87900</v>
       </c>
       <c r="H23" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="I23" s="3">
-        <v>16000</v>
+        <v>15800</v>
       </c>
       <c r="J23" s="3">
         <v>-5500</v>
@@ -1323,22 +1323,22 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>42400</v>
+        <v>42000</v>
       </c>
       <c r="E24" s="3">
-        <v>87100</v>
+        <v>86200</v>
       </c>
       <c r="F24" s="3">
-        <v>-15400</v>
+        <v>-15200</v>
       </c>
       <c r="G24" s="3">
-        <v>41600</v>
+        <v>41100</v>
       </c>
       <c r="H24" s="3">
-        <v>8300</v>
+        <v>8200</v>
       </c>
       <c r="I24" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="J24" s="3">
         <v>-2100</v>
@@ -1407,22 +1407,22 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-50000</v>
+        <v>-49400</v>
       </c>
       <c r="E26" s="3">
-        <v>-118900</v>
+        <v>-117700</v>
       </c>
       <c r="F26" s="3">
-        <v>-76400</v>
+        <v>-75600</v>
       </c>
       <c r="G26" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="H26" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="I26" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="J26" s="3">
         <v>-3400</v>
@@ -1449,22 +1449,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-50000</v>
+        <v>-49400</v>
       </c>
       <c r="E27" s="3">
-        <v>-118900</v>
+        <v>-117700</v>
       </c>
       <c r="F27" s="3">
-        <v>-76400</v>
+        <v>-75600</v>
       </c>
       <c r="G27" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="H27" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="I27" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="J27" s="3">
         <v>-3400</v>
@@ -1662,22 +1662,22 @@
         <v>-119100</v>
       </c>
       <c r="E32" s="3">
-        <v>-32200</v>
+        <v>-31900</v>
       </c>
       <c r="F32" s="3">
-        <v>-7900</v>
+        <v>-7800</v>
       </c>
       <c r="G32" s="3">
-        <v>-84900</v>
+        <v>-84000</v>
       </c>
       <c r="H32" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="I32" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="J32" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="K32" s="3">
         <v>3400</v>
@@ -1701,22 +1701,22 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-50000</v>
+        <v>-49400</v>
       </c>
       <c r="E33" s="3">
-        <v>-118900</v>
+        <v>-117700</v>
       </c>
       <c r="F33" s="3">
-        <v>-76400</v>
+        <v>-75600</v>
       </c>
       <c r="G33" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="H33" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="I33" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="J33" s="3">
         <v>-3400</v>
@@ -1785,22 +1785,22 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-50000</v>
+        <v>-49400</v>
       </c>
       <c r="E35" s="3">
-        <v>-118900</v>
+        <v>-117700</v>
       </c>
       <c r="F35" s="3">
-        <v>-76400</v>
+        <v>-75600</v>
       </c>
       <c r="G35" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="H35" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="I35" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="J35" s="3">
         <v>-3400</v>
@@ -1910,22 +1910,22 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>47500</v>
+        <v>47000</v>
       </c>
       <c r="E41" s="3">
-        <v>54300</v>
+        <v>53800</v>
       </c>
       <c r="F41" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="G41" s="3">
-        <v>12500</v>
+        <v>12300</v>
       </c>
       <c r="H41" s="3">
         <v>500</v>
       </c>
       <c r="I41" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="J41" s="3">
         <v>5300</v>
@@ -1952,22 +1952,22 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>39200</v>
+        <v>38800</v>
       </c>
       <c r="E42" s="3">
-        <v>50800</v>
+        <v>50200</v>
       </c>
       <c r="F42" s="3">
-        <v>9900</v>
+        <v>9800</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>19800</v>
+        <v>19600</v>
       </c>
       <c r="I42" s="3">
-        <v>5300</v>
+        <v>5200</v>
       </c>
       <c r="J42" s="3">
         <v>1100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>130700</v>
+        <v>129300</v>
       </c>
       <c r="E43" s="3">
-        <v>107600</v>
+        <v>106400</v>
       </c>
       <c r="F43" s="3">
-        <v>62800</v>
+        <v>62100</v>
       </c>
       <c r="G43" s="3">
-        <v>49200</v>
+        <v>48700</v>
       </c>
       <c r="H43" s="3">
-        <v>34000</v>
+        <v>33700</v>
       </c>
       <c r="I43" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="J43" s="3">
-        <v>11600</v>
+        <v>11500</v>
       </c>
       <c r="K43" s="3">
         <v>10000</v>
@@ -2036,19 +2036,19 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>19300</v>
+        <v>19100</v>
       </c>
       <c r="E44" s="3">
-        <v>19200</v>
+        <v>19000</v>
       </c>
       <c r="F44" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="G44" s="3">
-        <v>14300</v>
+        <v>14100</v>
       </c>
       <c r="H44" s="3">
-        <v>10900</v>
+        <v>10700</v>
       </c>
       <c r="I44" s="3">
         <v>1900</v>
@@ -2078,7 +2078,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E45" s="3">
         <v>2100</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>238700</v>
+        <v>236200</v>
       </c>
       <c r="E46" s="3">
-        <v>234000</v>
+        <v>231500</v>
       </c>
       <c r="F46" s="3">
-        <v>100600</v>
+        <v>99500</v>
       </c>
       <c r="G46" s="3">
-        <v>69600</v>
+        <v>68900</v>
       </c>
       <c r="H46" s="3">
-        <v>60300</v>
+        <v>59600</v>
       </c>
       <c r="I46" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="J46" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="K46" s="3">
         <v>19300</v>
@@ -2174,7 +2174,7 @@
         <v>200</v>
       </c>
       <c r="H47" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="I47" s="3">
         <v>200</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1134400</v>
+        <v>1122500</v>
       </c>
       <c r="E48" s="3">
-        <v>1090800</v>
+        <v>1079400</v>
       </c>
       <c r="F48" s="3">
-        <v>540000</v>
+        <v>534400</v>
       </c>
       <c r="G48" s="3">
-        <v>395400</v>
+        <v>391200</v>
       </c>
       <c r="H48" s="3">
-        <v>274800</v>
+        <v>271900</v>
       </c>
       <c r="I48" s="3">
-        <v>163200</v>
+        <v>161500</v>
       </c>
       <c r="J48" s="3">
-        <v>32000</v>
+        <v>31700</v>
       </c>
       <c r="K48" s="3">
         <v>44300</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1373200</v>
+        <v>1358800</v>
       </c>
       <c r="E54" s="3">
-        <v>1324900</v>
+        <v>1311000</v>
       </c>
       <c r="F54" s="3">
-        <v>642100</v>
+        <v>635400</v>
       </c>
       <c r="G54" s="3">
-        <v>465100</v>
+        <v>460300</v>
       </c>
       <c r="H54" s="3">
-        <v>338600</v>
+        <v>335000</v>
       </c>
       <c r="I54" s="3">
-        <v>202700</v>
+        <v>200600</v>
       </c>
       <c r="J54" s="3">
-        <v>54100</v>
+        <v>53600</v>
       </c>
       <c r="K54" s="3">
         <v>64800</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>514300</v>
+        <v>508900</v>
       </c>
       <c r="E57" s="3">
-        <v>424400</v>
+        <v>419900</v>
       </c>
       <c r="F57" s="3">
-        <v>142500</v>
+        <v>141000</v>
       </c>
       <c r="G57" s="3">
-        <v>49400</v>
+        <v>48900</v>
       </c>
       <c r="H57" s="3">
-        <v>64200</v>
+        <v>63600</v>
       </c>
       <c r="I57" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="J57" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="K57" s="3">
         <v>22300</v>
@@ -2579,13 +2579,13 @@
         <v>1800</v>
       </c>
       <c r="E58" s="3">
-        <v>58700</v>
+        <v>58000</v>
       </c>
       <c r="F58" s="3">
         <v>1200</v>
       </c>
       <c r="G58" s="3">
-        <v>7000</v>
+        <v>6900</v>
       </c>
       <c r="H58" s="3">
         <v>4700</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>52300</v>
+        <v>51800</v>
       </c>
       <c r="E59" s="3">
-        <v>60200</v>
+        <v>59600</v>
       </c>
       <c r="F59" s="3">
-        <v>38200</v>
+        <v>37800</v>
       </c>
       <c r="G59" s="3">
-        <v>39300</v>
+        <v>38900</v>
       </c>
       <c r="H59" s="3">
-        <v>23300</v>
+        <v>23000</v>
       </c>
       <c r="I59" s="3">
-        <v>13800</v>
+        <v>13700</v>
       </c>
       <c r="J59" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="K59" s="3">
         <v>5800</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>568400</v>
+        <v>562500</v>
       </c>
       <c r="E60" s="3">
-        <v>543300</v>
+        <v>537600</v>
       </c>
       <c r="F60" s="3">
-        <v>182000</v>
+        <v>180100</v>
       </c>
       <c r="G60" s="3">
-        <v>95700</v>
+        <v>94700</v>
       </c>
       <c r="H60" s="3">
-        <v>92300</v>
+        <v>91300</v>
       </c>
       <c r="I60" s="3">
-        <v>53000</v>
+        <v>52400</v>
       </c>
       <c r="J60" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="K60" s="3">
         <v>28300</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>41600</v>
+        <v>41100</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="G61" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="H61" s="3">
-        <v>31600</v>
+        <v>31300</v>
       </c>
       <c r="I61" s="3">
-        <v>17700</v>
+        <v>17500</v>
       </c>
       <c r="J61" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="K61" s="3">
         <v>12300</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>403800</v>
+        <v>399500</v>
       </c>
       <c r="E62" s="3">
-        <v>371100</v>
+        <v>367200</v>
       </c>
       <c r="F62" s="3">
-        <v>153100</v>
+        <v>151500</v>
       </c>
       <c r="G62" s="3">
-        <v>107200</v>
+        <v>106100</v>
       </c>
       <c r="H62" s="3">
-        <v>78500</v>
+        <v>77700</v>
       </c>
       <c r="I62" s="3">
-        <v>52600</v>
+        <v>52000</v>
       </c>
       <c r="J62" s="3">
-        <v>17800</v>
+        <v>17700</v>
       </c>
       <c r="K62" s="3">
         <v>16500</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1013800</v>
+        <v>1003100</v>
       </c>
       <c r="E66" s="3">
-        <v>914400</v>
+        <v>904800</v>
       </c>
       <c r="F66" s="3">
-        <v>370700</v>
+        <v>366800</v>
       </c>
       <c r="G66" s="3">
-        <v>234800</v>
+        <v>232400</v>
       </c>
       <c r="H66" s="3">
-        <v>202400</v>
+        <v>200300</v>
       </c>
       <c r="I66" s="3">
-        <v>123200</v>
+        <v>121900</v>
       </c>
       <c r="J66" s="3">
-        <v>53100</v>
+        <v>52600</v>
       </c>
       <c r="K66" s="3">
         <v>57200</v>
@@ -3140,22 +3140,22 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>62900</v>
+        <v>62200</v>
       </c>
       <c r="E72" s="3">
-        <v>112900</v>
+        <v>111700</v>
       </c>
       <c r="F72" s="3">
-        <v>119000</v>
+        <v>117700</v>
       </c>
       <c r="G72" s="3">
-        <v>129500</v>
+        <v>128100</v>
       </c>
       <c r="H72" s="3">
-        <v>60400</v>
+        <v>59800</v>
       </c>
       <c r="I72" s="3">
-        <v>27200</v>
+        <v>26900</v>
       </c>
       <c r="J72" s="3">
         <v>-2600</v>
@@ -3308,22 +3308,22 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>359400</v>
+        <v>355600</v>
       </c>
       <c r="E76" s="3">
-        <v>410600</v>
+        <v>406200</v>
       </c>
       <c r="F76" s="3">
-        <v>271400</v>
+        <v>268600</v>
       </c>
       <c r="G76" s="3">
-        <v>230300</v>
+        <v>227900</v>
       </c>
       <c r="H76" s="3">
-        <v>136200</v>
+        <v>134800</v>
       </c>
       <c r="I76" s="3">
-        <v>79500</v>
+        <v>78700</v>
       </c>
       <c r="J76" s="3">
         <v>1000</v>
@@ -3439,22 +3439,22 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-50000</v>
+        <v>-49400</v>
       </c>
       <c r="E81" s="3">
-        <v>-118900</v>
+        <v>-117700</v>
       </c>
       <c r="F81" s="3">
-        <v>-76400</v>
+        <v>-75600</v>
       </c>
       <c r="G81" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="H81" s="3">
-        <v>18900</v>
+        <v>18700</v>
       </c>
       <c r="I81" s="3">
-        <v>14500</v>
+        <v>14400</v>
       </c>
       <c r="J81" s="3">
         <v>-3400</v>
@@ -3499,19 +3499,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>55000</v>
+        <v>54400</v>
       </c>
       <c r="E83" s="3">
-        <v>53300</v>
+        <v>52700</v>
       </c>
       <c r="F83" s="3">
-        <v>29400</v>
+        <v>29100</v>
       </c>
       <c r="G83" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="H83" s="3">
-        <v>11300</v>
+        <v>11100</v>
       </c>
       <c r="I83" s="3">
         <v>6100</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>101200</v>
+        <v>100200</v>
       </c>
       <c r="E89" s="3">
-        <v>118900</v>
+        <v>117700</v>
       </c>
       <c r="F89" s="3">
-        <v>76300</v>
+        <v>75500</v>
       </c>
       <c r="G89" s="3">
-        <v>39500</v>
+        <v>39100</v>
       </c>
       <c r="H89" s="3">
-        <v>46000</v>
+        <v>45500</v>
       </c>
       <c r="I89" s="3">
-        <v>21100</v>
+        <v>20900</v>
       </c>
       <c r="J89" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="K89" s="3">
         <v>15000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-90700</v>
+        <v>-89800</v>
       </c>
       <c r="E91" s="3">
-        <v>-82000</v>
+        <v>-81200</v>
       </c>
       <c r="F91" s="3">
-        <v>-42500</v>
+        <v>-42000</v>
       </c>
       <c r="G91" s="3">
-        <v>-36500</v>
+        <v>-36100</v>
       </c>
       <c r="H91" s="3">
-        <v>-37600</v>
+        <v>-37200</v>
       </c>
       <c r="I91" s="3">
-        <v>-22600</v>
+        <v>-22300</v>
       </c>
       <c r="J91" s="3">
-        <v>-7100</v>
+        <v>-7000</v>
       </c>
       <c r="K91" s="3">
         <v>-10500</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-106800</v>
+        <v>-105700</v>
       </c>
       <c r="E94" s="3">
-        <v>-142300</v>
+        <v>-140800</v>
       </c>
       <c r="F94" s="3">
-        <v>-53700</v>
+        <v>-53200</v>
       </c>
       <c r="G94" s="3">
-        <v>-20100</v>
+        <v>-19900</v>
       </c>
       <c r="H94" s="3">
-        <v>-37900</v>
+        <v>-37500</v>
       </c>
       <c r="I94" s="3">
-        <v>-24300</v>
+        <v>-24100</v>
       </c>
       <c r="J94" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="K94" s="3">
         <v>-15500</v>
@@ -4165,19 +4165,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-13600</v>
+        <v>-13500</v>
       </c>
       <c r="E100" s="3">
-        <v>-8000</v>
+        <v>-7900</v>
       </c>
       <c r="F100" s="3">
-        <v>-26500</v>
+        <v>-26300</v>
       </c>
       <c r="G100" s="3">
-        <v>-19700</v>
+        <v>-19500</v>
       </c>
       <c r="H100" s="3">
-        <v>-9200</v>
+        <v>-9100</v>
       </c>
       <c r="I100" s="3">
         <v>2500</v>
@@ -4207,13 +4207,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6200</v>
+        <v>6100</v>
       </c>
       <c r="E101" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G101" s="3">
         <v>1700</v>
@@ -4249,10 +4249,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="E102" s="3">
-        <v>-19000</v>
+        <v>-18800</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
